--- a/CH-085 Custome Ranking.xlsx
+++ b/CH-085 Custome Ranking.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84171159-DA88-43F9-9CD6-4BF4EA0C55DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7840-C0BB-44E2-9755-FE53281F0A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="fx">_xlfn.LAMBDA(_xlpm.l,_xlpm.r,          _xlfn.LET(              _xlpm.z, _xlfn._xlws.FILTER(_xlpm.l,_xlfn.CHOOSECOLS(_xlpm.l,2)=-1),              _xlpm.a, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&lt;50),1,-1),1,1),              _xlpm.b, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&gt;50),1),1,1),              _xlpm.adist, ABS(50-_xlpm.a), _xlpm.bdist, ABS(50-_xlpm.b),              _xlpm.ar, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+1,_xlpm.r+2), _xlpm.br, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+2,_xlpm.r+1),              _xlpm.zz,_xlfn.VSTACK(_xlfn.HSTACK(_xlpm.a,_xlpm.ar),_xlfn.HSTACK(_xlpm.b,_xlpm.br)),_xlpm.zz  ))</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -1176,7 +1177,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11022,8 +11023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A5C7EA-2FCA-41E2-AC85-55BADB7ED10A}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16527,4 +16528,5576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC06BA0-2260-4F33-9AB9-337B50AE53B8}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="26" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="9">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="9">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="13">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="9">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="9">
+        <v>30</v>
+      </c>
+      <c r="G7" s="10">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="15">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="9">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="16">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10">
+        <v>11</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="17">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9">
+        <v>42</v>
+      </c>
+      <c r="G10" s="10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="18">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9">
+        <v>43</v>
+      </c>
+      <c r="G11" s="10">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="19">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9">
+        <v>44</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9">
+        <v>45</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="9">
+        <v>47</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>52</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="9">
+        <v>60</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="9">
+        <v>63</v>
+      </c>
+      <c r="G18" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="17">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="9">
+        <v>64</v>
+      </c>
+      <c r="G19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="16">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9">
+        <v>67</v>
+      </c>
+      <c r="G20" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="9">
+        <v>68</v>
+      </c>
+      <c r="G21" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="9">
+        <v>69</v>
+      </c>
+      <c r="G22" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="13">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="9">
+        <v>74</v>
+      </c>
+      <c r="G23" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="24" cm="1">
+        <f t="array" ref="B30:C50">_xlfn.LET(
+_xlpm.a, B3:B23,
+_xlpm.fl, _xlfn.LAMBDA(_xlpm.x, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.a,IF(_xlpm.x=-1,_xlpm.a&lt;50, IF(_xlpm.x=1,_xlpm.a&gt;50))),1,_xlpm.x)),
+_xlpm.b, _xlfn.HSTACK(_xlpm.fl(-1),_xlpm.fl(1)),
+_xlpm.c, IFERROR(ABS(_xlpm.b-50),100),
+_xlpm.cl, _xlfn.LAMBDA(_xlpm.x, _xlfn.DROP(_xlpm.c,,_xlpm.x)),
+_xlpm.d, _xlfn.LAMBDA(_xlpm.x,_xlpm.y, IF(_xlpm.x&lt;_xlpm.y,_xlpm.fl(-1),_xlpm.fl(1))),
+_xlpm.e, _xlfn.HSTACK(_xlpm.d(_xlpm.cl(-1),_xlpm.cl(1)),_xlpm.d(_xlpm.cl(1),_xlpm.cl(-1))),
+_xlpm.f, _xlfn.HSTACK(_xlpm.a, _xlfn.XMATCH(_xlpm.a, _xlfn.TOCOL(_xlpm.e,3))),
+_xlpm.f
+)</f>
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="24">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="24">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="24">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="24">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="24">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="24">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="24">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="24">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="24">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="24">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="24">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="24">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="24">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="24">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="24">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="24">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="24">
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="24">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="24"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="24"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="24"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="24"/>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="24"/>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="24"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="24"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="24"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="24"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="24"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="24"/>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="24"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="24"/>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="24"/>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="24"/>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="24"/>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="24"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="24"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="24"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="24"/>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="24"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="24"/>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="24"/>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="24"/>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="24"/>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="24"/>
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="24"/>
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="24"/>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="24"/>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="24"/>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="24"/>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="24"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="24"/>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20"/>
+      <c r="B84" s="24"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" s="24"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20"/>
+      <c r="B86" s="24"/>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20"/>
+      <c r="B87" s="24"/>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="24"/>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="24"/>
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="24"/>
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="24"/>
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="24"/>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="20"/>
+      <c r="B93" s="24"/>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="20"/>
+      <c r="B94" s="24"/>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="24"/>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20"/>
+      <c r="B96" s="24"/>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="20"/>
+      <c r="B97" s="24"/>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20"/>
+      <c r="B98" s="24"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20"/>
+      <c r="B99" s="24"/>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="20"/>
+      <c r="B100" s="24"/>
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="20"/>
+      <c r="B101" s="24"/>
+      <c r="F101" s="23"/>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="20"/>
+      <c r="B102" s="24"/>
+      <c r="F102" s="23"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="20"/>
+      <c r="B103" s="24"/>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20"/>
+      <c r="B104" s="24"/>
+      <c r="F104" s="23"/>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="20"/>
+      <c r="B105" s="24"/>
+      <c r="F105" s="23"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="20"/>
+      <c r="B106" s="24"/>
+      <c r="F106" s="23"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="20"/>
+      <c r="B107" s="24"/>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="20"/>
+      <c r="B108" s="24"/>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="20"/>
+      <c r="B109" s="24"/>
+      <c r="F109" s="23"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="20"/>
+      <c r="B110" s="24"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="20"/>
+      <c r="B111" s="24"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="20"/>
+      <c r="B112" s="24"/>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="20"/>
+      <c r="B113" s="24"/>
+      <c r="F113" s="23"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+      <c r="B114" s="24"/>
+      <c r="F114" s="23"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="20"/>
+      <c r="B115" s="24"/>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="20"/>
+      <c r="B116" s="24"/>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="20"/>
+      <c r="B117" s="24"/>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="20"/>
+      <c r="B118" s="24"/>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20"/>
+      <c r="B119" s="24"/>
+      <c r="F119" s="23"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="20"/>
+      <c r="B120" s="24"/>
+      <c r="F120" s="23"/>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="20"/>
+      <c r="B121" s="24"/>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="20"/>
+      <c r="B122" s="24"/>
+      <c r="F122" s="23"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="20"/>
+      <c r="B123" s="24"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="20"/>
+      <c r="B124" s="24"/>
+      <c r="F124" s="23"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="20"/>
+      <c r="B125" s="24"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="24"/>
+      <c r="F126" s="23"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="24"/>
+      <c r="F127" s="23"/>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="20"/>
+      <c r="B128" s="24"/>
+      <c r="F128" s="23"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="20"/>
+      <c r="B129" s="24"/>
+      <c r="F129" s="23"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="20"/>
+      <c r="B130" s="24"/>
+      <c r="F130" s="23"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="20"/>
+      <c r="B131" s="24"/>
+      <c r="F131" s="23"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="20"/>
+      <c r="B132" s="24"/>
+      <c r="F132" s="23"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="20"/>
+      <c r="B133" s="24"/>
+      <c r="F133" s="23"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="20"/>
+      <c r="B134" s="24"/>
+      <c r="F134" s="23"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="20"/>
+      <c r="B135" s="24"/>
+      <c r="F135" s="23"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="20"/>
+      <c r="B136" s="24"/>
+      <c r="F136" s="23"/>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="20"/>
+      <c r="B137" s="24"/>
+      <c r="F137" s="23"/>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="20"/>
+      <c r="B138" s="24"/>
+      <c r="F138" s="23"/>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="20"/>
+      <c r="B139" s="24"/>
+      <c r="F139" s="23"/>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="20"/>
+      <c r="B140" s="24"/>
+      <c r="F140" s="23"/>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="20"/>
+      <c r="B141" s="24"/>
+      <c r="F141" s="23"/>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="20"/>
+      <c r="B142" s="24"/>
+      <c r="F142" s="23"/>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="20"/>
+      <c r="B143" s="24"/>
+      <c r="F143" s="23"/>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="20"/>
+      <c r="B144" s="24"/>
+      <c r="F144" s="23"/>
+    </row>
+    <row r="145" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="20"/>
+      <c r="B145" s="24"/>
+      <c r="F145" s="23"/>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="20"/>
+      <c r="B146" s="24"/>
+      <c r="F146" s="23"/>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="20"/>
+      <c r="B147" s="24"/>
+      <c r="F147" s="23"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="20"/>
+      <c r="B148" s="24"/>
+      <c r="F148" s="23"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="20"/>
+      <c r="B149" s="24"/>
+      <c r="F149" s="23"/>
+    </row>
+    <row r="150" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="20"/>
+      <c r="B150" s="24"/>
+      <c r="F150" s="23"/>
+    </row>
+    <row r="151" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="24"/>
+      <c r="F151" s="23"/>
+    </row>
+    <row r="152" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="20"/>
+      <c r="B152" s="24"/>
+      <c r="F152" s="23"/>
+    </row>
+    <row r="153" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="20"/>
+      <c r="B153" s="24"/>
+      <c r="F153" s="23"/>
+    </row>
+    <row r="154" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="20"/>
+      <c r="B154" s="24"/>
+      <c r="F154" s="23"/>
+    </row>
+    <row r="155" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="24"/>
+      <c r="F155" s="23"/>
+    </row>
+    <row r="156" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="20"/>
+      <c r="B156" s="24"/>
+      <c r="F156" s="23"/>
+    </row>
+    <row r="157" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="20"/>
+      <c r="B157" s="24"/>
+      <c r="F157" s="23"/>
+    </row>
+    <row r="158" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="20"/>
+      <c r="B158" s="24"/>
+      <c r="F158" s="23"/>
+    </row>
+    <row r="159" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="20"/>
+      <c r="B159" s="24"/>
+      <c r="F159" s="23"/>
+    </row>
+    <row r="160" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="20"/>
+      <c r="B160" s="24"/>
+      <c r="F160" s="23"/>
+    </row>
+    <row r="161" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="20"/>
+      <c r="B161" s="24"/>
+      <c r="F161" s="23"/>
+    </row>
+    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="20"/>
+      <c r="B162" s="24"/>
+      <c r="F162" s="23"/>
+    </row>
+    <row r="163" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="20"/>
+      <c r="B163" s="24"/>
+      <c r="F163" s="23"/>
+    </row>
+    <row r="164" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="20"/>
+      <c r="B164" s="24"/>
+      <c r="F164" s="23"/>
+    </row>
+    <row r="165" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="20"/>
+      <c r="B165" s="24"/>
+      <c r="F165" s="23"/>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="20"/>
+      <c r="B166" s="24"/>
+      <c r="F166" s="23"/>
+    </row>
+    <row r="167" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="20"/>
+      <c r="B167" s="24"/>
+      <c r="F167" s="23"/>
+    </row>
+    <row r="168" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="20"/>
+      <c r="B168" s="24"/>
+      <c r="F168" s="23"/>
+    </row>
+    <row r="169" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="20"/>
+      <c r="B169" s="24"/>
+      <c r="F169" s="23"/>
+    </row>
+    <row r="170" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="20"/>
+      <c r="B170" s="24"/>
+      <c r="F170" s="23"/>
+    </row>
+    <row r="171" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="20"/>
+      <c r="B171" s="24"/>
+      <c r="F171" s="23"/>
+    </row>
+    <row r="172" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="20"/>
+      <c r="B172" s="24"/>
+      <c r="F172" s="23"/>
+    </row>
+    <row r="173" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="20"/>
+      <c r="B173" s="24"/>
+      <c r="F173" s="23"/>
+    </row>
+    <row r="174" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="20"/>
+      <c r="B174" s="24"/>
+      <c r="F174" s="23"/>
+    </row>
+    <row r="175" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="20"/>
+      <c r="B175" s="24"/>
+      <c r="F175" s="23"/>
+    </row>
+    <row r="176" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="20"/>
+      <c r="B176" s="24"/>
+      <c r="F176" s="23"/>
+    </row>
+    <row r="177" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="20"/>
+      <c r="B177" s="24"/>
+      <c r="F177" s="23"/>
+    </row>
+    <row r="178" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="20"/>
+      <c r="B178" s="24"/>
+      <c r="F178" s="23"/>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="20"/>
+      <c r="B179" s="24"/>
+      <c r="F179" s="23"/>
+    </row>
+    <row r="180" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="20"/>
+      <c r="B180" s="24"/>
+      <c r="F180" s="23"/>
+    </row>
+    <row r="181" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="20"/>
+      <c r="B181" s="24"/>
+      <c r="F181" s="23"/>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="20"/>
+      <c r="B182" s="24"/>
+      <c r="F182" s="23"/>
+    </row>
+    <row r="183" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="20"/>
+      <c r="B183" s="24"/>
+      <c r="F183" s="23"/>
+    </row>
+    <row r="184" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="20"/>
+      <c r="B184" s="24"/>
+      <c r="F184" s="23"/>
+    </row>
+    <row r="185" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="20"/>
+      <c r="B185" s="24"/>
+      <c r="F185" s="23"/>
+    </row>
+    <row r="186" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="20"/>
+      <c r="B186" s="24"/>
+      <c r="F186" s="23"/>
+    </row>
+    <row r="187" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="20"/>
+      <c r="B187" s="24"/>
+      <c r="F187" s="23"/>
+    </row>
+    <row r="188" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="20"/>
+      <c r="B188" s="24"/>
+      <c r="F188" s="23"/>
+    </row>
+    <row r="189" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="20"/>
+      <c r="B189" s="24"/>
+      <c r="F189" s="23"/>
+    </row>
+    <row r="190" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="20"/>
+      <c r="B190" s="24"/>
+      <c r="F190" s="23"/>
+    </row>
+    <row r="191" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="20"/>
+      <c r="B191" s="24"/>
+      <c r="F191" s="23"/>
+    </row>
+    <row r="192" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="20"/>
+      <c r="B192" s="24"/>
+      <c r="F192" s="23"/>
+    </row>
+    <row r="193" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="20"/>
+      <c r="B193" s="24"/>
+      <c r="F193" s="23"/>
+    </row>
+    <row r="194" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="20"/>
+      <c r="B194" s="24"/>
+      <c r="F194" s="23"/>
+    </row>
+    <row r="195" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="20"/>
+      <c r="B195" s="24"/>
+      <c r="F195" s="23"/>
+    </row>
+    <row r="196" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="20"/>
+      <c r="B196" s="24"/>
+      <c r="F196" s="23"/>
+    </row>
+    <row r="197" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="20"/>
+      <c r="B197" s="24"/>
+      <c r="F197" s="23"/>
+    </row>
+    <row r="198" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="20"/>
+      <c r="B198" s="24"/>
+      <c r="F198" s="23"/>
+    </row>
+    <row r="199" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="20"/>
+      <c r="B199" s="24"/>
+      <c r="F199" s="23"/>
+    </row>
+    <row r="200" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="20"/>
+      <c r="B200" s="24"/>
+      <c r="F200" s="23"/>
+    </row>
+    <row r="201" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="20"/>
+      <c r="B201" s="24"/>
+      <c r="F201" s="23"/>
+    </row>
+    <row r="202" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="20"/>
+      <c r="B202" s="24"/>
+      <c r="F202" s="23"/>
+    </row>
+    <row r="203" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="20"/>
+      <c r="B203" s="24"/>
+      <c r="F203" s="23"/>
+    </row>
+    <row r="204" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="20"/>
+      <c r="B204" s="24"/>
+      <c r="F204" s="23"/>
+    </row>
+    <row r="205" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="20"/>
+      <c r="B205" s="24"/>
+      <c r="F205" s="23"/>
+    </row>
+    <row r="206" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="20"/>
+      <c r="B206" s="24"/>
+      <c r="F206" s="23"/>
+    </row>
+    <row r="207" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="20"/>
+      <c r="B207" s="24"/>
+      <c r="F207" s="23"/>
+    </row>
+    <row r="208" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="20"/>
+      <c r="B208" s="24"/>
+      <c r="F208" s="23"/>
+    </row>
+    <row r="209" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="20"/>
+      <c r="B209" s="24"/>
+      <c r="F209" s="23"/>
+    </row>
+    <row r="210" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="20"/>
+      <c r="B210" s="24"/>
+      <c r="F210" s="23"/>
+    </row>
+    <row r="211" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="20"/>
+      <c r="B211" s="24"/>
+      <c r="F211" s="23"/>
+    </row>
+    <row r="212" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="20"/>
+      <c r="B212" s="24"/>
+      <c r="F212" s="23"/>
+    </row>
+    <row r="213" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="20"/>
+      <c r="B213" s="24"/>
+      <c r="F213" s="23"/>
+    </row>
+    <row r="214" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="20"/>
+      <c r="B214" s="24"/>
+      <c r="F214" s="23"/>
+    </row>
+    <row r="215" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="20"/>
+      <c r="B215" s="24"/>
+      <c r="F215" s="23"/>
+    </row>
+    <row r="216" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="20"/>
+      <c r="B216" s="24"/>
+      <c r="F216" s="23"/>
+    </row>
+    <row r="217" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="20"/>
+      <c r="B217" s="24"/>
+      <c r="F217" s="23"/>
+    </row>
+    <row r="218" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="20"/>
+      <c r="B218" s="24"/>
+      <c r="F218" s="23"/>
+    </row>
+    <row r="219" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="20"/>
+      <c r="B219" s="24"/>
+      <c r="F219" s="23"/>
+    </row>
+    <row r="220" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="20"/>
+      <c r="B220" s="24"/>
+      <c r="F220" s="23"/>
+    </row>
+    <row r="221" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="20"/>
+      <c r="B221" s="24"/>
+      <c r="F221" s="23"/>
+    </row>
+    <row r="222" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="20"/>
+      <c r="B222" s="24"/>
+      <c r="F222" s="23"/>
+    </row>
+    <row r="223" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="20"/>
+      <c r="B223" s="24"/>
+      <c r="F223" s="23"/>
+    </row>
+    <row r="224" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="20"/>
+      <c r="B224" s="24"/>
+      <c r="F224" s="23"/>
+    </row>
+    <row r="225" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="20"/>
+      <c r="B225" s="24"/>
+      <c r="F225" s="23"/>
+    </row>
+    <row r="226" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="20"/>
+      <c r="B226" s="24"/>
+      <c r="F226" s="23"/>
+    </row>
+    <row r="227" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="20"/>
+      <c r="B227" s="24"/>
+      <c r="F227" s="23"/>
+    </row>
+    <row r="228" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="20"/>
+      <c r="B228" s="24"/>
+      <c r="F228" s="23"/>
+    </row>
+    <row r="229" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="20"/>
+      <c r="B229" s="24"/>
+      <c r="F229" s="23"/>
+    </row>
+    <row r="230" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="20"/>
+      <c r="B230" s="24"/>
+      <c r="F230" s="23"/>
+    </row>
+    <row r="231" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="20"/>
+      <c r="B231" s="24"/>
+      <c r="F231" s="23"/>
+    </row>
+    <row r="232" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="20"/>
+      <c r="B232" s="24"/>
+      <c r="F232" s="23"/>
+    </row>
+    <row r="233" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="20"/>
+      <c r="B233" s="24"/>
+      <c r="F233" s="23"/>
+    </row>
+    <row r="234" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="20"/>
+      <c r="B234" s="24"/>
+      <c r="F234" s="23"/>
+    </row>
+    <row r="235" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="20"/>
+      <c r="B235" s="24"/>
+      <c r="F235" s="23"/>
+    </row>
+    <row r="236" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="20"/>
+      <c r="B236" s="24"/>
+      <c r="F236" s="23"/>
+    </row>
+    <row r="237" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="20"/>
+      <c r="B237" s="24"/>
+      <c r="F237" s="23"/>
+    </row>
+    <row r="238" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="20"/>
+      <c r="B238" s="24"/>
+      <c r="F238" s="23"/>
+    </row>
+    <row r="239" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="20"/>
+      <c r="B239" s="24"/>
+      <c r="F239" s="23"/>
+    </row>
+    <row r="240" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="20"/>
+      <c r="B240" s="24"/>
+      <c r="F240" s="23"/>
+    </row>
+    <row r="241" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="20"/>
+      <c r="B241" s="24"/>
+      <c r="F241" s="23"/>
+    </row>
+    <row r="242" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="20"/>
+      <c r="B242" s="24"/>
+      <c r="F242" s="23"/>
+    </row>
+    <row r="243" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="20"/>
+      <c r="B243" s="24"/>
+      <c r="F243" s="23"/>
+    </row>
+    <row r="244" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="20"/>
+      <c r="B244" s="24"/>
+      <c r="F244" s="23"/>
+    </row>
+    <row r="245" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="20"/>
+      <c r="B245" s="24"/>
+      <c r="F245" s="23"/>
+    </row>
+    <row r="246" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="20"/>
+      <c r="B246" s="24"/>
+      <c r="F246" s="23"/>
+    </row>
+    <row r="247" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="20"/>
+      <c r="B247" s="24"/>
+      <c r="F247" s="23"/>
+    </row>
+    <row r="248" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="20"/>
+      <c r="B248" s="24"/>
+      <c r="F248" s="23"/>
+    </row>
+    <row r="249" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="20"/>
+      <c r="B249" s="24"/>
+      <c r="F249" s="23"/>
+    </row>
+    <row r="250" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="20"/>
+      <c r="B250" s="24"/>
+      <c r="F250" s="23"/>
+    </row>
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="20"/>
+      <c r="B251" s="24"/>
+      <c r="F251" s="23"/>
+    </row>
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="20"/>
+      <c r="B252" s="24"/>
+      <c r="F252" s="23"/>
+    </row>
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="20"/>
+      <c r="B253" s="24"/>
+      <c r="F253" s="23"/>
+    </row>
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="20"/>
+      <c r="B254" s="24"/>
+      <c r="F254" s="23"/>
+    </row>
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="20"/>
+      <c r="B255" s="24"/>
+      <c r="F255" s="23"/>
+    </row>
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="20"/>
+      <c r="B256" s="24"/>
+      <c r="F256" s="23"/>
+    </row>
+    <row r="257" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="20"/>
+      <c r="B257" s="24"/>
+      <c r="F257" s="23"/>
+    </row>
+    <row r="258" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="20"/>
+      <c r="B258" s="24"/>
+      <c r="F258" s="23"/>
+    </row>
+    <row r="259" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="20"/>
+      <c r="B259" s="24"/>
+      <c r="F259" s="23"/>
+    </row>
+    <row r="260" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="20"/>
+      <c r="B260" s="24"/>
+      <c r="F260" s="23"/>
+    </row>
+    <row r="261" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="20"/>
+      <c r="B261" s="24"/>
+      <c r="F261" s="23"/>
+    </row>
+    <row r="262" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="20"/>
+      <c r="B262" s="24"/>
+      <c r="F262" s="23"/>
+    </row>
+    <row r="263" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="20"/>
+      <c r="B263" s="24"/>
+      <c r="F263" s="23"/>
+    </row>
+    <row r="264" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="20"/>
+      <c r="B264" s="24"/>
+      <c r="F264" s="23"/>
+    </row>
+    <row r="265" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="20"/>
+      <c r="B265" s="24"/>
+      <c r="F265" s="23"/>
+    </row>
+    <row r="266" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="20"/>
+      <c r="B266" s="24"/>
+      <c r="F266" s="23"/>
+    </row>
+    <row r="267" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="20"/>
+      <c r="B267" s="24"/>
+      <c r="F267" s="23"/>
+    </row>
+    <row r="268" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="20"/>
+      <c r="B268" s="24"/>
+      <c r="F268" s="23"/>
+    </row>
+    <row r="269" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="20"/>
+      <c r="B269" s="24"/>
+      <c r="F269" s="23"/>
+    </row>
+    <row r="270" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="20"/>
+      <c r="B270" s="24"/>
+      <c r="F270" s="23"/>
+    </row>
+    <row r="271" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="20"/>
+      <c r="B271" s="24"/>
+      <c r="F271" s="23"/>
+    </row>
+    <row r="272" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="20"/>
+      <c r="B272" s="24"/>
+      <c r="F272" s="23"/>
+    </row>
+    <row r="273" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="20"/>
+      <c r="B273" s="24"/>
+      <c r="F273" s="23"/>
+    </row>
+    <row r="274" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="20"/>
+      <c r="B274" s="24"/>
+      <c r="F274" s="23"/>
+    </row>
+    <row r="275" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="20"/>
+      <c r="B275" s="24"/>
+      <c r="F275" s="23"/>
+    </row>
+    <row r="276" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="20"/>
+      <c r="B276" s="24"/>
+      <c r="F276" s="23"/>
+    </row>
+    <row r="277" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="20"/>
+      <c r="B277" s="24"/>
+      <c r="F277" s="23"/>
+    </row>
+    <row r="278" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="20"/>
+      <c r="B278" s="24"/>
+      <c r="F278" s="23"/>
+    </row>
+    <row r="279" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="20"/>
+      <c r="B279" s="24"/>
+      <c r="F279" s="23"/>
+    </row>
+    <row r="280" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="20"/>
+      <c r="B280" s="24"/>
+      <c r="F280" s="23"/>
+    </row>
+    <row r="281" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="20"/>
+      <c r="B281" s="24"/>
+      <c r="F281" s="23"/>
+    </row>
+    <row r="282" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="20"/>
+      <c r="B282" s="24"/>
+      <c r="F282" s="23"/>
+    </row>
+    <row r="283" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="20"/>
+      <c r="B283" s="24"/>
+      <c r="F283" s="23"/>
+    </row>
+    <row r="284" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="20"/>
+      <c r="B284" s="24"/>
+      <c r="F284" s="23"/>
+    </row>
+    <row r="285" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="20"/>
+      <c r="B285" s="24"/>
+      <c r="F285" s="23"/>
+    </row>
+    <row r="286" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="20"/>
+      <c r="B286" s="24"/>
+      <c r="F286" s="23"/>
+    </row>
+    <row r="287" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="20"/>
+      <c r="B287" s="24"/>
+      <c r="F287" s="23"/>
+    </row>
+    <row r="288" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="20"/>
+      <c r="B288" s="24"/>
+      <c r="F288" s="23"/>
+    </row>
+    <row r="289" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="20"/>
+      <c r="B289" s="24"/>
+      <c r="F289" s="23"/>
+    </row>
+    <row r="290" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="20"/>
+      <c r="B290" s="24"/>
+      <c r="F290" s="23"/>
+    </row>
+    <row r="291" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="20"/>
+      <c r="B291" s="24"/>
+      <c r="F291" s="23"/>
+    </row>
+    <row r="292" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="20"/>
+      <c r="B292" s="24"/>
+      <c r="F292" s="23"/>
+    </row>
+    <row r="293" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="20"/>
+      <c r="B293" s="24"/>
+      <c r="F293" s="23"/>
+    </row>
+    <row r="294" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="20"/>
+      <c r="B294" s="24"/>
+      <c r="F294" s="23"/>
+    </row>
+    <row r="295" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="20"/>
+      <c r="B295" s="24"/>
+      <c r="F295" s="23"/>
+    </row>
+    <row r="296" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="20"/>
+      <c r="B296" s="24"/>
+      <c r="F296" s="23"/>
+    </row>
+    <row r="297" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="20"/>
+      <c r="B297" s="24"/>
+      <c r="F297" s="23"/>
+    </row>
+    <row r="298" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="20"/>
+      <c r="B298" s="24"/>
+      <c r="F298" s="23"/>
+    </row>
+    <row r="299" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="20"/>
+      <c r="B299" s="24"/>
+      <c r="F299" s="23"/>
+    </row>
+    <row r="300" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="20"/>
+      <c r="B300" s="24"/>
+      <c r="F300" s="23"/>
+    </row>
+    <row r="301" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="20"/>
+      <c r="B301" s="24"/>
+      <c r="F301" s="23"/>
+    </row>
+    <row r="302" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="20"/>
+      <c r="B302" s="24"/>
+      <c r="F302" s="23"/>
+    </row>
+    <row r="303" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="20"/>
+      <c r="B303" s="24"/>
+      <c r="F303" s="23"/>
+    </row>
+    <row r="304" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="20"/>
+      <c r="B304" s="24"/>
+      <c r="F304" s="23"/>
+    </row>
+    <row r="305" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="20"/>
+      <c r="B305" s="24"/>
+      <c r="F305" s="23"/>
+    </row>
+    <row r="306" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="20"/>
+      <c r="B306" s="24"/>
+      <c r="F306" s="23"/>
+    </row>
+    <row r="307" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="20"/>
+      <c r="B307" s="24"/>
+      <c r="F307" s="23"/>
+    </row>
+    <row r="308" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="20"/>
+      <c r="B308" s="24"/>
+      <c r="F308" s="23"/>
+    </row>
+    <row r="309" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="20"/>
+      <c r="B309" s="24"/>
+      <c r="F309" s="23"/>
+    </row>
+    <row r="310" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="20"/>
+      <c r="B310" s="24"/>
+      <c r="F310" s="23"/>
+    </row>
+    <row r="311" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="20"/>
+      <c r="B311" s="24"/>
+      <c r="F311" s="23"/>
+    </row>
+    <row r="312" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="20"/>
+      <c r="B312" s="24"/>
+      <c r="F312" s="23"/>
+    </row>
+    <row r="313" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="20"/>
+      <c r="B313" s="24"/>
+      <c r="F313" s="23"/>
+    </row>
+    <row r="314" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="20"/>
+      <c r="B314" s="24"/>
+      <c r="F314" s="23"/>
+    </row>
+    <row r="315" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="20"/>
+      <c r="B315" s="24"/>
+      <c r="F315" s="23"/>
+    </row>
+    <row r="316" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="20"/>
+      <c r="B316" s="24"/>
+      <c r="F316" s="23"/>
+    </row>
+    <row r="317" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="20"/>
+      <c r="B317" s="24"/>
+      <c r="F317" s="23"/>
+    </row>
+    <row r="318" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="20"/>
+      <c r="B318" s="24"/>
+      <c r="F318" s="23"/>
+    </row>
+    <row r="319" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="20"/>
+      <c r="B319" s="24"/>
+      <c r="F319" s="23"/>
+    </row>
+    <row r="320" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="20"/>
+      <c r="B320" s="24"/>
+      <c r="F320" s="23"/>
+    </row>
+    <row r="321" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="20"/>
+      <c r="B321" s="24"/>
+      <c r="F321" s="23"/>
+    </row>
+    <row r="322" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="20"/>
+      <c r="B322" s="24"/>
+      <c r="F322" s="23"/>
+    </row>
+    <row r="323" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="20"/>
+      <c r="B323" s="24"/>
+      <c r="F323" s="23"/>
+    </row>
+    <row r="324" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="20"/>
+      <c r="B324" s="24"/>
+      <c r="F324" s="23"/>
+    </row>
+    <row r="325" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="20"/>
+      <c r="B325" s="24"/>
+      <c r="F325" s="23"/>
+    </row>
+    <row r="326" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="20"/>
+      <c r="B326" s="24"/>
+      <c r="F326" s="23"/>
+    </row>
+    <row r="327" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="20"/>
+      <c r="B327" s="24"/>
+      <c r="F327" s="23"/>
+    </row>
+    <row r="328" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="20"/>
+      <c r="B328" s="24"/>
+      <c r="F328" s="23"/>
+    </row>
+    <row r="329" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="20"/>
+      <c r="B329" s="24"/>
+      <c r="F329" s="23"/>
+    </row>
+    <row r="330" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="20"/>
+      <c r="B330" s="24"/>
+      <c r="F330" s="23"/>
+    </row>
+    <row r="331" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="20"/>
+      <c r="B331" s="24"/>
+      <c r="F331" s="23"/>
+    </row>
+    <row r="332" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="20"/>
+      <c r="B332" s="24"/>
+      <c r="F332" s="23"/>
+    </row>
+    <row r="333" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="20"/>
+      <c r="B333" s="24"/>
+      <c r="F333" s="23"/>
+    </row>
+    <row r="334" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="20"/>
+      <c r="B334" s="24"/>
+      <c r="F334" s="23"/>
+    </row>
+    <row r="335" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="20"/>
+      <c r="B335" s="24"/>
+      <c r="F335" s="23"/>
+    </row>
+    <row r="336" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="20"/>
+      <c r="B336" s="24"/>
+      <c r="F336" s="23"/>
+    </row>
+    <row r="337" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="20"/>
+      <c r="B337" s="24"/>
+      <c r="F337" s="23"/>
+    </row>
+    <row r="338" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="20"/>
+      <c r="B338" s="24"/>
+      <c r="F338" s="23"/>
+    </row>
+    <row r="339" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="20"/>
+      <c r="B339" s="24"/>
+      <c r="F339" s="23"/>
+    </row>
+    <row r="340" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="20"/>
+      <c r="B340" s="24"/>
+      <c r="F340" s="23"/>
+    </row>
+    <row r="341" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="20"/>
+      <c r="B341" s="24"/>
+      <c r="F341" s="23"/>
+    </row>
+    <row r="342" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="20"/>
+      <c r="B342" s="24"/>
+      <c r="F342" s="23"/>
+    </row>
+    <row r="343" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="20"/>
+      <c r="B343" s="24"/>
+      <c r="F343" s="23"/>
+    </row>
+    <row r="344" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="20"/>
+      <c r="B344" s="24"/>
+      <c r="F344" s="23"/>
+    </row>
+    <row r="345" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="20"/>
+      <c r="B345" s="24"/>
+      <c r="F345" s="23"/>
+    </row>
+    <row r="346" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="20"/>
+      <c r="B346" s="24"/>
+      <c r="F346" s="23"/>
+    </row>
+    <row r="347" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="20"/>
+      <c r="B347" s="24"/>
+      <c r="F347" s="23"/>
+    </row>
+    <row r="348" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="20"/>
+      <c r="B348" s="24"/>
+      <c r="F348" s="23"/>
+    </row>
+    <row r="349" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="20"/>
+      <c r="B349" s="24"/>
+      <c r="F349" s="23"/>
+    </row>
+    <row r="350" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="20"/>
+      <c r="B350" s="24"/>
+      <c r="F350" s="23"/>
+    </row>
+    <row r="351" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="20"/>
+      <c r="B351" s="24"/>
+      <c r="F351" s="23"/>
+    </row>
+    <row r="352" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="20"/>
+      <c r="B352" s="24"/>
+      <c r="F352" s="23"/>
+    </row>
+    <row r="353" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="20"/>
+      <c r="B353" s="24"/>
+      <c r="F353" s="23"/>
+    </row>
+    <row r="354" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="20"/>
+      <c r="B354" s="24"/>
+      <c r="F354" s="23"/>
+    </row>
+    <row r="355" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="20"/>
+      <c r="B355" s="24"/>
+      <c r="F355" s="23"/>
+    </row>
+    <row r="356" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="20"/>
+      <c r="B356" s="24"/>
+      <c r="F356" s="23"/>
+    </row>
+    <row r="357" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="20"/>
+      <c r="B357" s="24"/>
+      <c r="F357" s="23"/>
+    </row>
+    <row r="358" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="20"/>
+      <c r="B358" s="24"/>
+      <c r="F358" s="23"/>
+    </row>
+    <row r="359" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="20"/>
+      <c r="B359" s="24"/>
+      <c r="F359" s="23"/>
+    </row>
+    <row r="360" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="20"/>
+      <c r="B360" s="24"/>
+      <c r="F360" s="23"/>
+    </row>
+    <row r="361" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="20"/>
+      <c r="B361" s="24"/>
+      <c r="F361" s="23"/>
+    </row>
+    <row r="362" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="20"/>
+      <c r="B362" s="24"/>
+      <c r="F362" s="23"/>
+    </row>
+    <row r="363" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="20"/>
+      <c r="B363" s="24"/>
+      <c r="F363" s="23"/>
+    </row>
+    <row r="364" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="20"/>
+      <c r="B364" s="24"/>
+      <c r="F364" s="23"/>
+    </row>
+    <row r="365" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="20"/>
+      <c r="B365" s="24"/>
+      <c r="F365" s="23"/>
+    </row>
+    <row r="366" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="20"/>
+      <c r="B366" s="24"/>
+      <c r="F366" s="23"/>
+    </row>
+    <row r="367" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="20"/>
+      <c r="B367" s="24"/>
+      <c r="F367" s="23"/>
+    </row>
+    <row r="368" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="20"/>
+      <c r="B368" s="24"/>
+      <c r="F368" s="23"/>
+    </row>
+    <row r="369" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="20"/>
+      <c r="B369" s="24"/>
+      <c r="F369" s="23"/>
+    </row>
+    <row r="370" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="20"/>
+      <c r="B370" s="24"/>
+      <c r="F370" s="23"/>
+    </row>
+    <row r="371" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="20"/>
+      <c r="B371" s="24"/>
+      <c r="F371" s="23"/>
+    </row>
+    <row r="372" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="20"/>
+      <c r="B372" s="24"/>
+      <c r="F372" s="23"/>
+    </row>
+    <row r="373" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="20"/>
+      <c r="B373" s="24"/>
+      <c r="F373" s="23"/>
+    </row>
+    <row r="374" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="20"/>
+      <c r="B374" s="24"/>
+      <c r="F374" s="23"/>
+    </row>
+    <row r="375" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="20"/>
+      <c r="B375" s="24"/>
+      <c r="F375" s="23"/>
+    </row>
+    <row r="376" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="20"/>
+      <c r="B376" s="24"/>
+      <c r="F376" s="23"/>
+    </row>
+    <row r="377" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="20"/>
+      <c r="B377" s="24"/>
+      <c r="F377" s="23"/>
+    </row>
+    <row r="378" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="20"/>
+      <c r="B378" s="24"/>
+      <c r="F378" s="23"/>
+    </row>
+    <row r="379" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="20"/>
+      <c r="B379" s="24"/>
+      <c r="F379" s="23"/>
+    </row>
+    <row r="380" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="20"/>
+      <c r="B380" s="24"/>
+      <c r="F380" s="23"/>
+    </row>
+    <row r="381" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="20"/>
+      <c r="B381" s="24"/>
+      <c r="F381" s="23"/>
+    </row>
+    <row r="382" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="20"/>
+      <c r="B382" s="24"/>
+      <c r="F382" s="23"/>
+    </row>
+    <row r="383" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="20"/>
+      <c r="B383" s="24"/>
+      <c r="F383" s="23"/>
+    </row>
+    <row r="384" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="20"/>
+      <c r="B384" s="24"/>
+      <c r="F384" s="23"/>
+    </row>
+    <row r="385" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="20"/>
+      <c r="B385" s="24"/>
+      <c r="F385" s="23"/>
+    </row>
+    <row r="386" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="20"/>
+      <c r="B386" s="24"/>
+      <c r="F386" s="23"/>
+    </row>
+    <row r="387" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="20"/>
+      <c r="B387" s="24"/>
+      <c r="F387" s="23"/>
+    </row>
+    <row r="388" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="20"/>
+      <c r="B388" s="24"/>
+      <c r="F388" s="23"/>
+    </row>
+    <row r="389" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="20"/>
+      <c r="B389" s="24"/>
+      <c r="F389" s="23"/>
+    </row>
+    <row r="390" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="20"/>
+      <c r="B390" s="24"/>
+      <c r="F390" s="23"/>
+    </row>
+    <row r="391" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="20"/>
+      <c r="B391" s="24"/>
+      <c r="F391" s="23"/>
+    </row>
+    <row r="392" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="20"/>
+      <c r="B392" s="24"/>
+      <c r="F392" s="23"/>
+    </row>
+    <row r="393" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="20"/>
+      <c r="B393" s="24"/>
+      <c r="F393" s="23"/>
+    </row>
+    <row r="394" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="20"/>
+      <c r="B394" s="24"/>
+      <c r="F394" s="23"/>
+    </row>
+    <row r="395" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="20"/>
+      <c r="B395" s="24"/>
+      <c r="F395" s="23"/>
+    </row>
+    <row r="396" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="20"/>
+      <c r="B396" s="24"/>
+      <c r="F396" s="23"/>
+    </row>
+    <row r="397" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="20"/>
+      <c r="B397" s="24"/>
+      <c r="F397" s="23"/>
+    </row>
+    <row r="398" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="20"/>
+      <c r="B398" s="24"/>
+      <c r="F398" s="23"/>
+    </row>
+    <row r="399" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="20"/>
+      <c r="B399" s="24"/>
+      <c r="F399" s="23"/>
+    </row>
+    <row r="400" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="20"/>
+      <c r="B400" s="24"/>
+      <c r="F400" s="23"/>
+    </row>
+    <row r="401" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="20"/>
+      <c r="B401" s="24"/>
+      <c r="F401" s="23"/>
+    </row>
+    <row r="402" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="20"/>
+      <c r="B402" s="24"/>
+      <c r="F402" s="23"/>
+    </row>
+    <row r="403" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="20"/>
+      <c r="B403" s="24"/>
+      <c r="F403" s="23"/>
+    </row>
+    <row r="404" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="20"/>
+      <c r="B404" s="24"/>
+      <c r="F404" s="23"/>
+    </row>
+    <row r="405" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="20"/>
+      <c r="B405" s="24"/>
+      <c r="F405" s="23"/>
+    </row>
+    <row r="406" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="20"/>
+      <c r="B406" s="24"/>
+      <c r="F406" s="23"/>
+    </row>
+    <row r="407" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="20"/>
+      <c r="B407" s="24"/>
+      <c r="F407" s="23"/>
+    </row>
+    <row r="408" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="20"/>
+      <c r="B408" s="24"/>
+      <c r="F408" s="23"/>
+    </row>
+    <row r="409" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="20"/>
+      <c r="B409" s="24"/>
+      <c r="F409" s="23"/>
+    </row>
+    <row r="410" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="20"/>
+      <c r="B410" s="24"/>
+      <c r="F410" s="23"/>
+    </row>
+    <row r="411" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="20"/>
+      <c r="B411" s="24"/>
+      <c r="F411" s="23"/>
+    </row>
+    <row r="412" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="20"/>
+      <c r="B412" s="24"/>
+      <c r="F412" s="23"/>
+    </row>
+    <row r="413" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="20"/>
+      <c r="B413" s="24"/>
+      <c r="F413" s="23"/>
+    </row>
+    <row r="414" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="20"/>
+      <c r="B414" s="24"/>
+      <c r="F414" s="23"/>
+    </row>
+    <row r="415" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="20"/>
+      <c r="B415" s="24"/>
+      <c r="F415" s="23"/>
+    </row>
+    <row r="416" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="20"/>
+      <c r="B416" s="24"/>
+      <c r="F416" s="23"/>
+    </row>
+    <row r="417" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="20"/>
+      <c r="B417" s="24"/>
+      <c r="F417" s="23"/>
+    </row>
+    <row r="418" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="20"/>
+      <c r="B418" s="24"/>
+      <c r="F418" s="23"/>
+    </row>
+    <row r="419" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="20"/>
+      <c r="B419" s="24"/>
+      <c r="F419" s="23"/>
+    </row>
+    <row r="420" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="20"/>
+      <c r="B420" s="24"/>
+      <c r="F420" s="23"/>
+    </row>
+    <row r="421" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="20"/>
+      <c r="B421" s="24"/>
+      <c r="F421" s="23"/>
+    </row>
+    <row r="422" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="20"/>
+      <c r="B422" s="24"/>
+      <c r="F422" s="23"/>
+    </row>
+    <row r="423" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="20"/>
+      <c r="B423" s="24"/>
+      <c r="F423" s="23"/>
+    </row>
+    <row r="424" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="20"/>
+      <c r="B424" s="24"/>
+      <c r="F424" s="23"/>
+    </row>
+    <row r="425" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="20"/>
+      <c r="B425" s="24"/>
+      <c r="F425" s="23"/>
+    </row>
+    <row r="426" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="20"/>
+      <c r="B426" s="24"/>
+      <c r="F426" s="23"/>
+    </row>
+    <row r="427" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="20"/>
+      <c r="B427" s="24"/>
+      <c r="F427" s="23"/>
+    </row>
+    <row r="428" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="20"/>
+      <c r="B428" s="24"/>
+      <c r="F428" s="23"/>
+    </row>
+    <row r="429" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="20"/>
+      <c r="B429" s="24"/>
+      <c r="F429" s="23"/>
+    </row>
+    <row r="430" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="20"/>
+      <c r="B430" s="24"/>
+      <c r="F430" s="23"/>
+    </row>
+    <row r="431" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="20"/>
+      <c r="B431" s="24"/>
+      <c r="F431" s="23"/>
+    </row>
+    <row r="432" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="20"/>
+      <c r="B432" s="24"/>
+      <c r="F432" s="23"/>
+    </row>
+    <row r="433" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="20"/>
+      <c r="B433" s="24"/>
+      <c r="F433" s="23"/>
+    </row>
+    <row r="434" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="20"/>
+      <c r="B434" s="24"/>
+      <c r="F434" s="23"/>
+    </row>
+    <row r="435" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="20"/>
+      <c r="B435" s="24"/>
+      <c r="F435" s="23"/>
+    </row>
+    <row r="436" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="20"/>
+      <c r="B436" s="24"/>
+      <c r="F436" s="23"/>
+    </row>
+    <row r="437" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="20"/>
+      <c r="B437" s="24"/>
+      <c r="F437" s="23"/>
+    </row>
+    <row r="438" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="20"/>
+      <c r="B438" s="24"/>
+      <c r="F438" s="23"/>
+    </row>
+    <row r="439" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="20"/>
+      <c r="B439" s="24"/>
+      <c r="F439" s="23"/>
+    </row>
+    <row r="440" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="20"/>
+      <c r="B440" s="24"/>
+      <c r="F440" s="23"/>
+    </row>
+    <row r="441" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="20"/>
+      <c r="B441" s="24"/>
+      <c r="F441" s="23"/>
+    </row>
+    <row r="442" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="20"/>
+      <c r="B442" s="24"/>
+      <c r="F442" s="23"/>
+    </row>
+    <row r="443" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="20"/>
+      <c r="B443" s="24"/>
+      <c r="F443" s="23"/>
+    </row>
+    <row r="444" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="20"/>
+      <c r="B444" s="24"/>
+      <c r="F444" s="23"/>
+    </row>
+    <row r="445" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="20"/>
+      <c r="B445" s="24"/>
+      <c r="F445" s="23"/>
+    </row>
+    <row r="446" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="20"/>
+      <c r="B446" s="24"/>
+      <c r="F446" s="23"/>
+    </row>
+    <row r="447" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="20"/>
+      <c r="B447" s="24"/>
+      <c r="F447" s="23"/>
+    </row>
+    <row r="448" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="20"/>
+      <c r="B448" s="24"/>
+      <c r="F448" s="23"/>
+    </row>
+    <row r="449" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="20"/>
+      <c r="B449" s="24"/>
+      <c r="F449" s="23"/>
+    </row>
+    <row r="450" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="20"/>
+      <c r="B450" s="24"/>
+      <c r="F450" s="23"/>
+    </row>
+    <row r="451" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="20"/>
+      <c r="B451" s="24"/>
+      <c r="F451" s="23"/>
+    </row>
+    <row r="452" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="20"/>
+      <c r="B452" s="24"/>
+      <c r="F452" s="23"/>
+    </row>
+    <row r="453" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="20"/>
+      <c r="B453" s="24"/>
+      <c r="F453" s="23"/>
+    </row>
+    <row r="454" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="20"/>
+      <c r="B454" s="24"/>
+      <c r="F454" s="23"/>
+    </row>
+    <row r="455" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="20"/>
+      <c r="B455" s="24"/>
+      <c r="F455" s="23"/>
+    </row>
+    <row r="456" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="20"/>
+      <c r="B456" s="24"/>
+      <c r="F456" s="23"/>
+    </row>
+    <row r="457" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="20"/>
+      <c r="B457" s="24"/>
+      <c r="F457" s="23"/>
+    </row>
+    <row r="458" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="20"/>
+      <c r="B458" s="24"/>
+      <c r="F458" s="23"/>
+    </row>
+    <row r="459" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="20"/>
+      <c r="B459" s="24"/>
+      <c r="F459" s="23"/>
+    </row>
+    <row r="460" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="20"/>
+      <c r="B460" s="24"/>
+      <c r="F460" s="23"/>
+    </row>
+    <row r="461" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="20"/>
+      <c r="B461" s="24"/>
+      <c r="F461" s="23"/>
+    </row>
+    <row r="462" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="20"/>
+      <c r="B462" s="24"/>
+      <c r="F462" s="23"/>
+    </row>
+    <row r="463" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="20"/>
+      <c r="B463" s="24"/>
+      <c r="F463" s="23"/>
+    </row>
+    <row r="464" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="20"/>
+      <c r="B464" s="24"/>
+      <c r="F464" s="23"/>
+    </row>
+    <row r="465" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="20"/>
+      <c r="B465" s="24"/>
+      <c r="F465" s="23"/>
+    </row>
+    <row r="466" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="20"/>
+      <c r="B466" s="24"/>
+      <c r="F466" s="23"/>
+    </row>
+    <row r="467" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="20"/>
+      <c r="B467" s="24"/>
+      <c r="F467" s="23"/>
+    </row>
+    <row r="468" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="20"/>
+      <c r="B468" s="24"/>
+      <c r="F468" s="23"/>
+    </row>
+    <row r="469" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="20"/>
+      <c r="B469" s="24"/>
+      <c r="F469" s="23"/>
+    </row>
+    <row r="470" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="20"/>
+      <c r="B470" s="24"/>
+      <c r="F470" s="23"/>
+    </row>
+    <row r="471" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="20"/>
+      <c r="B471" s="24"/>
+      <c r="F471" s="23"/>
+    </row>
+    <row r="472" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="20"/>
+      <c r="B472" s="24"/>
+      <c r="F472" s="23"/>
+    </row>
+    <row r="473" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="20"/>
+      <c r="B473" s="24"/>
+      <c r="F473" s="23"/>
+    </row>
+    <row r="474" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="20"/>
+      <c r="B474" s="24"/>
+      <c r="F474" s="23"/>
+    </row>
+    <row r="475" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="20"/>
+      <c r="B475" s="24"/>
+      <c r="F475" s="23"/>
+    </row>
+    <row r="476" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="20"/>
+      <c r="B476" s="24"/>
+      <c r="F476" s="23"/>
+    </row>
+    <row r="477" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="20"/>
+      <c r="B477" s="24"/>
+      <c r="F477" s="23"/>
+    </row>
+    <row r="478" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="20"/>
+      <c r="B478" s="24"/>
+      <c r="F478" s="23"/>
+    </row>
+    <row r="479" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="20"/>
+      <c r="B479" s="24"/>
+      <c r="F479" s="23"/>
+    </row>
+    <row r="480" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="20"/>
+      <c r="B480" s="24"/>
+      <c r="F480" s="23"/>
+    </row>
+    <row r="481" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="20"/>
+      <c r="B481" s="24"/>
+      <c r="F481" s="23"/>
+    </row>
+    <row r="482" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="20"/>
+      <c r="B482" s="24"/>
+      <c r="F482" s="23"/>
+    </row>
+    <row r="483" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="20"/>
+      <c r="B483" s="24"/>
+      <c r="F483" s="23"/>
+    </row>
+    <row r="484" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="20"/>
+      <c r="B484" s="24"/>
+      <c r="F484" s="23"/>
+    </row>
+    <row r="485" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="20"/>
+      <c r="B485" s="24"/>
+      <c r="F485" s="23"/>
+    </row>
+    <row r="486" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="20"/>
+      <c r="B486" s="24"/>
+      <c r="F486" s="23"/>
+    </row>
+    <row r="487" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="20"/>
+      <c r="B487" s="24"/>
+      <c r="F487" s="23"/>
+    </row>
+    <row r="488" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="20"/>
+      <c r="B488" s="24"/>
+      <c r="F488" s="23"/>
+    </row>
+    <row r="489" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="20"/>
+      <c r="B489" s="24"/>
+      <c r="F489" s="23"/>
+    </row>
+    <row r="490" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="20"/>
+      <c r="B490" s="24"/>
+      <c r="F490" s="23"/>
+    </row>
+    <row r="491" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="20"/>
+      <c r="B491" s="24"/>
+      <c r="F491" s="23"/>
+    </row>
+    <row r="492" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="20"/>
+      <c r="B492" s="24"/>
+      <c r="F492" s="23"/>
+    </row>
+    <row r="493" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="20"/>
+      <c r="B493" s="24"/>
+      <c r="F493" s="23"/>
+    </row>
+    <row r="494" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="20"/>
+      <c r="B494" s="24"/>
+      <c r="F494" s="23"/>
+    </row>
+    <row r="495" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="20"/>
+      <c r="B495" s="24"/>
+      <c r="F495" s="23"/>
+    </row>
+    <row r="496" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="20"/>
+      <c r="B496" s="24"/>
+      <c r="F496" s="23"/>
+    </row>
+    <row r="497" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="20"/>
+      <c r="B497" s="24"/>
+      <c r="F497" s="23"/>
+    </row>
+    <row r="498" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="20"/>
+      <c r="B498" s="24"/>
+      <c r="F498" s="23"/>
+    </row>
+    <row r="499" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="20"/>
+      <c r="B499" s="24"/>
+      <c r="F499" s="23"/>
+    </row>
+    <row r="500" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="20"/>
+      <c r="B500" s="24"/>
+      <c r="F500" s="23"/>
+    </row>
+    <row r="501" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="20"/>
+      <c r="B501" s="24"/>
+      <c r="F501" s="23"/>
+    </row>
+    <row r="502" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="20"/>
+      <c r="B502" s="24"/>
+      <c r="F502" s="23"/>
+    </row>
+    <row r="503" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="20"/>
+      <c r="B503" s="24"/>
+      <c r="F503" s="23"/>
+    </row>
+    <row r="504" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="20"/>
+      <c r="B504" s="24"/>
+      <c r="F504" s="23"/>
+    </row>
+    <row r="505" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="20"/>
+      <c r="B505" s="24"/>
+      <c r="F505" s="23"/>
+    </row>
+    <row r="506" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="20"/>
+      <c r="B506" s="24"/>
+      <c r="F506" s="23"/>
+    </row>
+    <row r="507" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="20"/>
+      <c r="B507" s="24"/>
+      <c r="F507" s="23"/>
+    </row>
+    <row r="508" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="20"/>
+      <c r="B508" s="24"/>
+      <c r="F508" s="23"/>
+    </row>
+    <row r="509" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="20"/>
+      <c r="B509" s="24"/>
+      <c r="F509" s="23"/>
+    </row>
+    <row r="510" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="20"/>
+      <c r="B510" s="24"/>
+      <c r="F510" s="23"/>
+    </row>
+    <row r="511" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="20"/>
+      <c r="B511" s="24"/>
+      <c r="F511" s="23"/>
+    </row>
+    <row r="512" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="20"/>
+      <c r="B512" s="24"/>
+      <c r="F512" s="23"/>
+    </row>
+    <row r="513" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="20"/>
+      <c r="B513" s="24"/>
+      <c r="F513" s="23"/>
+    </row>
+    <row r="514" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="20"/>
+      <c r="B514" s="24"/>
+      <c r="F514" s="23"/>
+    </row>
+    <row r="515" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="20"/>
+      <c r="B515" s="24"/>
+      <c r="F515" s="23"/>
+    </row>
+    <row r="516" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="20"/>
+      <c r="B516" s="24"/>
+      <c r="F516" s="23"/>
+    </row>
+    <row r="517" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="20"/>
+      <c r="B517" s="24"/>
+      <c r="F517" s="23"/>
+    </row>
+    <row r="518" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="20"/>
+      <c r="B518" s="24"/>
+      <c r="F518" s="23"/>
+    </row>
+    <row r="519" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="20"/>
+      <c r="B519" s="24"/>
+      <c r="F519" s="23"/>
+    </row>
+    <row r="520" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="20"/>
+      <c r="B520" s="24"/>
+      <c r="F520" s="23"/>
+    </row>
+    <row r="521" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="20"/>
+      <c r="B521" s="24"/>
+      <c r="F521" s="23"/>
+    </row>
+    <row r="522" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="20"/>
+      <c r="B522" s="24"/>
+      <c r="F522" s="23"/>
+    </row>
+    <row r="523" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="20"/>
+      <c r="B523" s="24"/>
+      <c r="F523" s="23"/>
+    </row>
+    <row r="524" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="20"/>
+      <c r="B524" s="24"/>
+      <c r="F524" s="23"/>
+    </row>
+    <row r="525" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="20"/>
+      <c r="B525" s="24"/>
+      <c r="F525" s="23"/>
+    </row>
+    <row r="526" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="20"/>
+      <c r="B526" s="24"/>
+      <c r="F526" s="23"/>
+    </row>
+    <row r="527" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="20"/>
+      <c r="B527" s="24"/>
+      <c r="F527" s="23"/>
+    </row>
+    <row r="528" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="20"/>
+      <c r="B528" s="24"/>
+      <c r="F528" s="23"/>
+    </row>
+    <row r="529" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="20"/>
+      <c r="B529" s="24"/>
+      <c r="F529" s="23"/>
+    </row>
+    <row r="530" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="20"/>
+      <c r="B530" s="24"/>
+      <c r="F530" s="23"/>
+    </row>
+    <row r="531" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="20"/>
+      <c r="B531" s="24"/>
+      <c r="F531" s="23"/>
+    </row>
+    <row r="532" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="20"/>
+      <c r="B532" s="24"/>
+      <c r="F532" s="23"/>
+    </row>
+    <row r="533" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="20"/>
+      <c r="B533" s="24"/>
+      <c r="F533" s="23"/>
+    </row>
+    <row r="534" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="20"/>
+      <c r="B534" s="24"/>
+      <c r="F534" s="23"/>
+    </row>
+    <row r="535" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="20"/>
+      <c r="B535" s="24"/>
+      <c r="F535" s="23"/>
+    </row>
+    <row r="536" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="20"/>
+      <c r="B536" s="24"/>
+      <c r="F536" s="23"/>
+    </row>
+    <row r="537" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="20"/>
+      <c r="B537" s="24"/>
+      <c r="F537" s="23"/>
+    </row>
+    <row r="538" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="20"/>
+      <c r="B538" s="24"/>
+      <c r="F538" s="23"/>
+    </row>
+    <row r="539" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="20"/>
+      <c r="B539" s="24"/>
+      <c r="F539" s="23"/>
+    </row>
+    <row r="540" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="20"/>
+      <c r="B540" s="24"/>
+      <c r="F540" s="23"/>
+    </row>
+    <row r="541" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="20"/>
+      <c r="B541" s="24"/>
+      <c r="F541" s="23"/>
+    </row>
+    <row r="542" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="20"/>
+      <c r="B542" s="24"/>
+      <c r="F542" s="23"/>
+    </row>
+    <row r="543" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="20"/>
+      <c r="B543" s="24"/>
+      <c r="F543" s="23"/>
+    </row>
+    <row r="544" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="20"/>
+      <c r="B544" s="24"/>
+      <c r="F544" s="23"/>
+    </row>
+    <row r="545" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="20"/>
+      <c r="B545" s="24"/>
+      <c r="F545" s="23"/>
+    </row>
+    <row r="546" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="20"/>
+      <c r="B546" s="24"/>
+      <c r="F546" s="23"/>
+    </row>
+    <row r="547" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="20"/>
+      <c r="B547" s="24"/>
+      <c r="F547" s="23"/>
+    </row>
+    <row r="548" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="20"/>
+      <c r="B548" s="24"/>
+      <c r="F548" s="23"/>
+    </row>
+    <row r="549" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="20"/>
+      <c r="B549" s="24"/>
+      <c r="F549" s="23"/>
+    </row>
+    <row r="550" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="20"/>
+      <c r="B550" s="24"/>
+      <c r="F550" s="23"/>
+    </row>
+    <row r="551" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="20"/>
+      <c r="B551" s="24"/>
+      <c r="F551" s="23"/>
+    </row>
+    <row r="552" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="20"/>
+      <c r="B552" s="24"/>
+      <c r="F552" s="23"/>
+    </row>
+    <row r="553" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="20"/>
+      <c r="B553" s="24"/>
+      <c r="F553" s="23"/>
+    </row>
+    <row r="554" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="20"/>
+      <c r="B554" s="24"/>
+      <c r="F554" s="23"/>
+    </row>
+    <row r="555" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="20"/>
+      <c r="B555" s="24"/>
+      <c r="F555" s="23"/>
+    </row>
+    <row r="556" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="20"/>
+      <c r="B556" s="24"/>
+      <c r="F556" s="23"/>
+    </row>
+    <row r="557" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="20"/>
+      <c r="B557" s="24"/>
+      <c r="F557" s="23"/>
+    </row>
+    <row r="558" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="20"/>
+      <c r="B558" s="24"/>
+      <c r="F558" s="23"/>
+    </row>
+    <row r="559" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="20"/>
+      <c r="B559" s="24"/>
+      <c r="F559" s="23"/>
+    </row>
+    <row r="560" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="20"/>
+      <c r="B560" s="24"/>
+      <c r="F560" s="23"/>
+    </row>
+    <row r="561" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="20"/>
+      <c r="B561" s="24"/>
+      <c r="F561" s="23"/>
+    </row>
+    <row r="562" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="20"/>
+      <c r="B562" s="24"/>
+      <c r="F562" s="23"/>
+    </row>
+    <row r="563" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="20"/>
+      <c r="B563" s="24"/>
+      <c r="F563" s="23"/>
+    </row>
+    <row r="564" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="20"/>
+      <c r="B564" s="24"/>
+      <c r="F564" s="23"/>
+    </row>
+    <row r="565" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="20"/>
+      <c r="B565" s="24"/>
+      <c r="F565" s="23"/>
+    </row>
+    <row r="566" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="20"/>
+      <c r="B566" s="24"/>
+      <c r="F566" s="23"/>
+    </row>
+    <row r="567" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="20"/>
+      <c r="B567" s="24"/>
+      <c r="F567" s="23"/>
+    </row>
+    <row r="568" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="20"/>
+      <c r="B568" s="24"/>
+      <c r="F568" s="23"/>
+    </row>
+    <row r="569" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="20"/>
+      <c r="B569" s="24"/>
+      <c r="F569" s="23"/>
+    </row>
+    <row r="570" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="20"/>
+      <c r="B570" s="24"/>
+      <c r="F570" s="23"/>
+    </row>
+    <row r="571" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="20"/>
+      <c r="B571" s="24"/>
+      <c r="F571" s="23"/>
+    </row>
+    <row r="572" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="20"/>
+      <c r="B572" s="24"/>
+      <c r="F572" s="23"/>
+    </row>
+    <row r="573" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="20"/>
+      <c r="B573" s="24"/>
+      <c r="F573" s="23"/>
+    </row>
+    <row r="574" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="20"/>
+      <c r="B574" s="24"/>
+      <c r="F574" s="23"/>
+    </row>
+    <row r="575" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="20"/>
+      <c r="B575" s="24"/>
+      <c r="F575" s="23"/>
+    </row>
+    <row r="576" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="20"/>
+      <c r="B576" s="24"/>
+      <c r="F576" s="23"/>
+    </row>
+    <row r="577" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="20"/>
+      <c r="B577" s="24"/>
+      <c r="F577" s="23"/>
+    </row>
+    <row r="578" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="20"/>
+      <c r="B578" s="24"/>
+      <c r="F578" s="23"/>
+    </row>
+    <row r="579" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="20"/>
+      <c r="B579" s="24"/>
+      <c r="F579" s="23"/>
+    </row>
+    <row r="580" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="20"/>
+      <c r="B580" s="24"/>
+      <c r="F580" s="23"/>
+    </row>
+    <row r="581" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="20"/>
+      <c r="B581" s="24"/>
+      <c r="F581" s="23"/>
+    </row>
+    <row r="582" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="20"/>
+      <c r="B582" s="24"/>
+      <c r="F582" s="23"/>
+    </row>
+    <row r="583" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="20"/>
+      <c r="B583" s="24"/>
+      <c r="F583" s="23"/>
+    </row>
+    <row r="584" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="20"/>
+      <c r="B584" s="24"/>
+      <c r="F584" s="23"/>
+    </row>
+    <row r="585" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="20"/>
+      <c r="B585" s="24"/>
+      <c r="F585" s="23"/>
+    </row>
+    <row r="586" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="20"/>
+      <c r="B586" s="24"/>
+      <c r="F586" s="23"/>
+    </row>
+    <row r="587" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="20"/>
+      <c r="B587" s="24"/>
+      <c r="F587" s="23"/>
+    </row>
+    <row r="588" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="20"/>
+      <c r="B588" s="24"/>
+      <c r="F588" s="23"/>
+    </row>
+    <row r="589" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="20"/>
+      <c r="B589" s="24"/>
+      <c r="F589" s="23"/>
+    </row>
+    <row r="590" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="20"/>
+      <c r="B590" s="24"/>
+      <c r="F590" s="23"/>
+    </row>
+    <row r="591" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="20"/>
+      <c r="B591" s="24"/>
+      <c r="F591" s="23"/>
+    </row>
+    <row r="592" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="20"/>
+      <c r="B592" s="24"/>
+      <c r="F592" s="23"/>
+    </row>
+    <row r="593" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="20"/>
+      <c r="B593" s="24"/>
+      <c r="F593" s="23"/>
+    </row>
+    <row r="594" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="20"/>
+      <c r="B594" s="24"/>
+      <c r="F594" s="23"/>
+    </row>
+    <row r="595" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="20"/>
+      <c r="B595" s="24"/>
+      <c r="F595" s="23"/>
+    </row>
+    <row r="596" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="20"/>
+      <c r="B596" s="24"/>
+      <c r="F596" s="23"/>
+    </row>
+    <row r="597" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="20"/>
+      <c r="B597" s="24"/>
+      <c r="F597" s="23"/>
+    </row>
+    <row r="598" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="20"/>
+      <c r="B598" s="24"/>
+      <c r="F598" s="23"/>
+    </row>
+    <row r="599" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="20"/>
+      <c r="B599" s="24"/>
+      <c r="F599" s="23"/>
+    </row>
+    <row r="600" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="20"/>
+      <c r="B600" s="24"/>
+      <c r="F600" s="23"/>
+    </row>
+    <row r="601" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="20"/>
+      <c r="B601" s="24"/>
+      <c r="F601" s="23"/>
+    </row>
+    <row r="602" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="20"/>
+      <c r="B602" s="24"/>
+      <c r="F602" s="23"/>
+    </row>
+    <row r="603" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="20"/>
+      <c r="B603" s="24"/>
+      <c r="F603" s="23"/>
+    </row>
+    <row r="604" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="20"/>
+      <c r="B604" s="24"/>
+      <c r="F604" s="23"/>
+    </row>
+    <row r="605" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="20"/>
+      <c r="B605" s="24"/>
+      <c r="F605" s="23"/>
+    </row>
+    <row r="606" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="20"/>
+      <c r="B606" s="24"/>
+      <c r="F606" s="23"/>
+    </row>
+    <row r="607" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="20"/>
+      <c r="B607" s="24"/>
+      <c r="F607" s="23"/>
+    </row>
+    <row r="608" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="20"/>
+      <c r="B608" s="24"/>
+      <c r="F608" s="23"/>
+    </row>
+    <row r="609" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="20"/>
+      <c r="B609" s="24"/>
+      <c r="F609" s="23"/>
+    </row>
+    <row r="610" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="20"/>
+      <c r="B610" s="24"/>
+      <c r="F610" s="23"/>
+    </row>
+    <row r="611" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="20"/>
+      <c r="B611" s="24"/>
+      <c r="F611" s="23"/>
+    </row>
+    <row r="612" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="20"/>
+      <c r="B612" s="24"/>
+      <c r="F612" s="23"/>
+    </row>
+    <row r="613" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="20"/>
+      <c r="B613" s="24"/>
+      <c r="F613" s="23"/>
+    </row>
+    <row r="614" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="20"/>
+      <c r="B614" s="24"/>
+      <c r="F614" s="23"/>
+    </row>
+    <row r="615" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="20"/>
+      <c r="B615" s="24"/>
+      <c r="F615" s="23"/>
+    </row>
+    <row r="616" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="20"/>
+      <c r="B616" s="24"/>
+      <c r="F616" s="23"/>
+    </row>
+    <row r="617" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="20"/>
+      <c r="B617" s="24"/>
+      <c r="F617" s="23"/>
+    </row>
+    <row r="618" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="20"/>
+      <c r="B618" s="24"/>
+      <c r="F618" s="23"/>
+    </row>
+    <row r="619" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="20"/>
+      <c r="B619" s="24"/>
+      <c r="F619" s="23"/>
+    </row>
+    <row r="620" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="20"/>
+      <c r="B620" s="24"/>
+      <c r="F620" s="23"/>
+    </row>
+    <row r="621" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="20"/>
+      <c r="B621" s="24"/>
+      <c r="F621" s="23"/>
+    </row>
+    <row r="622" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="20"/>
+      <c r="B622" s="24"/>
+      <c r="F622" s="23"/>
+    </row>
+    <row r="623" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="20"/>
+      <c r="B623" s="24"/>
+      <c r="F623" s="23"/>
+    </row>
+    <row r="624" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="20"/>
+      <c r="B624" s="24"/>
+      <c r="F624" s="23"/>
+    </row>
+    <row r="625" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="20"/>
+      <c r="B625" s="24"/>
+      <c r="F625" s="23"/>
+    </row>
+    <row r="626" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="20"/>
+      <c r="B626" s="24"/>
+      <c r="F626" s="23"/>
+    </row>
+    <row r="627" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="20"/>
+      <c r="B627" s="24"/>
+      <c r="F627" s="23"/>
+    </row>
+    <row r="628" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="20"/>
+      <c r="B628" s="24"/>
+      <c r="F628" s="23"/>
+    </row>
+    <row r="629" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="20"/>
+      <c r="B629" s="24"/>
+      <c r="F629" s="23"/>
+    </row>
+    <row r="630" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="20"/>
+      <c r="B630" s="24"/>
+      <c r="F630" s="23"/>
+    </row>
+    <row r="631" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="20"/>
+      <c r="B631" s="24"/>
+      <c r="F631" s="23"/>
+    </row>
+    <row r="632" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="20"/>
+      <c r="B632" s="24"/>
+      <c r="F632" s="23"/>
+    </row>
+    <row r="633" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="20"/>
+      <c r="B633" s="24"/>
+      <c r="F633" s="23"/>
+    </row>
+    <row r="634" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="20"/>
+      <c r="B634" s="24"/>
+      <c r="F634" s="23"/>
+    </row>
+    <row r="635" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="20"/>
+      <c r="B635" s="24"/>
+      <c r="F635" s="23"/>
+    </row>
+    <row r="636" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="20"/>
+      <c r="B636" s="24"/>
+      <c r="F636" s="23"/>
+    </row>
+    <row r="637" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="20"/>
+      <c r="B637" s="24"/>
+      <c r="F637" s="23"/>
+    </row>
+    <row r="638" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="20"/>
+      <c r="B638" s="24"/>
+      <c r="F638" s="23"/>
+    </row>
+    <row r="639" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="20"/>
+      <c r="B639" s="24"/>
+      <c r="F639" s="23"/>
+    </row>
+    <row r="640" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="20"/>
+      <c r="B640" s="24"/>
+      <c r="F640" s="23"/>
+    </row>
+    <row r="641" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="20"/>
+      <c r="B641" s="24"/>
+      <c r="F641" s="23"/>
+    </row>
+    <row r="642" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="20"/>
+      <c r="B642" s="24"/>
+      <c r="F642" s="23"/>
+    </row>
+    <row r="643" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="20"/>
+      <c r="B643" s="24"/>
+      <c r="F643" s="23"/>
+    </row>
+    <row r="644" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="20"/>
+      <c r="B644" s="24"/>
+      <c r="F644" s="23"/>
+    </row>
+    <row r="645" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="20"/>
+      <c r="B645" s="24"/>
+      <c r="F645" s="23"/>
+    </row>
+    <row r="646" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="20"/>
+      <c r="B646" s="24"/>
+      <c r="F646" s="23"/>
+    </row>
+    <row r="647" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="20"/>
+      <c r="B647" s="24"/>
+      <c r="F647" s="23"/>
+    </row>
+    <row r="648" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="20"/>
+      <c r="B648" s="24"/>
+      <c r="F648" s="23"/>
+    </row>
+    <row r="649" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="20"/>
+      <c r="B649" s="24"/>
+      <c r="F649" s="23"/>
+    </row>
+    <row r="650" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="20"/>
+      <c r="B650" s="24"/>
+      <c r="F650" s="23"/>
+    </row>
+    <row r="651" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="20"/>
+      <c r="B651" s="24"/>
+      <c r="F651" s="23"/>
+    </row>
+    <row r="652" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="20"/>
+      <c r="B652" s="24"/>
+      <c r="F652" s="23"/>
+    </row>
+    <row r="653" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="20"/>
+      <c r="B653" s="24"/>
+      <c r="F653" s="23"/>
+    </row>
+    <row r="654" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="20"/>
+      <c r="B654" s="24"/>
+      <c r="F654" s="23"/>
+    </row>
+    <row r="655" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="20"/>
+      <c r="B655" s="24"/>
+      <c r="F655" s="23"/>
+    </row>
+    <row r="656" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="20"/>
+      <c r="B656" s="24"/>
+      <c r="F656" s="23"/>
+    </row>
+    <row r="657" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="20"/>
+      <c r="B657" s="24"/>
+      <c r="F657" s="23"/>
+    </row>
+    <row r="658" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="20"/>
+      <c r="B658" s="24"/>
+      <c r="F658" s="23"/>
+    </row>
+    <row r="659" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="20"/>
+      <c r="B659" s="24"/>
+      <c r="F659" s="23"/>
+    </row>
+    <row r="660" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="20"/>
+      <c r="B660" s="24"/>
+      <c r="F660" s="23"/>
+    </row>
+    <row r="661" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="20"/>
+      <c r="B661" s="24"/>
+      <c r="F661" s="23"/>
+    </row>
+    <row r="662" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="20"/>
+      <c r="B662" s="24"/>
+      <c r="F662" s="23"/>
+    </row>
+    <row r="663" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="20"/>
+      <c r="B663" s="24"/>
+      <c r="F663" s="23"/>
+    </row>
+    <row r="664" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="20"/>
+      <c r="B664" s="24"/>
+      <c r="F664" s="23"/>
+    </row>
+    <row r="665" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="20"/>
+      <c r="B665" s="24"/>
+      <c r="F665" s="23"/>
+    </row>
+    <row r="666" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="20"/>
+      <c r="B666" s="24"/>
+      <c r="F666" s="23"/>
+    </row>
+    <row r="667" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="20"/>
+      <c r="B667" s="24"/>
+      <c r="F667" s="23"/>
+    </row>
+    <row r="668" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="20"/>
+      <c r="B668" s="24"/>
+      <c r="F668" s="23"/>
+    </row>
+    <row r="669" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="20"/>
+      <c r="B669" s="24"/>
+      <c r="F669" s="23"/>
+    </row>
+    <row r="670" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="20"/>
+      <c r="B670" s="24"/>
+      <c r="F670" s="23"/>
+    </row>
+    <row r="671" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="20"/>
+      <c r="B671" s="24"/>
+      <c r="F671" s="23"/>
+    </row>
+    <row r="672" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="20"/>
+      <c r="B672" s="24"/>
+      <c r="F672" s="23"/>
+    </row>
+    <row r="673" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="20"/>
+      <c r="B673" s="24"/>
+      <c r="F673" s="23"/>
+    </row>
+    <row r="674" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="20"/>
+      <c r="B674" s="24"/>
+      <c r="F674" s="23"/>
+    </row>
+    <row r="675" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="20"/>
+      <c r="B675" s="24"/>
+      <c r="F675" s="23"/>
+    </row>
+    <row r="676" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="20"/>
+      <c r="B676" s="24"/>
+      <c r="F676" s="23"/>
+    </row>
+    <row r="677" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="20"/>
+      <c r="B677" s="24"/>
+      <c r="F677" s="23"/>
+    </row>
+    <row r="678" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="20"/>
+      <c r="B678" s="24"/>
+      <c r="F678" s="23"/>
+    </row>
+    <row r="679" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="20"/>
+      <c r="B679" s="24"/>
+      <c r="F679" s="23"/>
+    </row>
+    <row r="680" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="20"/>
+      <c r="B680" s="24"/>
+      <c r="F680" s="23"/>
+    </row>
+    <row r="681" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="20"/>
+      <c r="B681" s="24"/>
+      <c r="F681" s="23"/>
+    </row>
+    <row r="682" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="20"/>
+      <c r="B682" s="24"/>
+      <c r="F682" s="23"/>
+    </row>
+    <row r="683" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="20"/>
+      <c r="B683" s="24"/>
+      <c r="F683" s="23"/>
+    </row>
+    <row r="684" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="20"/>
+      <c r="B684" s="24"/>
+      <c r="F684" s="23"/>
+    </row>
+    <row r="685" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="20"/>
+      <c r="B685" s="24"/>
+      <c r="F685" s="23"/>
+    </row>
+    <row r="686" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="20"/>
+      <c r="B686" s="24"/>
+      <c r="F686" s="23"/>
+    </row>
+    <row r="687" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="20"/>
+      <c r="B687" s="24"/>
+      <c r="F687" s="23"/>
+    </row>
+    <row r="688" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="20"/>
+      <c r="B688" s="24"/>
+      <c r="F688" s="23"/>
+    </row>
+    <row r="689" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="20"/>
+      <c r="B689" s="24"/>
+      <c r="F689" s="23"/>
+    </row>
+    <row r="690" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="20"/>
+      <c r="B690" s="24"/>
+      <c r="F690" s="23"/>
+    </row>
+    <row r="691" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="20"/>
+      <c r="B691" s="24"/>
+      <c r="F691" s="23"/>
+    </row>
+    <row r="692" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="20"/>
+      <c r="B692" s="24"/>
+      <c r="F692" s="23"/>
+    </row>
+    <row r="693" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="20"/>
+      <c r="B693" s="24"/>
+      <c r="F693" s="23"/>
+    </row>
+    <row r="694" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="20"/>
+      <c r="B694" s="24"/>
+      <c r="F694" s="23"/>
+    </row>
+    <row r="695" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="20"/>
+      <c r="B695" s="24"/>
+      <c r="F695" s="23"/>
+    </row>
+    <row r="696" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="20"/>
+      <c r="B696" s="24"/>
+      <c r="F696" s="23"/>
+    </row>
+    <row r="697" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="20"/>
+      <c r="B697" s="24"/>
+      <c r="F697" s="23"/>
+    </row>
+    <row r="698" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="20"/>
+      <c r="B698" s="24"/>
+      <c r="F698" s="23"/>
+    </row>
+    <row r="699" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="20"/>
+      <c r="B699" s="24"/>
+      <c r="F699" s="23"/>
+    </row>
+    <row r="700" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="20"/>
+      <c r="B700" s="24"/>
+      <c r="F700" s="23"/>
+    </row>
+    <row r="701" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="20"/>
+      <c r="B701" s="24"/>
+      <c r="F701" s="23"/>
+    </row>
+    <row r="702" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="20"/>
+      <c r="B702" s="24"/>
+      <c r="F702" s="23"/>
+    </row>
+    <row r="703" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="20"/>
+      <c r="B703" s="24"/>
+      <c r="F703" s="23"/>
+    </row>
+    <row r="704" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="20"/>
+      <c r="B704" s="24"/>
+      <c r="F704" s="23"/>
+    </row>
+    <row r="705" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="20"/>
+      <c r="B705" s="24"/>
+      <c r="F705" s="23"/>
+    </row>
+    <row r="706" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="20"/>
+      <c r="B706" s="24"/>
+      <c r="F706" s="23"/>
+    </row>
+    <row r="707" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="20"/>
+      <c r="B707" s="24"/>
+      <c r="F707" s="23"/>
+    </row>
+    <row r="708" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="20"/>
+      <c r="B708" s="24"/>
+      <c r="F708" s="23"/>
+    </row>
+    <row r="709" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="20"/>
+      <c r="B709" s="24"/>
+      <c r="F709" s="23"/>
+    </row>
+    <row r="710" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="20"/>
+      <c r="B710" s="24"/>
+      <c r="F710" s="23"/>
+    </row>
+    <row r="711" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="20"/>
+      <c r="B711" s="24"/>
+      <c r="F711" s="23"/>
+    </row>
+    <row r="712" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="20"/>
+      <c r="B712" s="24"/>
+      <c r="F712" s="23"/>
+    </row>
+    <row r="713" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="20"/>
+      <c r="B713" s="24"/>
+      <c r="F713" s="23"/>
+    </row>
+    <row r="714" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="20"/>
+      <c r="B714" s="24"/>
+      <c r="F714" s="23"/>
+    </row>
+    <row r="715" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="20"/>
+      <c r="B715" s="24"/>
+      <c r="F715" s="23"/>
+    </row>
+    <row r="716" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="20"/>
+      <c r="B716" s="24"/>
+      <c r="F716" s="23"/>
+    </row>
+    <row r="717" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="20"/>
+      <c r="B717" s="24"/>
+      <c r="F717" s="23"/>
+    </row>
+    <row r="718" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="20"/>
+      <c r="B718" s="24"/>
+      <c r="F718" s="23"/>
+    </row>
+    <row r="719" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="20"/>
+      <c r="B719" s="24"/>
+      <c r="F719" s="23"/>
+    </row>
+    <row r="720" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="20"/>
+      <c r="B720" s="24"/>
+      <c r="F720" s="23"/>
+    </row>
+    <row r="721" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="20"/>
+      <c r="B721" s="24"/>
+      <c r="F721" s="23"/>
+    </row>
+    <row r="722" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="20"/>
+      <c r="B722" s="24"/>
+      <c r="F722" s="23"/>
+    </row>
+    <row r="723" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="20"/>
+      <c r="B723" s="24"/>
+      <c r="F723" s="23"/>
+    </row>
+    <row r="724" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="20"/>
+      <c r="B724" s="24"/>
+      <c r="F724" s="23"/>
+    </row>
+    <row r="725" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="20"/>
+      <c r="B725" s="24"/>
+      <c r="F725" s="23"/>
+    </row>
+    <row r="726" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="20"/>
+      <c r="B726" s="24"/>
+      <c r="F726" s="23"/>
+    </row>
+    <row r="727" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="20"/>
+      <c r="B727" s="24"/>
+      <c r="F727" s="23"/>
+    </row>
+    <row r="728" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="20"/>
+      <c r="B728" s="24"/>
+      <c r="F728" s="23"/>
+    </row>
+    <row r="729" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="20"/>
+      <c r="B729" s="24"/>
+      <c r="F729" s="23"/>
+    </row>
+    <row r="730" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="20"/>
+      <c r="B730" s="24"/>
+      <c r="F730" s="23"/>
+    </row>
+    <row r="731" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="20"/>
+      <c r="B731" s="24"/>
+      <c r="F731" s="23"/>
+    </row>
+    <row r="732" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="20"/>
+      <c r="B732" s="24"/>
+      <c r="F732" s="23"/>
+    </row>
+    <row r="733" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="20"/>
+      <c r="B733" s="24"/>
+      <c r="F733" s="23"/>
+    </row>
+    <row r="734" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="20"/>
+      <c r="B734" s="24"/>
+      <c r="F734" s="23"/>
+    </row>
+    <row r="735" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="20"/>
+      <c r="B735" s="24"/>
+      <c r="F735" s="23"/>
+    </row>
+    <row r="736" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A736" s="20"/>
+      <c r="B736" s="24"/>
+      <c r="F736" s="23"/>
+    </row>
+    <row r="737" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="20"/>
+      <c r="B737" s="24"/>
+      <c r="F737" s="23"/>
+    </row>
+    <row r="738" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="20"/>
+      <c r="B738" s="24"/>
+      <c r="F738" s="23"/>
+    </row>
+    <row r="739" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="20"/>
+      <c r="B739" s="24"/>
+      <c r="F739" s="23"/>
+    </row>
+    <row r="740" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="20"/>
+      <c r="B740" s="24"/>
+      <c r="F740" s="23"/>
+    </row>
+    <row r="741" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="20"/>
+      <c r="B741" s="24"/>
+      <c r="F741" s="23"/>
+    </row>
+    <row r="742" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="20"/>
+      <c r="B742" s="24"/>
+      <c r="F742" s="23"/>
+    </row>
+    <row r="743" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="20"/>
+      <c r="B743" s="24"/>
+      <c r="F743" s="23"/>
+    </row>
+    <row r="744" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="20"/>
+      <c r="B744" s="24"/>
+      <c r="F744" s="23"/>
+    </row>
+    <row r="745" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="20"/>
+      <c r="B745" s="24"/>
+      <c r="F745" s="23"/>
+    </row>
+    <row r="746" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="20"/>
+      <c r="B746" s="24"/>
+      <c r="F746" s="23"/>
+    </row>
+    <row r="747" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="20"/>
+      <c r="B747" s="24"/>
+      <c r="F747" s="23"/>
+    </row>
+    <row r="748" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A748" s="20"/>
+      <c r="B748" s="24"/>
+      <c r="F748" s="23"/>
+    </row>
+    <row r="749" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="20"/>
+      <c r="B749" s="24"/>
+      <c r="F749" s="23"/>
+    </row>
+    <row r="750" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="20"/>
+      <c r="B750" s="24"/>
+      <c r="F750" s="23"/>
+    </row>
+    <row r="751" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A751" s="20"/>
+      <c r="B751" s="24"/>
+      <c r="F751" s="23"/>
+    </row>
+    <row r="752" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="20"/>
+      <c r="B752" s="24"/>
+      <c r="F752" s="23"/>
+    </row>
+    <row r="753" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="20"/>
+      <c r="B753" s="24"/>
+      <c r="F753" s="23"/>
+    </row>
+    <row r="754" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="20"/>
+      <c r="B754" s="24"/>
+      <c r="F754" s="23"/>
+    </row>
+    <row r="755" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="20"/>
+      <c r="B755" s="24"/>
+      <c r="F755" s="23"/>
+    </row>
+    <row r="756" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="20"/>
+      <c r="B756" s="24"/>
+      <c r="F756" s="23"/>
+    </row>
+    <row r="757" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="20"/>
+      <c r="B757" s="24"/>
+      <c r="F757" s="23"/>
+    </row>
+    <row r="758" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="20"/>
+      <c r="B758" s="24"/>
+      <c r="F758" s="23"/>
+    </row>
+    <row r="759" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="20"/>
+      <c r="B759" s="24"/>
+      <c r="F759" s="23"/>
+    </row>
+    <row r="760" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A760" s="20"/>
+      <c r="B760" s="24"/>
+      <c r="F760" s="23"/>
+    </row>
+    <row r="761" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="20"/>
+      <c r="B761" s="24"/>
+      <c r="F761" s="23"/>
+    </row>
+    <row r="762" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="20"/>
+      <c r="B762" s="24"/>
+      <c r="F762" s="23"/>
+    </row>
+    <row r="763" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="20"/>
+      <c r="B763" s="24"/>
+      <c r="F763" s="23"/>
+    </row>
+    <row r="764" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="20"/>
+      <c r="B764" s="24"/>
+      <c r="F764" s="23"/>
+    </row>
+    <row r="765" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="20"/>
+      <c r="B765" s="24"/>
+      <c r="F765" s="23"/>
+    </row>
+    <row r="766" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A766" s="20"/>
+      <c r="B766" s="24"/>
+      <c r="F766" s="23"/>
+    </row>
+    <row r="767" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="20"/>
+      <c r="B767" s="24"/>
+      <c r="F767" s="23"/>
+    </row>
+    <row r="768" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="20"/>
+      <c r="B768" s="24"/>
+      <c r="F768" s="23"/>
+    </row>
+    <row r="769" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A769" s="20"/>
+      <c r="B769" s="24"/>
+      <c r="F769" s="23"/>
+    </row>
+    <row r="770" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="20"/>
+      <c r="B770" s="24"/>
+      <c r="F770" s="23"/>
+    </row>
+    <row r="771" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="20"/>
+      <c r="B771" s="24"/>
+      <c r="F771" s="23"/>
+    </row>
+    <row r="772" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="20"/>
+      <c r="B772" s="24"/>
+      <c r="F772" s="23"/>
+    </row>
+    <row r="773" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="20"/>
+      <c r="B773" s="24"/>
+      <c r="F773" s="23"/>
+    </row>
+    <row r="774" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="20"/>
+      <c r="B774" s="24"/>
+      <c r="F774" s="23"/>
+    </row>
+    <row r="775" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="20"/>
+      <c r="B775" s="24"/>
+      <c r="F775" s="23"/>
+    </row>
+    <row r="776" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="20"/>
+      <c r="B776" s="24"/>
+      <c r="F776" s="23"/>
+    </row>
+    <row r="777" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A777" s="20"/>
+      <c r="B777" s="24"/>
+      <c r="F777" s="23"/>
+    </row>
+    <row r="778" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A778" s="20"/>
+      <c r="B778" s="24"/>
+      <c r="F778" s="23"/>
+    </row>
+    <row r="779" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A779" s="20"/>
+      <c r="B779" s="24"/>
+      <c r="F779" s="23"/>
+    </row>
+    <row r="780" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="20"/>
+      <c r="B780" s="24"/>
+      <c r="F780" s="23"/>
+    </row>
+    <row r="781" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A781" s="20"/>
+      <c r="B781" s="24"/>
+      <c r="F781" s="23"/>
+    </row>
+    <row r="782" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A782" s="20"/>
+      <c r="B782" s="24"/>
+      <c r="F782" s="23"/>
+    </row>
+    <row r="783" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="20"/>
+      <c r="B783" s="24"/>
+      <c r="F783" s="23"/>
+    </row>
+    <row r="784" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A784" s="20"/>
+      <c r="B784" s="24"/>
+      <c r="F784" s="23"/>
+    </row>
+    <row r="785" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A785" s="20"/>
+      <c r="B785" s="24"/>
+      <c r="F785" s="23"/>
+    </row>
+    <row r="786" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="20"/>
+      <c r="B786" s="24"/>
+      <c r="F786" s="23"/>
+    </row>
+    <row r="787" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A787" s="20"/>
+      <c r="B787" s="24"/>
+      <c r="F787" s="23"/>
+    </row>
+    <row r="788" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="20"/>
+      <c r="B788" s="24"/>
+      <c r="F788" s="23"/>
+    </row>
+    <row r="789" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="20"/>
+      <c r="B789" s="24"/>
+      <c r="F789" s="23"/>
+    </row>
+    <row r="790" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A790" s="20"/>
+      <c r="B790" s="24"/>
+      <c r="F790" s="23"/>
+    </row>
+    <row r="791" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="20"/>
+      <c r="B791" s="24"/>
+      <c r="F791" s="23"/>
+    </row>
+    <row r="792" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="20"/>
+      <c r="B792" s="24"/>
+      <c r="F792" s="23"/>
+    </row>
+    <row r="793" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A793" s="20"/>
+      <c r="B793" s="24"/>
+      <c r="F793" s="23"/>
+    </row>
+    <row r="794" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A794" s="20"/>
+      <c r="B794" s="24"/>
+      <c r="F794" s="23"/>
+    </row>
+    <row r="795" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A795" s="20"/>
+      <c r="B795" s="24"/>
+      <c r="F795" s="23"/>
+    </row>
+    <row r="796" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A796" s="20"/>
+      <c r="B796" s="24"/>
+      <c r="F796" s="23"/>
+    </row>
+    <row r="797" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="20"/>
+      <c r="B797" s="24"/>
+      <c r="F797" s="23"/>
+    </row>
+    <row r="798" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="20"/>
+      <c r="B798" s="24"/>
+      <c r="F798" s="23"/>
+    </row>
+    <row r="799" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="20"/>
+      <c r="B799" s="24"/>
+      <c r="F799" s="23"/>
+    </row>
+    <row r="800" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="20"/>
+      <c r="B800" s="24"/>
+      <c r="F800" s="23"/>
+    </row>
+    <row r="801" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="20"/>
+      <c r="B801" s="24"/>
+      <c r="F801" s="23"/>
+    </row>
+    <row r="802" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="20"/>
+      <c r="B802" s="24"/>
+      <c r="F802" s="23"/>
+    </row>
+    <row r="803" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="20"/>
+      <c r="B803" s="24"/>
+      <c r="F803" s="23"/>
+    </row>
+    <row r="804" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A804" s="20"/>
+      <c r="B804" s="24"/>
+      <c r="F804" s="23"/>
+    </row>
+    <row r="805" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A805" s="20"/>
+      <c r="B805" s="24"/>
+      <c r="F805" s="23"/>
+    </row>
+    <row r="806" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A806" s="20"/>
+      <c r="B806" s="24"/>
+      <c r="F806" s="23"/>
+    </row>
+    <row r="807" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A807" s="20"/>
+      <c r="B807" s="24"/>
+      <c r="F807" s="23"/>
+    </row>
+    <row r="808" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A808" s="20"/>
+      <c r="B808" s="24"/>
+      <c r="F808" s="23"/>
+    </row>
+    <row r="809" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="20"/>
+      <c r="B809" s="24"/>
+      <c r="F809" s="23"/>
+    </row>
+    <row r="810" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="20"/>
+      <c r="B810" s="24"/>
+      <c r="F810" s="23"/>
+    </row>
+    <row r="811" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="20"/>
+      <c r="B811" s="24"/>
+      <c r="F811" s="23"/>
+    </row>
+    <row r="812" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A812" s="20"/>
+      <c r="B812" s="24"/>
+      <c r="F812" s="23"/>
+    </row>
+    <row r="813" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A813" s="20"/>
+      <c r="B813" s="24"/>
+      <c r="F813" s="23"/>
+    </row>
+    <row r="814" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A814" s="20"/>
+      <c r="B814" s="24"/>
+      <c r="F814" s="23"/>
+    </row>
+    <row r="815" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A815" s="20"/>
+      <c r="B815" s="24"/>
+      <c r="F815" s="23"/>
+    </row>
+    <row r="816" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A816" s="20"/>
+      <c r="B816" s="24"/>
+      <c r="F816" s="23"/>
+    </row>
+    <row r="817" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A817" s="20"/>
+      <c r="B817" s="24"/>
+      <c r="F817" s="23"/>
+    </row>
+    <row r="818" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A818" s="20"/>
+      <c r="B818" s="24"/>
+      <c r="F818" s="23"/>
+    </row>
+    <row r="819" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="20"/>
+      <c r="B819" s="24"/>
+      <c r="F819" s="23"/>
+    </row>
+    <row r="820" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="20"/>
+      <c r="B820" s="24"/>
+      <c r="F820" s="23"/>
+    </row>
+    <row r="821" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="20"/>
+      <c r="B821" s="24"/>
+      <c r="F821" s="23"/>
+    </row>
+    <row r="822" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A822" s="20"/>
+      <c r="B822" s="24"/>
+      <c r="F822" s="23"/>
+    </row>
+    <row r="823" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A823" s="20"/>
+      <c r="B823" s="24"/>
+      <c r="F823" s="23"/>
+    </row>
+    <row r="824" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A824" s="20"/>
+      <c r="B824" s="24"/>
+      <c r="F824" s="23"/>
+    </row>
+    <row r="825" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A825" s="20"/>
+      <c r="B825" s="24"/>
+      <c r="F825" s="23"/>
+    </row>
+    <row r="826" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A826" s="20"/>
+      <c r="B826" s="24"/>
+      <c r="F826" s="23"/>
+    </row>
+    <row r="827" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A827" s="20"/>
+      <c r="B827" s="24"/>
+      <c r="F827" s="23"/>
+    </row>
+    <row r="828" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A828" s="20"/>
+      <c r="B828" s="24"/>
+      <c r="F828" s="23"/>
+    </row>
+    <row r="829" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A829" s="20"/>
+      <c r="B829" s="24"/>
+      <c r="F829" s="23"/>
+    </row>
+    <row r="830" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="20"/>
+      <c r="B830" s="24"/>
+      <c r="F830" s="23"/>
+    </row>
+    <row r="831" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="20"/>
+      <c r="B831" s="24"/>
+      <c r="F831" s="23"/>
+    </row>
+    <row r="832" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="20"/>
+      <c r="B832" s="24"/>
+      <c r="F832" s="23"/>
+    </row>
+    <row r="833" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A833" s="20"/>
+      <c r="B833" s="24"/>
+      <c r="F833" s="23"/>
+    </row>
+    <row r="834" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A834" s="20"/>
+      <c r="B834" s="24"/>
+      <c r="F834" s="23"/>
+    </row>
+    <row r="835" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A835" s="20"/>
+      <c r="B835" s="24"/>
+      <c r="F835" s="23"/>
+    </row>
+    <row r="836" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A836" s="20"/>
+      <c r="B836" s="24"/>
+      <c r="F836" s="23"/>
+    </row>
+    <row r="837" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A837" s="20"/>
+      <c r="B837" s="24"/>
+      <c r="F837" s="23"/>
+    </row>
+    <row r="838" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A838" s="20"/>
+      <c r="B838" s="24"/>
+      <c r="F838" s="23"/>
+    </row>
+    <row r="839" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A839" s="20"/>
+      <c r="B839" s="24"/>
+      <c r="F839" s="23"/>
+    </row>
+    <row r="840" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A840" s="20"/>
+      <c r="B840" s="24"/>
+      <c r="F840" s="23"/>
+    </row>
+    <row r="841" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A841" s="20"/>
+      <c r="B841" s="24"/>
+      <c r="F841" s="23"/>
+    </row>
+    <row r="842" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="20"/>
+      <c r="B842" s="24"/>
+      <c r="F842" s="23"/>
+    </row>
+    <row r="843" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A843" s="20"/>
+      <c r="B843" s="24"/>
+      <c r="F843" s="23"/>
+    </row>
+    <row r="844" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A844" s="20"/>
+      <c r="B844" s="24"/>
+      <c r="F844" s="23"/>
+    </row>
+    <row r="845" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A845" s="20"/>
+      <c r="B845" s="24"/>
+      <c r="F845" s="23"/>
+    </row>
+    <row r="846" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A846" s="20"/>
+      <c r="B846" s="24"/>
+      <c r="F846" s="23"/>
+    </row>
+    <row r="847" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A847" s="20"/>
+      <c r="B847" s="24"/>
+      <c r="F847" s="23"/>
+    </row>
+    <row r="848" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A848" s="20"/>
+      <c r="B848" s="24"/>
+      <c r="F848" s="23"/>
+    </row>
+    <row r="849" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A849" s="20"/>
+      <c r="B849" s="24"/>
+      <c r="F849" s="23"/>
+    </row>
+    <row r="850" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A850" s="20"/>
+      <c r="B850" s="24"/>
+      <c r="F850" s="23"/>
+    </row>
+    <row r="851" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A851" s="20"/>
+      <c r="B851" s="24"/>
+      <c r="F851" s="23"/>
+    </row>
+    <row r="852" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="20"/>
+      <c r="B852" s="24"/>
+      <c r="F852" s="23"/>
+    </row>
+    <row r="853" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A853" s="20"/>
+      <c r="B853" s="24"/>
+      <c r="F853" s="23"/>
+    </row>
+    <row r="854" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A854" s="20"/>
+      <c r="B854" s="24"/>
+      <c r="F854" s="23"/>
+    </row>
+    <row r="855" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A855" s="20"/>
+      <c r="B855" s="24"/>
+      <c r="F855" s="23"/>
+    </row>
+    <row r="856" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="20"/>
+      <c r="B856" s="24"/>
+      <c r="F856" s="23"/>
+    </row>
+    <row r="857" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A857" s="20"/>
+      <c r="B857" s="24"/>
+      <c r="F857" s="23"/>
+    </row>
+    <row r="858" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="20"/>
+      <c r="B858" s="24"/>
+      <c r="F858" s="23"/>
+    </row>
+    <row r="859" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="20"/>
+      <c r="B859" s="24"/>
+      <c r="F859" s="23"/>
+    </row>
+    <row r="860" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A860" s="20"/>
+      <c r="B860" s="24"/>
+      <c r="F860" s="23"/>
+    </row>
+    <row r="861" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A861" s="20"/>
+      <c r="B861" s="24"/>
+      <c r="F861" s="23"/>
+    </row>
+    <row r="862" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="20"/>
+      <c r="B862" s="24"/>
+      <c r="F862" s="23"/>
+    </row>
+    <row r="863" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A863" s="20"/>
+      <c r="B863" s="24"/>
+      <c r="F863" s="23"/>
+    </row>
+    <row r="864" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="20"/>
+      <c r="B864" s="24"/>
+      <c r="F864" s="23"/>
+    </row>
+    <row r="865" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A865" s="20"/>
+      <c r="B865" s="24"/>
+      <c r="F865" s="23"/>
+    </row>
+    <row r="866" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A866" s="20"/>
+      <c r="B866" s="24"/>
+      <c r="F866" s="23"/>
+    </row>
+    <row r="867" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A867" s="20"/>
+      <c r="B867" s="24"/>
+      <c r="F867" s="23"/>
+    </row>
+    <row r="868" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A868" s="20"/>
+      <c r="B868" s="24"/>
+      <c r="F868" s="23"/>
+    </row>
+    <row r="869" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A869" s="20"/>
+      <c r="B869" s="24"/>
+      <c r="F869" s="23"/>
+    </row>
+    <row r="870" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="20"/>
+      <c r="B870" s="24"/>
+      <c r="F870" s="23"/>
+    </row>
+    <row r="871" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="20"/>
+      <c r="B871" s="24"/>
+      <c r="F871" s="23"/>
+    </row>
+    <row r="872" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A872" s="20"/>
+      <c r="B872" s="24"/>
+      <c r="F872" s="23"/>
+    </row>
+    <row r="873" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A873" s="20"/>
+      <c r="B873" s="24"/>
+      <c r="F873" s="23"/>
+    </row>
+    <row r="874" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A874" s="20"/>
+      <c r="B874" s="24"/>
+      <c r="F874" s="23"/>
+    </row>
+    <row r="875" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A875" s="20"/>
+      <c r="B875" s="24"/>
+      <c r="F875" s="23"/>
+    </row>
+    <row r="876" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A876" s="20"/>
+      <c r="B876" s="24"/>
+      <c r="F876" s="23"/>
+    </row>
+    <row r="877" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A877" s="20"/>
+      <c r="B877" s="24"/>
+      <c r="F877" s="23"/>
+    </row>
+    <row r="878" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A878" s="20"/>
+      <c r="B878" s="24"/>
+      <c r="F878" s="23"/>
+    </row>
+    <row r="879" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="20"/>
+      <c r="B879" s="24"/>
+      <c r="F879" s="23"/>
+    </row>
+    <row r="880" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="20"/>
+      <c r="B880" s="24"/>
+      <c r="F880" s="23"/>
+    </row>
+    <row r="881" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="20"/>
+      <c r="B881" s="24"/>
+      <c r="F881" s="23"/>
+    </row>
+    <row r="882" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="20"/>
+      <c r="B882" s="24"/>
+      <c r="F882" s="23"/>
+    </row>
+    <row r="883" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="20"/>
+      <c r="B883" s="24"/>
+      <c r="F883" s="23"/>
+    </row>
+    <row r="884" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A884" s="20"/>
+      <c r="B884" s="24"/>
+      <c r="F884" s="23"/>
+    </row>
+    <row r="885" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A885" s="20"/>
+      <c r="B885" s="24"/>
+      <c r="F885" s="23"/>
+    </row>
+    <row r="886" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A886" s="20"/>
+      <c r="B886" s="24"/>
+      <c r="F886" s="23"/>
+    </row>
+    <row r="887" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A887" s="20"/>
+      <c r="B887" s="24"/>
+      <c r="F887" s="23"/>
+    </row>
+    <row r="888" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A888" s="20"/>
+      <c r="B888" s="24"/>
+      <c r="F888" s="23"/>
+    </row>
+    <row r="889" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A889" s="20"/>
+      <c r="B889" s="24"/>
+      <c r="F889" s="23"/>
+    </row>
+    <row r="890" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A890" s="20"/>
+      <c r="B890" s="24"/>
+      <c r="F890" s="23"/>
+    </row>
+    <row r="891" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A891" s="20"/>
+      <c r="B891" s="24"/>
+      <c r="F891" s="23"/>
+    </row>
+    <row r="892" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A892" s="20"/>
+      <c r="B892" s="24"/>
+      <c r="F892" s="23"/>
+    </row>
+    <row r="893" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A893" s="20"/>
+      <c r="B893" s="24"/>
+      <c r="F893" s="23"/>
+    </row>
+    <row r="894" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A894" s="20"/>
+      <c r="B894" s="24"/>
+      <c r="F894" s="23"/>
+    </row>
+    <row r="895" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A895" s="20"/>
+      <c r="B895" s="24"/>
+      <c r="F895" s="23"/>
+    </row>
+    <row r="896" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A896" s="20"/>
+      <c r="B896" s="24"/>
+      <c r="F896" s="23"/>
+    </row>
+    <row r="897" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="20"/>
+      <c r="B897" s="24"/>
+      <c r="F897" s="23"/>
+    </row>
+    <row r="898" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A898" s="20"/>
+      <c r="B898" s="24"/>
+      <c r="F898" s="23"/>
+    </row>
+    <row r="899" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="20"/>
+      <c r="B899" s="24"/>
+      <c r="F899" s="23"/>
+    </row>
+    <row r="900" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="20"/>
+      <c r="B900" s="24"/>
+      <c r="F900" s="23"/>
+    </row>
+    <row r="901" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="20"/>
+      <c r="B901" s="24"/>
+      <c r="F901" s="23"/>
+    </row>
+    <row r="902" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="20"/>
+      <c r="B902" s="24"/>
+      <c r="F902" s="23"/>
+    </row>
+    <row r="903" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="20"/>
+      <c r="B903" s="24"/>
+      <c r="F903" s="23"/>
+    </row>
+    <row r="904" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="20"/>
+      <c r="B904" s="24"/>
+      <c r="F904" s="23"/>
+    </row>
+    <row r="905" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="20"/>
+      <c r="B905" s="24"/>
+      <c r="F905" s="23"/>
+    </row>
+    <row r="906" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="20"/>
+      <c r="B906" s="24"/>
+      <c r="F906" s="23"/>
+    </row>
+    <row r="907" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="20"/>
+      <c r="B907" s="24"/>
+      <c r="F907" s="23"/>
+    </row>
+    <row r="908" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="20"/>
+      <c r="B908" s="24"/>
+      <c r="F908" s="23"/>
+    </row>
+    <row r="909" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="20"/>
+      <c r="B909" s="24"/>
+      <c r="F909" s="23"/>
+    </row>
+    <row r="910" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="20"/>
+      <c r="B910" s="24"/>
+      <c r="F910" s="23"/>
+    </row>
+    <row r="911" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="20"/>
+      <c r="B911" s="24"/>
+      <c r="F911" s="23"/>
+    </row>
+    <row r="912" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="20"/>
+      <c r="B912" s="24"/>
+      <c r="F912" s="23"/>
+    </row>
+    <row r="913" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="20"/>
+      <c r="B913" s="24"/>
+      <c r="F913" s="23"/>
+    </row>
+    <row r="914" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="20"/>
+      <c r="B914" s="24"/>
+      <c r="F914" s="23"/>
+    </row>
+    <row r="915" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="20"/>
+      <c r="B915" s="24"/>
+      <c r="F915" s="23"/>
+    </row>
+    <row r="916" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="20"/>
+      <c r="B916" s="24"/>
+      <c r="F916" s="23"/>
+    </row>
+    <row r="917" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="20"/>
+      <c r="B917" s="24"/>
+      <c r="F917" s="23"/>
+    </row>
+    <row r="918" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="20"/>
+      <c r="B918" s="24"/>
+      <c r="F918" s="23"/>
+    </row>
+    <row r="919" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="20"/>
+      <c r="B919" s="24"/>
+      <c r="F919" s="23"/>
+    </row>
+    <row r="920" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="20"/>
+      <c r="B920" s="24"/>
+      <c r="F920" s="23"/>
+    </row>
+    <row r="921" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="20"/>
+      <c r="B921" s="24"/>
+      <c r="F921" s="23"/>
+    </row>
+    <row r="922" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A922" s="20"/>
+      <c r="B922" s="24"/>
+      <c r="F922" s="23"/>
+    </row>
+    <row r="923" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A923" s="20"/>
+      <c r="B923" s="24"/>
+      <c r="F923" s="23"/>
+    </row>
+    <row r="924" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A924" s="20"/>
+      <c r="B924" s="24"/>
+      <c r="F924" s="23"/>
+    </row>
+    <row r="925" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A925" s="20"/>
+      <c r="B925" s="24"/>
+      <c r="F925" s="23"/>
+    </row>
+    <row r="926" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="20"/>
+      <c r="B926" s="24"/>
+      <c r="F926" s="23"/>
+    </row>
+    <row r="927" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A927" s="20"/>
+      <c r="B927" s="24"/>
+      <c r="F927" s="23"/>
+    </row>
+    <row r="928" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A928" s="20"/>
+      <c r="B928" s="24"/>
+      <c r="F928" s="23"/>
+    </row>
+    <row r="929" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A929" s="20"/>
+      <c r="B929" s="24"/>
+      <c r="F929" s="23"/>
+    </row>
+    <row r="930" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A930" s="20"/>
+      <c r="B930" s="24"/>
+      <c r="F930" s="23"/>
+    </row>
+    <row r="931" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A931" s="20"/>
+      <c r="B931" s="24"/>
+      <c r="F931" s="23"/>
+    </row>
+    <row r="932" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A932" s="20"/>
+      <c r="B932" s="24"/>
+      <c r="F932" s="23"/>
+    </row>
+    <row r="933" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A933" s="20"/>
+      <c r="B933" s="24"/>
+      <c r="F933" s="23"/>
+    </row>
+    <row r="934" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A934" s="20"/>
+      <c r="B934" s="24"/>
+      <c r="F934" s="23"/>
+    </row>
+    <row r="935" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A935" s="20"/>
+      <c r="B935" s="24"/>
+      <c r="F935" s="23"/>
+    </row>
+    <row r="936" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A936" s="20"/>
+      <c r="B936" s="24"/>
+      <c r="F936" s="23"/>
+    </row>
+    <row r="937" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="20"/>
+      <c r="B937" s="24"/>
+      <c r="F937" s="23"/>
+    </row>
+    <row r="938" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="20"/>
+      <c r="B938" s="24"/>
+      <c r="F938" s="23"/>
+    </row>
+    <row r="939" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A939" s="20"/>
+      <c r="B939" s="24"/>
+      <c r="F939" s="23"/>
+    </row>
+    <row r="940" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="20"/>
+      <c r="B940" s="24"/>
+      <c r="F940" s="23"/>
+    </row>
+    <row r="941" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="20"/>
+      <c r="B941" s="24"/>
+      <c r="F941" s="23"/>
+    </row>
+    <row r="942" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A942" s="20"/>
+      <c r="B942" s="24"/>
+      <c r="F942" s="23"/>
+    </row>
+    <row r="943" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A943" s="20"/>
+      <c r="B943" s="24"/>
+      <c r="F943" s="23"/>
+    </row>
+    <row r="944" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A944" s="20"/>
+      <c r="B944" s="24"/>
+      <c r="F944" s="23"/>
+    </row>
+    <row r="945" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="20"/>
+      <c r="B945" s="24"/>
+      <c r="F945" s="23"/>
+    </row>
+    <row r="946" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="20"/>
+      <c r="B946" s="24"/>
+      <c r="F946" s="23"/>
+    </row>
+    <row r="947" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="20"/>
+      <c r="B947" s="24"/>
+      <c r="F947" s="23"/>
+    </row>
+    <row r="948" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="20"/>
+      <c r="B948" s="24"/>
+      <c r="F948" s="23"/>
+    </row>
+    <row r="949" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="20"/>
+      <c r="B949" s="24"/>
+      <c r="F949" s="23"/>
+    </row>
+    <row r="950" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="20"/>
+      <c r="B950" s="24"/>
+      <c r="F950" s="23"/>
+    </row>
+    <row r="951" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="20"/>
+      <c r="B951" s="24"/>
+      <c r="F951" s="23"/>
+    </row>
+    <row r="952" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="20"/>
+      <c r="B952" s="24"/>
+      <c r="F952" s="23"/>
+    </row>
+    <row r="953" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="20"/>
+      <c r="B953" s="24"/>
+      <c r="F953" s="23"/>
+    </row>
+    <row r="954" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="20"/>
+      <c r="B954" s="24"/>
+      <c r="F954" s="23"/>
+    </row>
+    <row r="955" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="20"/>
+      <c r="B955" s="24"/>
+      <c r="F955" s="23"/>
+    </row>
+    <row r="956" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="20"/>
+      <c r="B956" s="24"/>
+      <c r="F956" s="23"/>
+    </row>
+    <row r="957" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="20"/>
+      <c r="B957" s="24"/>
+      <c r="F957" s="23"/>
+    </row>
+    <row r="958" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="20"/>
+      <c r="B958" s="24"/>
+      <c r="F958" s="23"/>
+    </row>
+    <row r="959" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="20"/>
+      <c r="B959" s="24"/>
+      <c r="F959" s="23"/>
+    </row>
+    <row r="960" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="20"/>
+      <c r="B960" s="24"/>
+      <c r="F960" s="23"/>
+    </row>
+    <row r="961" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="20"/>
+      <c r="B961" s="24"/>
+      <c r="F961" s="23"/>
+    </row>
+    <row r="962" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="20"/>
+      <c r="B962" s="24"/>
+      <c r="F962" s="23"/>
+    </row>
+    <row r="963" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="20"/>
+      <c r="B963" s="24"/>
+      <c r="F963" s="23"/>
+    </row>
+    <row r="964" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="20"/>
+      <c r="B964" s="24"/>
+      <c r="F964" s="23"/>
+    </row>
+    <row r="965" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="20"/>
+      <c r="B965" s="24"/>
+      <c r="F965" s="23"/>
+    </row>
+    <row r="966" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="20"/>
+      <c r="B966" s="24"/>
+      <c r="F966" s="23"/>
+    </row>
+    <row r="967" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="20"/>
+      <c r="B967" s="24"/>
+      <c r="F967" s="23"/>
+    </row>
+    <row r="968" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="20"/>
+      <c r="B968" s="24"/>
+      <c r="F968" s="23"/>
+    </row>
+    <row r="969" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="20"/>
+      <c r="B969" s="24"/>
+      <c r="F969" s="23"/>
+    </row>
+    <row r="970" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="20"/>
+      <c r="B970" s="24"/>
+      <c r="F970" s="23"/>
+    </row>
+    <row r="971" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="20"/>
+      <c r="B971" s="24"/>
+      <c r="F971" s="23"/>
+    </row>
+    <row r="972" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="20"/>
+      <c r="B972" s="24"/>
+      <c r="F972" s="23"/>
+    </row>
+    <row r="973" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="20"/>
+      <c r="B973" s="24"/>
+      <c r="F973" s="23"/>
+    </row>
+    <row r="974" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="20"/>
+      <c r="B974" s="24"/>
+      <c r="F974" s="23"/>
+    </row>
+    <row r="975" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="20"/>
+      <c r="B975" s="24"/>
+      <c r="F975" s="23"/>
+    </row>
+    <row r="976" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="20"/>
+      <c r="B976" s="24"/>
+      <c r="F976" s="23"/>
+    </row>
+    <row r="977" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="20"/>
+      <c r="B977" s="24"/>
+      <c r="F977" s="23"/>
+    </row>
+    <row r="978" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="20"/>
+      <c r="B978" s="24"/>
+      <c r="F978" s="23"/>
+    </row>
+    <row r="979" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="20"/>
+      <c r="B979" s="24"/>
+      <c r="F979" s="23"/>
+    </row>
+    <row r="980" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="20"/>
+      <c r="B980" s="24"/>
+      <c r="F980" s="23"/>
+    </row>
+    <row r="981" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="20"/>
+      <c r="B981" s="24"/>
+      <c r="F981" s="23"/>
+    </row>
+    <row r="982" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="20"/>
+      <c r="B982" s="24"/>
+      <c r="F982" s="23"/>
+    </row>
+    <row r="983" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="20"/>
+      <c r="B983" s="24"/>
+      <c r="F983" s="23"/>
+    </row>
+    <row r="984" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="20"/>
+      <c r="B984" s="24"/>
+      <c r="F984" s="23"/>
+    </row>
+    <row r="985" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="20"/>
+      <c r="B985" s="24"/>
+      <c r="F985" s="23"/>
+    </row>
+    <row r="986" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="20"/>
+      <c r="B986" s="24"/>
+      <c r="F986" s="23"/>
+    </row>
+    <row r="987" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="20"/>
+      <c r="B987" s="24"/>
+      <c r="F987" s="23"/>
+    </row>
+    <row r="988" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="20"/>
+      <c r="B988" s="24"/>
+      <c r="F988" s="23"/>
+    </row>
+    <row r="989" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A989" s="20"/>
+      <c r="B989" s="24"/>
+      <c r="F989" s="23"/>
+    </row>
+    <row r="990" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A990" s="20"/>
+      <c r="B990" s="24"/>
+      <c r="F990" s="23"/>
+    </row>
+    <row r="991" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A991" s="20"/>
+      <c r="B991" s="24"/>
+      <c r="F991" s="23"/>
+    </row>
+    <row r="992" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A992" s="20"/>
+      <c r="B992" s="24"/>
+      <c r="F992" s="23"/>
+    </row>
+    <row r="993" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A993" s="20"/>
+      <c r="B993" s="24"/>
+      <c r="F993" s="23"/>
+    </row>
+    <row r="994" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A994" s="20"/>
+      <c r="B994" s="24"/>
+      <c r="F994" s="23"/>
+    </row>
+    <row r="995" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A995" s="20"/>
+      <c r="B995" s="24"/>
+      <c r="F995" s="23"/>
+    </row>
+    <row r="996" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A996" s="20"/>
+      <c r="B996" s="24"/>
+      <c r="F996" s="23"/>
+    </row>
+    <row r="997" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A997" s="20"/>
+      <c r="B997" s="24"/>
+      <c r="F997" s="23"/>
+    </row>
+    <row r="998" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A998" s="20"/>
+      <c r="B998" s="24"/>
+      <c r="F998" s="23"/>
+    </row>
+    <row r="999" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A999" s="20"/>
+      <c r="B999" s="24"/>
+      <c r="F999" s="23"/>
+    </row>
+    <row r="1000" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="20"/>
+      <c r="B1000" s="24"/>
+      <c r="F1000" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-085 Custome Ranking.xlsx
+++ b/CH-085 Custome Ranking.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7840-C0BB-44E2-9755-FE53281F0A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314460D-DF8A-4B62-B9CB-A02465C8F9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
     <sheet name="Alt2" sheetId="6" r:id="rId4"/>
+    <sheet name="EDA2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="fx">_xlfn.LAMBDA(_xlpm.l,_xlpm.r,          _xlfn.LET(              _xlpm.z, _xlfn._xlws.FILTER(_xlpm.l,_xlfn.CHOOSECOLS(_xlpm.l,2)=-1),              _xlpm.a, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&lt;50),1,-1),1,1),              _xlpm.b, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&gt;50),1),1,1),              _xlpm.adist, ABS(50-_xlpm.a), _xlpm.bdist, ABS(50-_xlpm.b),              _xlpm.ar, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+1,_xlpm.r+2), _xlpm.br, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+2,_xlpm.r+1),              _xlpm.zz,_xlfn.VSTACK(_xlfn.HSTACK(_xlpm.a,_xlpm.ar),_xlfn.HSTACK(_xlpm.b,_xlpm.br)),_xlpm.zz  ))</definedName>
@@ -35,7 +36,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rH5NRDiOPGMiTOjwnd49YOp0PYPEcMxhUKicEAA7n1M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rH5NRDiOPGMiTOjwnd49YOp0PYPEcMxhUKicEAA7n1M="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -155,7 +156,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +233,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,6 +476,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -949,6 +957,77 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>1270</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>529590</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>184150</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E892CC59-E9C0-4973-9B56-8641DAB8E738}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6148"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="16200120" y="5285740"/>
+              <a:ext cx="2677160" cy="4241800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1147,7 +1226,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1598" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="355" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1176,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -6633,8 +6712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8DA57D-AB24-4212-8EF9-EC21628E5970}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11023,7 +11102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A5C7EA-2FCA-41E2-AC85-55BADB7ED10A}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -16534,8 +16613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC06BA0-2260-4F33-9AB9-337B50AE53B8}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22100,4 +22179,4974 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D1AE9-9669-449D-9482-07FFFB82CC8C}">
+  <dimension ref="A1:Y988"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="10.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="27" customWidth="1"/>
+    <col min="7" max="25" width="8.54296875" style="27" customWidth="1"/>
+    <col min="26" max="16384" width="12.54296875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="E2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="E3" s="33">
+        <v>22</v>
+      </c>
+      <c r="F3" s="34">
+        <v>21</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31">
+        <v>25</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="E4" s="33">
+        <v>25</v>
+      </c>
+      <c r="F4" s="34">
+        <v>20</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>27</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="E5" s="33">
+        <v>27</v>
+      </c>
+      <c r="F5" s="34">
+        <v>19</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="E6" s="33">
+        <v>28</v>
+      </c>
+      <c r="F6" s="34">
+        <v>17</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38">
+        <v>30</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="E7" s="33">
+        <v>30</v>
+      </c>
+      <c r="F7" s="34">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39">
+        <v>34</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="E8" s="33">
+        <v>34</v>
+      </c>
+      <c r="F8" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="40">
+        <v>40</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="E9" s="33">
+        <v>40</v>
+      </c>
+      <c r="F9" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
+        <v>42</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="E10" s="33">
+        <v>42</v>
+      </c>
+      <c r="F10" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42">
+        <v>43</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="E11" s="33">
+        <v>43</v>
+      </c>
+      <c r="F11" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43">
+        <v>44</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="F12" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44">
+        <v>45</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="E13" s="33">
+        <v>45</v>
+      </c>
+      <c r="F13" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45">
+        <v>47</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="E14" s="33">
+        <v>47</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45">
+        <v>51</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="E15" s="33">
+        <v>51</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44">
+        <v>52</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="E16" s="33">
+        <v>52</v>
+      </c>
+      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="43">
+        <v>60</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="E17" s="33">
+        <v>60</v>
+      </c>
+      <c r="F17" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="42">
+        <v>63</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="E18" s="33">
+        <v>63</v>
+      </c>
+      <c r="F18" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
+        <v>64</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="E19" s="33">
+        <v>64</v>
+      </c>
+      <c r="F19" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
+        <v>67</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="E20" s="33">
+        <v>67</v>
+      </c>
+      <c r="F20" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="39">
+        <v>68</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="E21" s="33">
+        <v>68</v>
+      </c>
+      <c r="F21" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38">
+        <v>69</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="E22" s="33">
+        <v>69</v>
+      </c>
+      <c r="F22" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="37">
+        <v>74</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="E23" s="33">
+        <v>74</v>
+      </c>
+      <c r="F23" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="32"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47"/>
+      <c r="C27" s="53" cm="1">
+        <f t="array" ref="C27:D38">_xlfn.LET(
+_xlpm.a, B3:B23,
+_xlpm.fl, _xlfn.LAMBDA(_xlpm.x, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.a, IF(_xlpm.x = -1, _xlpm.a &lt; 50, IF(_xlpm.x = 1, _xlpm.a &gt; 50))), 1, _xlpm.x)),
+_xlfn.HSTACK(_xlpm.fl(-1),_xlpm.fl(1))
+)</f>
+        <v>47</v>
+      </c>
+      <c r="D27" s="53">
+        <v>51</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="27" cm="1">
+        <f t="array" ref="F27:G38">ABS(_xlfn.ANCHORARRAY(C27)-50)</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27">
+        <f>IF(F27&lt;G27,C27,D27)</f>
+        <v>51</v>
+      </c>
+      <c r="J27" s="27">
+        <f>IF(F27&lt;G27,D27,C27)</f>
+        <v>47</v>
+      </c>
+      <c r="L27" s="27" cm="1">
+        <f t="array" ref="L27:L47">_xlfn.TOCOL(I27:J38,3)</f>
+        <v>51</v>
+      </c>
+      <c r="M27" s="27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="27" cm="1">
+        <f t="array" ref="O27:P47">_xlfn.LET(_xlpm.z,L27:M47,_xlfn.SORTBY(_xlpm.z,_xlfn.XMATCH(_xlfn.CHOOSECOLS(_xlpm.z,1),B3:B23)))</f>
+        <v>22</v>
+      </c>
+      <c r="P27" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="47"/>
+      <c r="C28" s="53">
+        <v>45</v>
+      </c>
+      <c r="D28" s="53">
+        <v>52</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="27">
+        <v>5</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" ref="I28:I35" si="0">IF(F28&lt;G28,C28,D28)</f>
+        <v>52</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" ref="J28:J35" si="1">IF(F28&lt;G28,D28,C28)</f>
+        <v>45</v>
+      </c>
+      <c r="L28" s="27">
+        <v>47</v>
+      </c>
+      <c r="M28" s="27">
+        <v>2</v>
+      </c>
+      <c r="O28" s="27">
+        <v>25</v>
+      </c>
+      <c r="P28" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="47"/>
+      <c r="C29" s="53">
+        <v>44</v>
+      </c>
+      <c r="D29" s="53">
+        <v>60</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="27">
+        <v>6</v>
+      </c>
+      <c r="G29" s="27">
+        <v>10</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L29" s="27">
+        <v>52</v>
+      </c>
+      <c r="M29" s="27">
+        <v>3</v>
+      </c>
+      <c r="O29" s="27">
+        <v>27</v>
+      </c>
+      <c r="P29" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="47"/>
+      <c r="C30" s="53">
+        <v>43</v>
+      </c>
+      <c r="D30" s="53">
+        <v>63</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="27">
+        <v>7</v>
+      </c>
+      <c r="G30" s="27">
+        <v>13</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="L30" s="27">
+        <v>45</v>
+      </c>
+      <c r="M30" s="27">
+        <v>4</v>
+      </c>
+      <c r="O30" s="27">
+        <v>28</v>
+      </c>
+      <c r="P30" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="47"/>
+      <c r="C31" s="53">
+        <v>42</v>
+      </c>
+      <c r="D31" s="53">
+        <v>64</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="27">
+        <v>8</v>
+      </c>
+      <c r="G31" s="27">
+        <v>14</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J31" s="27">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="L31" s="27">
+        <v>44</v>
+      </c>
+      <c r="M31" s="27">
+        <v>5</v>
+      </c>
+      <c r="O31" s="27">
+        <v>30</v>
+      </c>
+      <c r="P31" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="47"/>
+      <c r="C32" s="53">
+        <v>40</v>
+      </c>
+      <c r="D32" s="53">
+        <v>67</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="27">
+        <v>10</v>
+      </c>
+      <c r="G32" s="27">
+        <v>17</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J32" s="27">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="L32" s="27">
+        <v>60</v>
+      </c>
+      <c r="M32" s="27">
+        <v>6</v>
+      </c>
+      <c r="O32" s="27">
+        <v>34</v>
+      </c>
+      <c r="P32" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="47"/>
+      <c r="C33" s="53">
+        <v>34</v>
+      </c>
+      <c r="D33" s="53">
+        <v>68</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="27">
+        <v>16</v>
+      </c>
+      <c r="G33" s="27">
+        <v>18</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J33" s="27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="L33" s="27">
+        <v>43</v>
+      </c>
+      <c r="M33" s="27">
+        <v>7</v>
+      </c>
+      <c r="O33" s="27">
+        <v>40</v>
+      </c>
+      <c r="P33" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="47"/>
+      <c r="C34" s="53">
+        <v>30</v>
+      </c>
+      <c r="D34" s="53">
+        <v>69</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="27">
+        <v>20</v>
+      </c>
+      <c r="G34" s="27">
+        <v>19</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J34" s="27">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L34" s="27">
+        <v>63</v>
+      </c>
+      <c r="M34" s="27">
+        <v>8</v>
+      </c>
+      <c r="O34" s="27">
+        <v>42</v>
+      </c>
+      <c r="P34" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="47"/>
+      <c r="C35" s="53">
+        <v>28</v>
+      </c>
+      <c r="D35" s="53">
+        <v>74</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="27">
+        <v>22</v>
+      </c>
+      <c r="G35" s="27">
+        <v>24</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J35" s="27">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="L35" s="27">
+        <v>42</v>
+      </c>
+      <c r="M35" s="27">
+        <v>9</v>
+      </c>
+      <c r="O35" s="27">
+        <v>43</v>
+      </c>
+      <c r="P35" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="47"/>
+      <c r="C36" s="53">
+        <v>27</v>
+      </c>
+      <c r="D36" s="53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="27">
+        <v>23</v>
+      </c>
+      <c r="G36" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="53">
+        <v>27</v>
+      </c>
+      <c r="J36" s="27" t="e">
+        <f t="shared" ref="J28:J38" si="2">IF(F36&lt;G36,D36,C36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="27">
+        <v>64</v>
+      </c>
+      <c r="M36" s="27">
+        <v>10</v>
+      </c>
+      <c r="O36" s="27">
+        <v>44</v>
+      </c>
+      <c r="P36" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="47"/>
+      <c r="C37" s="53">
+        <v>25</v>
+      </c>
+      <c r="D37" s="53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="27">
+        <v>25</v>
+      </c>
+      <c r="G37" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="53">
+        <v>25</v>
+      </c>
+      <c r="J37" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="27">
+        <v>40</v>
+      </c>
+      <c r="M37" s="27">
+        <v>11</v>
+      </c>
+      <c r="O37" s="27">
+        <v>45</v>
+      </c>
+      <c r="P37" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="47"/>
+      <c r="C38" s="53">
+        <v>22</v>
+      </c>
+      <c r="D38" s="53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="27">
+        <v>28</v>
+      </c>
+      <c r="G38" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="53">
+        <v>22</v>
+      </c>
+      <c r="J38" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="27">
+        <v>67</v>
+      </c>
+      <c r="M38" s="27">
+        <v>12</v>
+      </c>
+      <c r="O38" s="27">
+        <v>47</v>
+      </c>
+      <c r="P38" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="47"/>
+      <c r="E39" s="46"/>
+      <c r="L39" s="27">
+        <v>34</v>
+      </c>
+      <c r="M39" s="27">
+        <v>13</v>
+      </c>
+      <c r="O39" s="27">
+        <v>51</v>
+      </c>
+      <c r="P39" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="47"/>
+      <c r="C40" s="27" cm="1">
+        <f t="array" ref="C40:C60">_xlfn.LET(
+_xlpm.z,_xlfn.TOCOL(_xlfn.ANCHORARRAY(C27),3),
+_xlpm.zz,_xlfn.HSTACK(_xlpm.z,
+          _xlfn.SORTBY(_xlfn.SEQUENCE(ROWS(_xlpm.z)),
+                 _xlfn.XMATCH(_xlpm.z,B3:B23)
+          )),
+_xlpm.z
+)</f>
+        <v>47</v>
+      </c>
+      <c r="D40" s="27" cm="1">
+        <f t="array" ref="D40:D60">_xlfn.SEQUENCE(21)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="L40" s="27">
+        <v>68</v>
+      </c>
+      <c r="M40" s="27">
+        <v>14</v>
+      </c>
+      <c r="O40" s="27">
+        <v>52</v>
+      </c>
+      <c r="P40" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="47"/>
+      <c r="C41" s="27">
+        <v>51</v>
+      </c>
+      <c r="D41" s="27">
+        <v>2</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="L41" s="27">
+        <v>69</v>
+      </c>
+      <c r="M41" s="27">
+        <v>15</v>
+      </c>
+      <c r="O41" s="27">
+        <v>60</v>
+      </c>
+      <c r="P41" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="47"/>
+      <c r="C42" s="27">
+        <v>45</v>
+      </c>
+      <c r="D42" s="27">
+        <v>3</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="L42" s="27">
+        <v>30</v>
+      </c>
+      <c r="M42" s="27">
+        <v>16</v>
+      </c>
+      <c r="O42" s="27">
+        <v>63</v>
+      </c>
+      <c r="P42" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="47"/>
+      <c r="C43" s="27">
+        <v>52</v>
+      </c>
+      <c r="D43" s="27">
+        <v>4</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="L43" s="27">
+        <v>28</v>
+      </c>
+      <c r="M43" s="27">
+        <v>17</v>
+      </c>
+      <c r="O43" s="27">
+        <v>64</v>
+      </c>
+      <c r="P43" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="47"/>
+      <c r="C44" s="27">
+        <v>44</v>
+      </c>
+      <c r="D44" s="27">
+        <v>5</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="L44" s="27">
+        <v>74</v>
+      </c>
+      <c r="M44" s="27">
+        <v>18</v>
+      </c>
+      <c r="O44" s="27">
+        <v>67</v>
+      </c>
+      <c r="P44" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="47"/>
+      <c r="C45" s="27">
+        <v>60</v>
+      </c>
+      <c r="D45" s="27">
+        <v>6</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="L45" s="27">
+        <v>27</v>
+      </c>
+      <c r="M45" s="27">
+        <v>19</v>
+      </c>
+      <c r="O45" s="27">
+        <v>68</v>
+      </c>
+      <c r="P45" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="47"/>
+      <c r="C46" s="27">
+        <v>43</v>
+      </c>
+      <c r="D46" s="27">
+        <v>7</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="L46" s="27">
+        <v>25</v>
+      </c>
+      <c r="M46" s="27">
+        <v>20</v>
+      </c>
+      <c r="O46" s="27">
+        <v>69</v>
+      </c>
+      <c r="P46" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="47"/>
+      <c r="C47" s="27">
+        <v>63</v>
+      </c>
+      <c r="D47" s="27">
+        <v>8</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="L47" s="27">
+        <v>22</v>
+      </c>
+      <c r="M47" s="27">
+        <v>21</v>
+      </c>
+      <c r="O47" s="27">
+        <v>74</v>
+      </c>
+      <c r="P47" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="47"/>
+      <c r="C48" s="27">
+        <v>42</v>
+      </c>
+      <c r="D48" s="27">
+        <v>9</v>
+      </c>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="47"/>
+      <c r="C49" s="27">
+        <v>64</v>
+      </c>
+      <c r="D49" s="27">
+        <v>10</v>
+      </c>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="47"/>
+      <c r="C50" s="27">
+        <v>40</v>
+      </c>
+      <c r="D50" s="27">
+        <v>11</v>
+      </c>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="47"/>
+      <c r="C51" s="27">
+        <v>67</v>
+      </c>
+      <c r="D51" s="27">
+        <v>12</v>
+      </c>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="47"/>
+      <c r="C52" s="27">
+        <v>34</v>
+      </c>
+      <c r="D52" s="27">
+        <v>13</v>
+      </c>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="47"/>
+      <c r="C53" s="27">
+        <v>68</v>
+      </c>
+      <c r="D53" s="27">
+        <v>14</v>
+      </c>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="C54" s="27">
+        <v>30</v>
+      </c>
+      <c r="D54" s="27">
+        <v>15</v>
+      </c>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="47"/>
+      <c r="C55" s="27">
+        <v>69</v>
+      </c>
+      <c r="D55" s="27">
+        <v>16</v>
+      </c>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="C56" s="27">
+        <v>28</v>
+      </c>
+      <c r="D56" s="27">
+        <v>17</v>
+      </c>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="47"/>
+      <c r="C57" s="27">
+        <v>74</v>
+      </c>
+      <c r="D57" s="27">
+        <v>18</v>
+      </c>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="47"/>
+      <c r="C58" s="27">
+        <v>27</v>
+      </c>
+      <c r="D58" s="27">
+        <v>19</v>
+      </c>
+      <c r="E58" s="46"/>
+    </row>
+    <row r="59" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="C59" s="27">
+        <v>25</v>
+      </c>
+      <c r="D59" s="27">
+        <v>20</v>
+      </c>
+      <c r="E59" s="46"/>
+    </row>
+    <row r="60" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="47"/>
+      <c r="C60" s="27">
+        <v>22</v>
+      </c>
+      <c r="D60" s="27">
+        <v>21</v>
+      </c>
+      <c r="E60" s="46"/>
+    </row>
+    <row r="61" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="47"/>
+      <c r="E61" s="46"/>
+    </row>
+    <row r="62" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="47"/>
+      <c r="E62" s="46"/>
+    </row>
+    <row r="63" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="47"/>
+      <c r="C63" s="27" cm="1">
+        <f t="array" ref="C63:D83">_xlfn.LET(_xlpm.z,C40:D60,_xlfn.SORTBY(_xlpm.z,_xlfn.XMATCH(_xlfn.CHOOSECOLS(_xlpm.z,1),B3:B23)))</f>
+        <v>22</v>
+      </c>
+      <c r="D63" s="27">
+        <v>21</v>
+      </c>
+      <c r="E63" s="46"/>
+    </row>
+    <row r="64" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="47"/>
+      <c r="C64" s="27">
+        <v>25</v>
+      </c>
+      <c r="D64" s="27">
+        <v>20</v>
+      </c>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="47"/>
+      <c r="C65" s="27">
+        <v>27</v>
+      </c>
+      <c r="D65" s="27">
+        <v>19</v>
+      </c>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="47"/>
+      <c r="C66" s="27">
+        <v>28</v>
+      </c>
+      <c r="D66" s="27">
+        <v>17</v>
+      </c>
+      <c r="E66" s="46"/>
+    </row>
+    <row r="67" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="47"/>
+      <c r="C67" s="27">
+        <v>30</v>
+      </c>
+      <c r="D67" s="27">
+        <v>15</v>
+      </c>
+      <c r="E67" s="46"/>
+    </row>
+    <row r="68" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="47"/>
+      <c r="C68" s="27">
+        <v>34</v>
+      </c>
+      <c r="D68" s="27">
+        <v>13</v>
+      </c>
+      <c r="E68" s="46"/>
+    </row>
+    <row r="69" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="47"/>
+      <c r="C69" s="27">
+        <v>40</v>
+      </c>
+      <c r="D69" s="27">
+        <v>11</v>
+      </c>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="47"/>
+      <c r="C70" s="27">
+        <v>42</v>
+      </c>
+      <c r="D70" s="27">
+        <v>9</v>
+      </c>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="47"/>
+      <c r="C71" s="27">
+        <v>43</v>
+      </c>
+      <c r="D71" s="27">
+        <v>7</v>
+      </c>
+      <c r="E71" s="46"/>
+    </row>
+    <row r="72" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="47"/>
+      <c r="C72" s="27">
+        <v>44</v>
+      </c>
+      <c r="D72" s="27">
+        <v>5</v>
+      </c>
+      <c r="E72" s="46"/>
+    </row>
+    <row r="73" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="47"/>
+      <c r="C73" s="27">
+        <v>45</v>
+      </c>
+      <c r="D73" s="27">
+        <v>3</v>
+      </c>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="47"/>
+      <c r="C74" s="27">
+        <v>47</v>
+      </c>
+      <c r="D74" s="27">
+        <v>1</v>
+      </c>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="47"/>
+      <c r="C75" s="27">
+        <v>51</v>
+      </c>
+      <c r="D75" s="27">
+        <v>2</v>
+      </c>
+      <c r="E75" s="46"/>
+    </row>
+    <row r="76" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="47"/>
+      <c r="C76" s="27">
+        <v>52</v>
+      </c>
+      <c r="D76" s="27">
+        <v>4</v>
+      </c>
+      <c r="E76" s="46"/>
+    </row>
+    <row r="77" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="47"/>
+      <c r="C77" s="27">
+        <v>60</v>
+      </c>
+      <c r="D77" s="27">
+        <v>6</v>
+      </c>
+      <c r="E77" s="46"/>
+    </row>
+    <row r="78" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="47"/>
+      <c r="C78" s="27">
+        <v>63</v>
+      </c>
+      <c r="D78" s="27">
+        <v>8</v>
+      </c>
+      <c r="E78" s="46"/>
+    </row>
+    <row r="79" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="47"/>
+      <c r="C79" s="27">
+        <v>64</v>
+      </c>
+      <c r="D79" s="27">
+        <v>10</v>
+      </c>
+      <c r="E79" s="46"/>
+    </row>
+    <row r="80" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="47"/>
+      <c r="C80" s="27">
+        <v>67</v>
+      </c>
+      <c r="D80" s="27">
+        <v>12</v>
+      </c>
+      <c r="E80" s="46"/>
+    </row>
+    <row r="81" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="47"/>
+      <c r="C81" s="27">
+        <v>68</v>
+      </c>
+      <c r="D81" s="27">
+        <v>14</v>
+      </c>
+      <c r="E81" s="46"/>
+    </row>
+    <row r="82" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="47"/>
+      <c r="C82" s="27">
+        <v>69</v>
+      </c>
+      <c r="D82" s="27">
+        <v>16</v>
+      </c>
+      <c r="E82" s="46"/>
+    </row>
+    <row r="83" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="47"/>
+      <c r="C83" s="27">
+        <v>74</v>
+      </c>
+      <c r="D83" s="27">
+        <v>18</v>
+      </c>
+      <c r="E83" s="46"/>
+    </row>
+    <row r="84" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="47"/>
+      <c r="E84" s="46"/>
+    </row>
+    <row r="85" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="47"/>
+      <c r="E85" s="46"/>
+    </row>
+    <row r="86" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="47"/>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="47"/>
+      <c r="E87" s="46"/>
+    </row>
+    <row r="88" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="47"/>
+      <c r="E88" s="46"/>
+    </row>
+    <row r="89" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="47"/>
+      <c r="E89" s="46"/>
+    </row>
+    <row r="90" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="47"/>
+      <c r="E90" s="46"/>
+    </row>
+    <row r="91" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="47"/>
+      <c r="E91" s="46"/>
+    </row>
+    <row r="92" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="47"/>
+      <c r="E92" s="46"/>
+    </row>
+    <row r="93" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="47"/>
+      <c r="E93" s="46"/>
+    </row>
+    <row r="94" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="47"/>
+      <c r="E94" s="46"/>
+    </row>
+    <row r="95" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="47"/>
+      <c r="E95" s="46"/>
+    </row>
+    <row r="96" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="47"/>
+      <c r="E96" s="46"/>
+    </row>
+    <row r="97" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="47"/>
+      <c r="E97" s="46"/>
+    </row>
+    <row r="98" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="47"/>
+      <c r="E98" s="46"/>
+    </row>
+    <row r="99" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="47"/>
+      <c r="E99" s="46"/>
+    </row>
+    <row r="100" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="47"/>
+      <c r="E100" s="46"/>
+    </row>
+    <row r="101" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="47"/>
+      <c r="E101" s="46"/>
+    </row>
+    <row r="102" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="47"/>
+      <c r="E102" s="46"/>
+    </row>
+    <row r="103" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="47"/>
+      <c r="E103" s="46"/>
+    </row>
+    <row r="104" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="47"/>
+      <c r="E104" s="46"/>
+    </row>
+    <row r="105" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="47"/>
+      <c r="E105" s="46"/>
+    </row>
+    <row r="106" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="47"/>
+      <c r="E106" s="46"/>
+    </row>
+    <row r="107" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="47"/>
+      <c r="E107" s="46"/>
+    </row>
+    <row r="108" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="47"/>
+      <c r="E108" s="46"/>
+    </row>
+    <row r="109" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="47"/>
+      <c r="E109" s="46"/>
+    </row>
+    <row r="110" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="47"/>
+      <c r="E110" s="46"/>
+    </row>
+    <row r="111" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="47"/>
+      <c r="E111" s="46"/>
+    </row>
+    <row r="112" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="47"/>
+      <c r="E112" s="46"/>
+    </row>
+    <row r="113" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="47"/>
+      <c r="E113" s="46"/>
+    </row>
+    <row r="114" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="47"/>
+      <c r="E114" s="46"/>
+    </row>
+    <row r="115" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="47"/>
+      <c r="E115" s="46"/>
+    </row>
+    <row r="116" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="47"/>
+      <c r="E116" s="46"/>
+    </row>
+    <row r="117" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="47"/>
+      <c r="E117" s="46"/>
+    </row>
+    <row r="118" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="47"/>
+      <c r="E118" s="46"/>
+    </row>
+    <row r="119" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="47"/>
+      <c r="E119" s="46"/>
+    </row>
+    <row r="120" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="47"/>
+      <c r="E120" s="46"/>
+    </row>
+    <row r="121" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="47"/>
+      <c r="E121" s="46"/>
+    </row>
+    <row r="122" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="47"/>
+      <c r="E122" s="46"/>
+    </row>
+    <row r="123" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="47"/>
+      <c r="E123" s="46"/>
+    </row>
+    <row r="124" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="47"/>
+      <c r="E124" s="46"/>
+    </row>
+    <row r="125" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="47"/>
+      <c r="E125" s="46"/>
+    </row>
+    <row r="126" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="47"/>
+      <c r="E126" s="46"/>
+    </row>
+    <row r="127" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="47"/>
+      <c r="E127" s="46"/>
+    </row>
+    <row r="128" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="47"/>
+      <c r="E128" s="46"/>
+    </row>
+    <row r="129" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="47"/>
+      <c r="E129" s="46"/>
+    </row>
+    <row r="130" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="47"/>
+      <c r="E130" s="46"/>
+    </row>
+    <row r="131" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="47"/>
+      <c r="E131" s="46"/>
+    </row>
+    <row r="132" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="47"/>
+      <c r="E132" s="46"/>
+    </row>
+    <row r="133" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="47"/>
+      <c r="E133" s="46"/>
+    </row>
+    <row r="134" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="47"/>
+      <c r="E134" s="46"/>
+    </row>
+    <row r="135" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="47"/>
+      <c r="E135" s="46"/>
+    </row>
+    <row r="136" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="47"/>
+      <c r="E136" s="46"/>
+    </row>
+    <row r="137" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="47"/>
+      <c r="E137" s="46"/>
+    </row>
+    <row r="138" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="47"/>
+      <c r="E138" s="46"/>
+    </row>
+    <row r="139" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="47"/>
+      <c r="E139" s="46"/>
+    </row>
+    <row r="140" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="47"/>
+      <c r="E140" s="46"/>
+    </row>
+    <row r="141" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="47"/>
+      <c r="E141" s="46"/>
+    </row>
+    <row r="142" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="47"/>
+      <c r="E142" s="46"/>
+    </row>
+    <row r="143" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="47"/>
+      <c r="E143" s="46"/>
+    </row>
+    <row r="144" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="47"/>
+      <c r="E144" s="46"/>
+    </row>
+    <row r="145" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="47"/>
+      <c r="E145" s="46"/>
+    </row>
+    <row r="146" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="47"/>
+      <c r="E146" s="46"/>
+    </row>
+    <row r="147" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="47"/>
+      <c r="E147" s="46"/>
+    </row>
+    <row r="148" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="47"/>
+      <c r="E148" s="46"/>
+    </row>
+    <row r="149" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="47"/>
+      <c r="E149" s="46"/>
+    </row>
+    <row r="150" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="47"/>
+      <c r="E150" s="46"/>
+    </row>
+    <row r="151" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="47"/>
+      <c r="E151" s="46"/>
+    </row>
+    <row r="152" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="47"/>
+      <c r="E152" s="46"/>
+    </row>
+    <row r="153" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="47"/>
+      <c r="E153" s="46"/>
+    </row>
+    <row r="154" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="47"/>
+      <c r="E154" s="46"/>
+    </row>
+    <row r="155" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="47"/>
+      <c r="E155" s="46"/>
+    </row>
+    <row r="156" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="47"/>
+      <c r="E156" s="46"/>
+    </row>
+    <row r="157" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="47"/>
+      <c r="E157" s="46"/>
+    </row>
+    <row r="158" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="47"/>
+      <c r="E158" s="46"/>
+    </row>
+    <row r="159" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="47"/>
+      <c r="E159" s="46"/>
+    </row>
+    <row r="160" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="47"/>
+      <c r="E160" s="46"/>
+    </row>
+    <row r="161" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="47"/>
+      <c r="E161" s="46"/>
+    </row>
+    <row r="162" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="47"/>
+      <c r="E162" s="46"/>
+    </row>
+    <row r="163" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="47"/>
+      <c r="E163" s="46"/>
+    </row>
+    <row r="164" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="47"/>
+      <c r="E164" s="46"/>
+    </row>
+    <row r="165" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="47"/>
+      <c r="E165" s="46"/>
+    </row>
+    <row r="166" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="47"/>
+      <c r="E166" s="46"/>
+    </row>
+    <row r="167" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="47"/>
+      <c r="E167" s="46"/>
+    </row>
+    <row r="168" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="47"/>
+      <c r="E168" s="46"/>
+    </row>
+    <row r="169" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="47"/>
+      <c r="E169" s="46"/>
+    </row>
+    <row r="170" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="47"/>
+      <c r="E170" s="46"/>
+    </row>
+    <row r="171" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="47"/>
+      <c r="E171" s="46"/>
+    </row>
+    <row r="172" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="47"/>
+      <c r="E172" s="46"/>
+    </row>
+    <row r="173" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="47"/>
+      <c r="E173" s="46"/>
+    </row>
+    <row r="174" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="47"/>
+      <c r="E174" s="46"/>
+    </row>
+    <row r="175" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="47"/>
+      <c r="E175" s="46"/>
+    </row>
+    <row r="176" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="47"/>
+      <c r="E176" s="46"/>
+    </row>
+    <row r="177" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="47"/>
+      <c r="E177" s="46"/>
+    </row>
+    <row r="178" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="47"/>
+      <c r="E178" s="46"/>
+    </row>
+    <row r="179" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="47"/>
+      <c r="E179" s="46"/>
+    </row>
+    <row r="180" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="47"/>
+      <c r="E180" s="46"/>
+    </row>
+    <row r="181" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="47"/>
+      <c r="E181" s="46"/>
+    </row>
+    <row r="182" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="47"/>
+      <c r="E182" s="46"/>
+    </row>
+    <row r="183" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="47"/>
+      <c r="E183" s="46"/>
+    </row>
+    <row r="184" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="47"/>
+      <c r="E184" s="46"/>
+    </row>
+    <row r="185" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="47"/>
+      <c r="E185" s="46"/>
+    </row>
+    <row r="186" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="47"/>
+      <c r="E186" s="46"/>
+    </row>
+    <row r="187" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="47"/>
+      <c r="E187" s="46"/>
+    </row>
+    <row r="188" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="47"/>
+      <c r="E188" s="46"/>
+    </row>
+    <row r="189" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="47"/>
+      <c r="E189" s="46"/>
+    </row>
+    <row r="190" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="47"/>
+      <c r="E190" s="46"/>
+    </row>
+    <row r="191" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="47"/>
+      <c r="E191" s="46"/>
+    </row>
+    <row r="192" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="47"/>
+      <c r="E192" s="46"/>
+    </row>
+    <row r="193" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="47"/>
+      <c r="E193" s="46"/>
+    </row>
+    <row r="194" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="47"/>
+      <c r="E194" s="46"/>
+    </row>
+    <row r="195" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="47"/>
+      <c r="E195" s="46"/>
+    </row>
+    <row r="196" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="47"/>
+      <c r="E196" s="46"/>
+    </row>
+    <row r="197" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="47"/>
+      <c r="E197" s="46"/>
+    </row>
+    <row r="198" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="47"/>
+      <c r="E198" s="46"/>
+    </row>
+    <row r="199" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="47"/>
+      <c r="E199" s="46"/>
+    </row>
+    <row r="200" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="47"/>
+      <c r="E200" s="46"/>
+    </row>
+    <row r="201" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="47"/>
+      <c r="E201" s="46"/>
+    </row>
+    <row r="202" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="47"/>
+      <c r="E202" s="46"/>
+    </row>
+    <row r="203" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="47"/>
+      <c r="E203" s="46"/>
+    </row>
+    <row r="204" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="47"/>
+      <c r="E204" s="46"/>
+    </row>
+    <row r="205" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="47"/>
+      <c r="E205" s="46"/>
+    </row>
+    <row r="206" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="47"/>
+      <c r="E206" s="46"/>
+    </row>
+    <row r="207" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="47"/>
+      <c r="E207" s="46"/>
+    </row>
+    <row r="208" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="47"/>
+      <c r="E208" s="46"/>
+    </row>
+    <row r="209" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="47"/>
+      <c r="E209" s="46"/>
+    </row>
+    <row r="210" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="47"/>
+      <c r="E210" s="46"/>
+    </row>
+    <row r="211" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="47"/>
+      <c r="E211" s="46"/>
+    </row>
+    <row r="212" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="47"/>
+      <c r="E212" s="46"/>
+    </row>
+    <row r="213" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="47"/>
+      <c r="E213" s="46"/>
+    </row>
+    <row r="214" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="47"/>
+      <c r="E214" s="46"/>
+    </row>
+    <row r="215" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="47"/>
+      <c r="E215" s="46"/>
+    </row>
+    <row r="216" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="47"/>
+      <c r="E216" s="46"/>
+    </row>
+    <row r="217" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="47"/>
+      <c r="E217" s="46"/>
+    </row>
+    <row r="218" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="47"/>
+      <c r="E218" s="46"/>
+    </row>
+    <row r="219" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="47"/>
+      <c r="E219" s="46"/>
+    </row>
+    <row r="220" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="47"/>
+      <c r="E220" s="46"/>
+    </row>
+    <row r="221" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="47"/>
+      <c r="E221" s="46"/>
+    </row>
+    <row r="222" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="47"/>
+      <c r="E222" s="46"/>
+    </row>
+    <row r="223" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="47"/>
+      <c r="E223" s="46"/>
+    </row>
+    <row r="224" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="47"/>
+      <c r="E224" s="46"/>
+    </row>
+    <row r="225" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="47"/>
+      <c r="E225" s="46"/>
+    </row>
+    <row r="226" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="47"/>
+      <c r="E226" s="46"/>
+    </row>
+    <row r="227" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="47"/>
+      <c r="E227" s="46"/>
+    </row>
+    <row r="228" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="47"/>
+      <c r="E228" s="46"/>
+    </row>
+    <row r="229" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="47"/>
+      <c r="E229" s="46"/>
+    </row>
+    <row r="230" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="47"/>
+      <c r="E230" s="46"/>
+    </row>
+    <row r="231" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="47"/>
+      <c r="E231" s="46"/>
+    </row>
+    <row r="232" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="47"/>
+      <c r="E232" s="46"/>
+    </row>
+    <row r="233" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="47"/>
+      <c r="E233" s="46"/>
+    </row>
+    <row r="234" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="47"/>
+      <c r="E234" s="46"/>
+    </row>
+    <row r="235" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="47"/>
+      <c r="E235" s="46"/>
+    </row>
+    <row r="236" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="47"/>
+      <c r="E236" s="46"/>
+    </row>
+    <row r="237" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="47"/>
+      <c r="E237" s="46"/>
+    </row>
+    <row r="238" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="47"/>
+      <c r="E238" s="46"/>
+    </row>
+    <row r="239" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="47"/>
+      <c r="E239" s="46"/>
+    </row>
+    <row r="240" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="47"/>
+      <c r="E240" s="46"/>
+    </row>
+    <row r="241" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="47"/>
+      <c r="E241" s="46"/>
+    </row>
+    <row r="242" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="47"/>
+      <c r="E242" s="46"/>
+    </row>
+    <row r="243" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="47"/>
+      <c r="E243" s="46"/>
+    </row>
+    <row r="244" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="47"/>
+      <c r="E244" s="46"/>
+    </row>
+    <row r="245" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="47"/>
+      <c r="E245" s="46"/>
+    </row>
+    <row r="246" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="47"/>
+      <c r="E246" s="46"/>
+    </row>
+    <row r="247" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="47"/>
+      <c r="E247" s="46"/>
+    </row>
+    <row r="248" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="47"/>
+      <c r="E248" s="46"/>
+    </row>
+    <row r="249" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="47"/>
+      <c r="E249" s="46"/>
+    </row>
+    <row r="250" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="47"/>
+      <c r="E250" s="46"/>
+    </row>
+    <row r="251" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="47"/>
+      <c r="E251" s="46"/>
+    </row>
+    <row r="252" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="47"/>
+      <c r="E252" s="46"/>
+    </row>
+    <row r="253" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="47"/>
+      <c r="E253" s="46"/>
+    </row>
+    <row r="254" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="47"/>
+      <c r="E254" s="46"/>
+    </row>
+    <row r="255" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="47"/>
+      <c r="E255" s="46"/>
+    </row>
+    <row r="256" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="47"/>
+      <c r="E256" s="46"/>
+    </row>
+    <row r="257" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="47"/>
+      <c r="E257" s="46"/>
+    </row>
+    <row r="258" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="47"/>
+      <c r="E258" s="46"/>
+    </row>
+    <row r="259" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="47"/>
+      <c r="E259" s="46"/>
+    </row>
+    <row r="260" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="47"/>
+      <c r="E260" s="46"/>
+    </row>
+    <row r="261" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="47"/>
+      <c r="E261" s="46"/>
+    </row>
+    <row r="262" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="47"/>
+      <c r="E262" s="46"/>
+    </row>
+    <row r="263" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="47"/>
+      <c r="E263" s="46"/>
+    </row>
+    <row r="264" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="47"/>
+      <c r="E264" s="46"/>
+    </row>
+    <row r="265" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="47"/>
+      <c r="E265" s="46"/>
+    </row>
+    <row r="266" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="47"/>
+      <c r="E266" s="46"/>
+    </row>
+    <row r="267" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="47"/>
+      <c r="E267" s="46"/>
+    </row>
+    <row r="268" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="47"/>
+      <c r="E268" s="46"/>
+    </row>
+    <row r="269" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="47"/>
+      <c r="E269" s="46"/>
+    </row>
+    <row r="270" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="47"/>
+      <c r="E270" s="46"/>
+    </row>
+    <row r="271" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="47"/>
+      <c r="E271" s="46"/>
+    </row>
+    <row r="272" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="47"/>
+      <c r="E272" s="46"/>
+    </row>
+    <row r="273" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="47"/>
+      <c r="E273" s="46"/>
+    </row>
+    <row r="274" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="47"/>
+      <c r="E274" s="46"/>
+    </row>
+    <row r="275" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="47"/>
+      <c r="E275" s="46"/>
+    </row>
+    <row r="276" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="47"/>
+      <c r="E276" s="46"/>
+    </row>
+    <row r="277" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="47"/>
+      <c r="E277" s="46"/>
+    </row>
+    <row r="278" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="47"/>
+      <c r="E278" s="46"/>
+    </row>
+    <row r="279" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="47"/>
+      <c r="E279" s="46"/>
+    </row>
+    <row r="280" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="47"/>
+      <c r="E280" s="46"/>
+    </row>
+    <row r="281" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="47"/>
+      <c r="E281" s="46"/>
+    </row>
+    <row r="282" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="47"/>
+      <c r="E282" s="46"/>
+    </row>
+    <row r="283" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="47"/>
+      <c r="E283" s="46"/>
+    </row>
+    <row r="284" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="47"/>
+      <c r="E284" s="46"/>
+    </row>
+    <row r="285" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="47"/>
+      <c r="E285" s="46"/>
+    </row>
+    <row r="286" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="47"/>
+      <c r="E286" s="46"/>
+    </row>
+    <row r="287" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="47"/>
+      <c r="E287" s="46"/>
+    </row>
+    <row r="288" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="47"/>
+      <c r="E288" s="46"/>
+    </row>
+    <row r="289" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="47"/>
+      <c r="E289" s="46"/>
+    </row>
+    <row r="290" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="47"/>
+      <c r="E290" s="46"/>
+    </row>
+    <row r="291" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="47"/>
+      <c r="E291" s="46"/>
+    </row>
+    <row r="292" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="47"/>
+      <c r="E292" s="46"/>
+    </row>
+    <row r="293" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="47"/>
+      <c r="E293" s="46"/>
+    </row>
+    <row r="294" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="47"/>
+      <c r="E294" s="46"/>
+    </row>
+    <row r="295" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="47"/>
+      <c r="E295" s="46"/>
+    </row>
+    <row r="296" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="47"/>
+      <c r="E296" s="46"/>
+    </row>
+    <row r="297" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="47"/>
+      <c r="E297" s="46"/>
+    </row>
+    <row r="298" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="47"/>
+      <c r="E298" s="46"/>
+    </row>
+    <row r="299" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="47"/>
+      <c r="E299" s="46"/>
+    </row>
+    <row r="300" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="47"/>
+      <c r="E300" s="46"/>
+    </row>
+    <row r="301" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="47"/>
+      <c r="E301" s="46"/>
+    </row>
+    <row r="302" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="47"/>
+      <c r="E302" s="46"/>
+    </row>
+    <row r="303" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="47"/>
+      <c r="E303" s="46"/>
+    </row>
+    <row r="304" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="47"/>
+      <c r="E304" s="46"/>
+    </row>
+    <row r="305" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="47"/>
+      <c r="E305" s="46"/>
+    </row>
+    <row r="306" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="47"/>
+      <c r="E306" s="46"/>
+    </row>
+    <row r="307" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="47"/>
+      <c r="E307" s="46"/>
+    </row>
+    <row r="308" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="47"/>
+      <c r="E308" s="46"/>
+    </row>
+    <row r="309" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="47"/>
+      <c r="E309" s="46"/>
+    </row>
+    <row r="310" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="47"/>
+      <c r="E310" s="46"/>
+    </row>
+    <row r="311" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="47"/>
+      <c r="E311" s="46"/>
+    </row>
+    <row r="312" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="47"/>
+      <c r="E312" s="46"/>
+    </row>
+    <row r="313" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="47"/>
+      <c r="E313" s="46"/>
+    </row>
+    <row r="314" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="47"/>
+      <c r="E314" s="46"/>
+    </row>
+    <row r="315" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="47"/>
+      <c r="E315" s="46"/>
+    </row>
+    <row r="316" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="47"/>
+      <c r="E316" s="46"/>
+    </row>
+    <row r="317" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="47"/>
+      <c r="E317" s="46"/>
+    </row>
+    <row r="318" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="47"/>
+      <c r="E318" s="46"/>
+    </row>
+    <row r="319" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="47"/>
+      <c r="E319" s="46"/>
+    </row>
+    <row r="320" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="47"/>
+      <c r="E320" s="46"/>
+    </row>
+    <row r="321" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="47"/>
+      <c r="E321" s="46"/>
+    </row>
+    <row r="322" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="47"/>
+      <c r="E322" s="46"/>
+    </row>
+    <row r="323" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="47"/>
+      <c r="E323" s="46"/>
+    </row>
+    <row r="324" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="47"/>
+      <c r="E324" s="46"/>
+    </row>
+    <row r="325" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="47"/>
+      <c r="E325" s="46"/>
+    </row>
+    <row r="326" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="47"/>
+      <c r="E326" s="46"/>
+    </row>
+    <row r="327" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="47"/>
+      <c r="E327" s="46"/>
+    </row>
+    <row r="328" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="47"/>
+      <c r="E328" s="46"/>
+    </row>
+    <row r="329" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="47"/>
+      <c r="E329" s="46"/>
+    </row>
+    <row r="330" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="47"/>
+      <c r="E330" s="46"/>
+    </row>
+    <row r="331" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="47"/>
+      <c r="E331" s="46"/>
+    </row>
+    <row r="332" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="47"/>
+      <c r="E332" s="46"/>
+    </row>
+    <row r="333" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="47"/>
+      <c r="E333" s="46"/>
+    </row>
+    <row r="334" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="47"/>
+      <c r="E334" s="46"/>
+    </row>
+    <row r="335" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="47"/>
+      <c r="E335" s="46"/>
+    </row>
+    <row r="336" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="47"/>
+      <c r="E336" s="46"/>
+    </row>
+    <row r="337" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="47"/>
+      <c r="E337" s="46"/>
+    </row>
+    <row r="338" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="47"/>
+      <c r="E338" s="46"/>
+    </row>
+    <row r="339" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="47"/>
+      <c r="E339" s="46"/>
+    </row>
+    <row r="340" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="47"/>
+      <c r="E340" s="46"/>
+    </row>
+    <row r="341" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="47"/>
+      <c r="E341" s="46"/>
+    </row>
+    <row r="342" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="47"/>
+      <c r="E342" s="46"/>
+    </row>
+    <row r="343" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="47"/>
+      <c r="E343" s="46"/>
+    </row>
+    <row r="344" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="47"/>
+      <c r="E344" s="46"/>
+    </row>
+    <row r="345" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="47"/>
+      <c r="E345" s="46"/>
+    </row>
+    <row r="346" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="47"/>
+      <c r="E346" s="46"/>
+    </row>
+    <row r="347" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="47"/>
+      <c r="E347" s="46"/>
+    </row>
+    <row r="348" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="47"/>
+      <c r="E348" s="46"/>
+    </row>
+    <row r="349" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="47"/>
+      <c r="E349" s="46"/>
+    </row>
+    <row r="350" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="47"/>
+      <c r="E350" s="46"/>
+    </row>
+    <row r="351" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="47"/>
+      <c r="E351" s="46"/>
+    </row>
+    <row r="352" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="47"/>
+      <c r="E352" s="46"/>
+    </row>
+    <row r="353" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="47"/>
+      <c r="E353" s="46"/>
+    </row>
+    <row r="354" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="47"/>
+      <c r="E354" s="46"/>
+    </row>
+    <row r="355" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="47"/>
+      <c r="E355" s="46"/>
+    </row>
+    <row r="356" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="47"/>
+      <c r="E356" s="46"/>
+    </row>
+    <row r="357" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="47"/>
+      <c r="E357" s="46"/>
+    </row>
+    <row r="358" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="47"/>
+      <c r="E358" s="46"/>
+    </row>
+    <row r="359" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="47"/>
+      <c r="E359" s="46"/>
+    </row>
+    <row r="360" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="47"/>
+      <c r="E360" s="46"/>
+    </row>
+    <row r="361" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="47"/>
+      <c r="E361" s="46"/>
+    </row>
+    <row r="362" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="47"/>
+      <c r="E362" s="46"/>
+    </row>
+    <row r="363" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="47"/>
+      <c r="E363" s="46"/>
+    </row>
+    <row r="364" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="47"/>
+      <c r="E364" s="46"/>
+    </row>
+    <row r="365" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="47"/>
+      <c r="E365" s="46"/>
+    </row>
+    <row r="366" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="47"/>
+      <c r="E366" s="46"/>
+    </row>
+    <row r="367" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="47"/>
+      <c r="E367" s="46"/>
+    </row>
+    <row r="368" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="47"/>
+      <c r="E368" s="46"/>
+    </row>
+    <row r="369" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="47"/>
+      <c r="E369" s="46"/>
+    </row>
+    <row r="370" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="47"/>
+      <c r="E370" s="46"/>
+    </row>
+    <row r="371" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="47"/>
+      <c r="E371" s="46"/>
+    </row>
+    <row r="372" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="47"/>
+      <c r="E372" s="46"/>
+    </row>
+    <row r="373" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="47"/>
+      <c r="E373" s="46"/>
+    </row>
+    <row r="374" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="47"/>
+      <c r="E374" s="46"/>
+    </row>
+    <row r="375" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="47"/>
+      <c r="E375" s="46"/>
+    </row>
+    <row r="376" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="47"/>
+      <c r="E376" s="46"/>
+    </row>
+    <row r="377" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="47"/>
+      <c r="E377" s="46"/>
+    </row>
+    <row r="378" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="47"/>
+      <c r="E378" s="46"/>
+    </row>
+    <row r="379" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="47"/>
+      <c r="E379" s="46"/>
+    </row>
+    <row r="380" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="47"/>
+      <c r="E380" s="46"/>
+    </row>
+    <row r="381" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="47"/>
+      <c r="E381" s="46"/>
+    </row>
+    <row r="382" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="47"/>
+      <c r="E382" s="46"/>
+    </row>
+    <row r="383" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="47"/>
+      <c r="E383" s="46"/>
+    </row>
+    <row r="384" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="47"/>
+      <c r="E384" s="46"/>
+    </row>
+    <row r="385" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="47"/>
+      <c r="E385" s="46"/>
+    </row>
+    <row r="386" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="47"/>
+      <c r="E386" s="46"/>
+    </row>
+    <row r="387" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="47"/>
+      <c r="E387" s="46"/>
+    </row>
+    <row r="388" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="47"/>
+      <c r="E388" s="46"/>
+    </row>
+    <row r="389" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="47"/>
+      <c r="E389" s="46"/>
+    </row>
+    <row r="390" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="47"/>
+      <c r="E390" s="46"/>
+    </row>
+    <row r="391" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="47"/>
+      <c r="E391" s="46"/>
+    </row>
+    <row r="392" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="47"/>
+      <c r="E392" s="46"/>
+    </row>
+    <row r="393" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="47"/>
+      <c r="E393" s="46"/>
+    </row>
+    <row r="394" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="47"/>
+      <c r="E394" s="46"/>
+    </row>
+    <row r="395" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="47"/>
+      <c r="E395" s="46"/>
+    </row>
+    <row r="396" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="47"/>
+      <c r="E396" s="46"/>
+    </row>
+    <row r="397" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="47"/>
+      <c r="E397" s="46"/>
+    </row>
+    <row r="398" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="47"/>
+      <c r="E398" s="46"/>
+    </row>
+    <row r="399" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="47"/>
+      <c r="E399" s="46"/>
+    </row>
+    <row r="400" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="47"/>
+      <c r="E400" s="46"/>
+    </row>
+    <row r="401" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="47"/>
+      <c r="E401" s="46"/>
+    </row>
+    <row r="402" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="47"/>
+      <c r="E402" s="46"/>
+    </row>
+    <row r="403" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="47"/>
+      <c r="E403" s="46"/>
+    </row>
+    <row r="404" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="47"/>
+      <c r="E404" s="46"/>
+    </row>
+    <row r="405" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="47"/>
+      <c r="E405" s="46"/>
+    </row>
+    <row r="406" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="47"/>
+      <c r="E406" s="46"/>
+    </row>
+    <row r="407" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="47"/>
+      <c r="E407" s="46"/>
+    </row>
+    <row r="408" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="47"/>
+      <c r="E408" s="46"/>
+    </row>
+    <row r="409" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="47"/>
+      <c r="E409" s="46"/>
+    </row>
+    <row r="410" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="47"/>
+      <c r="E410" s="46"/>
+    </row>
+    <row r="411" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="47"/>
+      <c r="E411" s="46"/>
+    </row>
+    <row r="412" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="47"/>
+      <c r="E412" s="46"/>
+    </row>
+    <row r="413" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="47"/>
+      <c r="E413" s="46"/>
+    </row>
+    <row r="414" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="47"/>
+      <c r="E414" s="46"/>
+    </row>
+    <row r="415" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="47"/>
+      <c r="E415" s="46"/>
+    </row>
+    <row r="416" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="47"/>
+      <c r="E416" s="46"/>
+    </row>
+    <row r="417" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="47"/>
+      <c r="E417" s="46"/>
+    </row>
+    <row r="418" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="47"/>
+      <c r="E418" s="46"/>
+    </row>
+    <row r="419" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="47"/>
+      <c r="E419" s="46"/>
+    </row>
+    <row r="420" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="47"/>
+      <c r="E420" s="46"/>
+    </row>
+    <row r="421" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="47"/>
+      <c r="E421" s="46"/>
+    </row>
+    <row r="422" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="47"/>
+      <c r="E422" s="46"/>
+    </row>
+    <row r="423" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="47"/>
+      <c r="E423" s="46"/>
+    </row>
+    <row r="424" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="47"/>
+      <c r="E424" s="46"/>
+    </row>
+    <row r="425" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="47"/>
+      <c r="E425" s="46"/>
+    </row>
+    <row r="426" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="47"/>
+      <c r="E426" s="46"/>
+    </row>
+    <row r="427" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="47"/>
+      <c r="E427" s="46"/>
+    </row>
+    <row r="428" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="47"/>
+      <c r="E428" s="46"/>
+    </row>
+    <row r="429" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="47"/>
+      <c r="E429" s="46"/>
+    </row>
+    <row r="430" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="47"/>
+      <c r="E430" s="46"/>
+    </row>
+    <row r="431" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="47"/>
+      <c r="E431" s="46"/>
+    </row>
+    <row r="432" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="47"/>
+      <c r="E432" s="46"/>
+    </row>
+    <row r="433" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="47"/>
+      <c r="E433" s="46"/>
+    </row>
+    <row r="434" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="47"/>
+      <c r="E434" s="46"/>
+    </row>
+    <row r="435" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="47"/>
+      <c r="E435" s="46"/>
+    </row>
+    <row r="436" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="47"/>
+      <c r="E436" s="46"/>
+    </row>
+    <row r="437" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="47"/>
+      <c r="E437" s="46"/>
+    </row>
+    <row r="438" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="47"/>
+      <c r="E438" s="46"/>
+    </row>
+    <row r="439" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="47"/>
+      <c r="E439" s="46"/>
+    </row>
+    <row r="440" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="47"/>
+      <c r="E440" s="46"/>
+    </row>
+    <row r="441" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="47"/>
+      <c r="E441" s="46"/>
+    </row>
+    <row r="442" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="47"/>
+      <c r="E442" s="46"/>
+    </row>
+    <row r="443" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="47"/>
+      <c r="E443" s="46"/>
+    </row>
+    <row r="444" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="47"/>
+      <c r="E444" s="46"/>
+    </row>
+    <row r="445" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="47"/>
+      <c r="E445" s="46"/>
+    </row>
+    <row r="446" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="47"/>
+      <c r="E446" s="46"/>
+    </row>
+    <row r="447" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="47"/>
+      <c r="E447" s="46"/>
+    </row>
+    <row r="448" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="47"/>
+      <c r="E448" s="46"/>
+    </row>
+    <row r="449" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="47"/>
+      <c r="E449" s="46"/>
+    </row>
+    <row r="450" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="47"/>
+      <c r="E450" s="46"/>
+    </row>
+    <row r="451" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="47"/>
+      <c r="E451" s="46"/>
+    </row>
+    <row r="452" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="47"/>
+      <c r="E452" s="46"/>
+    </row>
+    <row r="453" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="47"/>
+      <c r="E453" s="46"/>
+    </row>
+    <row r="454" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="47"/>
+      <c r="E454" s="46"/>
+    </row>
+    <row r="455" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="47"/>
+      <c r="E455" s="46"/>
+    </row>
+    <row r="456" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="47"/>
+      <c r="E456" s="46"/>
+    </row>
+    <row r="457" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="47"/>
+      <c r="E457" s="46"/>
+    </row>
+    <row r="458" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="47"/>
+      <c r="E458" s="46"/>
+    </row>
+    <row r="459" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="47"/>
+      <c r="E459" s="46"/>
+    </row>
+    <row r="460" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="47"/>
+      <c r="E460" s="46"/>
+    </row>
+    <row r="461" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="47"/>
+      <c r="E461" s="46"/>
+    </row>
+    <row r="462" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="47"/>
+      <c r="E462" s="46"/>
+    </row>
+    <row r="463" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="47"/>
+      <c r="E463" s="46"/>
+    </row>
+    <row r="464" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="47"/>
+      <c r="E464" s="46"/>
+    </row>
+    <row r="465" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="47"/>
+      <c r="E465" s="46"/>
+    </row>
+    <row r="466" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="47"/>
+      <c r="E466" s="46"/>
+    </row>
+    <row r="467" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="47"/>
+      <c r="E467" s="46"/>
+    </row>
+    <row r="468" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="47"/>
+      <c r="E468" s="46"/>
+    </row>
+    <row r="469" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="47"/>
+      <c r="E469" s="46"/>
+    </row>
+    <row r="470" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="47"/>
+      <c r="E470" s="46"/>
+    </row>
+    <row r="471" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="47"/>
+      <c r="E471" s="46"/>
+    </row>
+    <row r="472" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="47"/>
+      <c r="E472" s="46"/>
+    </row>
+    <row r="473" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="47"/>
+      <c r="E473" s="46"/>
+    </row>
+    <row r="474" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="47"/>
+      <c r="E474" s="46"/>
+    </row>
+    <row r="475" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="47"/>
+      <c r="E475" s="46"/>
+    </row>
+    <row r="476" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="47"/>
+      <c r="E476" s="46"/>
+    </row>
+    <row r="477" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="47"/>
+      <c r="E477" s="46"/>
+    </row>
+    <row r="478" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="47"/>
+      <c r="E478" s="46"/>
+    </row>
+    <row r="479" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="47"/>
+      <c r="E479" s="46"/>
+    </row>
+    <row r="480" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="47"/>
+      <c r="E480" s="46"/>
+    </row>
+    <row r="481" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="47"/>
+      <c r="E481" s="46"/>
+    </row>
+    <row r="482" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="47"/>
+      <c r="E482" s="46"/>
+    </row>
+    <row r="483" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="47"/>
+      <c r="E483" s="46"/>
+    </row>
+    <row r="484" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="47"/>
+      <c r="E484" s="46"/>
+    </row>
+    <row r="485" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="47"/>
+      <c r="E485" s="46"/>
+    </row>
+    <row r="486" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="47"/>
+      <c r="E486" s="46"/>
+    </row>
+    <row r="487" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="47"/>
+      <c r="E487" s="46"/>
+    </row>
+    <row r="488" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="47"/>
+      <c r="E488" s="46"/>
+    </row>
+    <row r="489" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="47"/>
+      <c r="E489" s="46"/>
+    </row>
+    <row r="490" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="47"/>
+      <c r="E490" s="46"/>
+    </row>
+    <row r="491" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="47"/>
+      <c r="E491" s="46"/>
+    </row>
+    <row r="492" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="47"/>
+      <c r="E492" s="46"/>
+    </row>
+    <row r="493" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="47"/>
+      <c r="E493" s="46"/>
+    </row>
+    <row r="494" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="47"/>
+      <c r="E494" s="46"/>
+    </row>
+    <row r="495" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="47"/>
+      <c r="E495" s="46"/>
+    </row>
+    <row r="496" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="47"/>
+      <c r="E496" s="46"/>
+    </row>
+    <row r="497" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="47"/>
+      <c r="E497" s="46"/>
+    </row>
+    <row r="498" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="47"/>
+      <c r="E498" s="46"/>
+    </row>
+    <row r="499" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="47"/>
+      <c r="E499" s="46"/>
+    </row>
+    <row r="500" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="47"/>
+      <c r="E500" s="46"/>
+    </row>
+    <row r="501" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="47"/>
+      <c r="E501" s="46"/>
+    </row>
+    <row r="502" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="47"/>
+      <c r="E502" s="46"/>
+    </row>
+    <row r="503" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="47"/>
+      <c r="E503" s="46"/>
+    </row>
+    <row r="504" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="47"/>
+      <c r="E504" s="46"/>
+    </row>
+    <row r="505" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="47"/>
+      <c r="E505" s="46"/>
+    </row>
+    <row r="506" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="47"/>
+      <c r="E506" s="46"/>
+    </row>
+    <row r="507" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="47"/>
+      <c r="E507" s="46"/>
+    </row>
+    <row r="508" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="47"/>
+      <c r="E508" s="46"/>
+    </row>
+    <row r="509" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="47"/>
+      <c r="E509" s="46"/>
+    </row>
+    <row r="510" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="47"/>
+      <c r="E510" s="46"/>
+    </row>
+    <row r="511" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="47"/>
+      <c r="E511" s="46"/>
+    </row>
+    <row r="512" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="47"/>
+      <c r="E512" s="46"/>
+    </row>
+    <row r="513" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="47"/>
+      <c r="E513" s="46"/>
+    </row>
+    <row r="514" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="47"/>
+      <c r="E514" s="46"/>
+    </row>
+    <row r="515" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="47"/>
+      <c r="E515" s="46"/>
+    </row>
+    <row r="516" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="47"/>
+      <c r="E516" s="46"/>
+    </row>
+    <row r="517" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="47"/>
+      <c r="E517" s="46"/>
+    </row>
+    <row r="518" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="47"/>
+      <c r="E518" s="46"/>
+    </row>
+    <row r="519" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="47"/>
+      <c r="E519" s="46"/>
+    </row>
+    <row r="520" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="47"/>
+      <c r="E520" s="46"/>
+    </row>
+    <row r="521" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="47"/>
+      <c r="E521" s="46"/>
+    </row>
+    <row r="522" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="47"/>
+      <c r="E522" s="46"/>
+    </row>
+    <row r="523" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="47"/>
+      <c r="E523" s="46"/>
+    </row>
+    <row r="524" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="47"/>
+      <c r="E524" s="46"/>
+    </row>
+    <row r="525" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="47"/>
+      <c r="E525" s="46"/>
+    </row>
+    <row r="526" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="47"/>
+      <c r="E526" s="46"/>
+    </row>
+    <row r="527" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="47"/>
+      <c r="E527" s="46"/>
+    </row>
+    <row r="528" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="47"/>
+      <c r="E528" s="46"/>
+    </row>
+    <row r="529" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="47"/>
+      <c r="E529" s="46"/>
+    </row>
+    <row r="530" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="47"/>
+      <c r="E530" s="46"/>
+    </row>
+    <row r="531" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="47"/>
+      <c r="E531" s="46"/>
+    </row>
+    <row r="532" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="47"/>
+      <c r="E532" s="46"/>
+    </row>
+    <row r="533" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="47"/>
+      <c r="E533" s="46"/>
+    </row>
+    <row r="534" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="47"/>
+      <c r="E534" s="46"/>
+    </row>
+    <row r="535" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="47"/>
+      <c r="E535" s="46"/>
+    </row>
+    <row r="536" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="47"/>
+      <c r="E536" s="46"/>
+    </row>
+    <row r="537" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="47"/>
+      <c r="E537" s="46"/>
+    </row>
+    <row r="538" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="47"/>
+      <c r="E538" s="46"/>
+    </row>
+    <row r="539" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="47"/>
+      <c r="E539" s="46"/>
+    </row>
+    <row r="540" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="47"/>
+      <c r="E540" s="46"/>
+    </row>
+    <row r="541" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="47"/>
+      <c r="E541" s="46"/>
+    </row>
+    <row r="542" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="47"/>
+      <c r="E542" s="46"/>
+    </row>
+    <row r="543" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="47"/>
+      <c r="E543" s="46"/>
+    </row>
+    <row r="544" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="47"/>
+      <c r="E544" s="46"/>
+    </row>
+    <row r="545" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="47"/>
+      <c r="E545" s="46"/>
+    </row>
+    <row r="546" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="47"/>
+      <c r="E546" s="46"/>
+    </row>
+    <row r="547" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="47"/>
+      <c r="E547" s="46"/>
+    </row>
+    <row r="548" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="47"/>
+      <c r="E548" s="46"/>
+    </row>
+    <row r="549" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="47"/>
+      <c r="E549" s="46"/>
+    </row>
+    <row r="550" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="47"/>
+      <c r="E550" s="46"/>
+    </row>
+    <row r="551" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="47"/>
+      <c r="E551" s="46"/>
+    </row>
+    <row r="552" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="47"/>
+      <c r="E552" s="46"/>
+    </row>
+    <row r="553" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="47"/>
+      <c r="E553" s="46"/>
+    </row>
+    <row r="554" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="47"/>
+      <c r="E554" s="46"/>
+    </row>
+    <row r="555" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="47"/>
+      <c r="E555" s="46"/>
+    </row>
+    <row r="556" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="47"/>
+      <c r="E556" s="46"/>
+    </row>
+    <row r="557" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="47"/>
+      <c r="E557" s="46"/>
+    </row>
+    <row r="558" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="47"/>
+      <c r="E558" s="46"/>
+    </row>
+    <row r="559" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="47"/>
+      <c r="E559" s="46"/>
+    </row>
+    <row r="560" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="47"/>
+      <c r="E560" s="46"/>
+    </row>
+    <row r="561" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="47"/>
+      <c r="E561" s="46"/>
+    </row>
+    <row r="562" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="47"/>
+      <c r="E562" s="46"/>
+    </row>
+    <row r="563" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="47"/>
+      <c r="E563" s="46"/>
+    </row>
+    <row r="564" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="47"/>
+      <c r="E564" s="46"/>
+    </row>
+    <row r="565" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="47"/>
+      <c r="E565" s="46"/>
+    </row>
+    <row r="566" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="47"/>
+      <c r="E566" s="46"/>
+    </row>
+    <row r="567" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="47"/>
+      <c r="E567" s="46"/>
+    </row>
+    <row r="568" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="47"/>
+      <c r="E568" s="46"/>
+    </row>
+    <row r="569" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="47"/>
+      <c r="E569" s="46"/>
+    </row>
+    <row r="570" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="47"/>
+      <c r="E570" s="46"/>
+    </row>
+    <row r="571" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="47"/>
+      <c r="E571" s="46"/>
+    </row>
+    <row r="572" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="47"/>
+      <c r="E572" s="46"/>
+    </row>
+    <row r="573" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="47"/>
+      <c r="E573" s="46"/>
+    </row>
+    <row r="574" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="47"/>
+      <c r="E574" s="46"/>
+    </row>
+    <row r="575" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="47"/>
+      <c r="E575" s="46"/>
+    </row>
+    <row r="576" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="47"/>
+      <c r="E576" s="46"/>
+    </row>
+    <row r="577" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="47"/>
+      <c r="E577" s="46"/>
+    </row>
+    <row r="578" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="47"/>
+      <c r="E578" s="46"/>
+    </row>
+    <row r="579" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="47"/>
+      <c r="E579" s="46"/>
+    </row>
+    <row r="580" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="47"/>
+      <c r="E580" s="46"/>
+    </row>
+    <row r="581" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="47"/>
+      <c r="E581" s="46"/>
+    </row>
+    <row r="582" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="47"/>
+      <c r="E582" s="46"/>
+    </row>
+    <row r="583" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="47"/>
+      <c r="E583" s="46"/>
+    </row>
+    <row r="584" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="47"/>
+      <c r="E584" s="46"/>
+    </row>
+    <row r="585" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="47"/>
+      <c r="E585" s="46"/>
+    </row>
+    <row r="586" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="47"/>
+      <c r="E586" s="46"/>
+    </row>
+    <row r="587" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="47"/>
+      <c r="E587" s="46"/>
+    </row>
+    <row r="588" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="47"/>
+      <c r="E588" s="46"/>
+    </row>
+    <row r="589" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="47"/>
+      <c r="E589" s="46"/>
+    </row>
+    <row r="590" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="47"/>
+      <c r="E590" s="46"/>
+    </row>
+    <row r="591" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="47"/>
+      <c r="E591" s="46"/>
+    </row>
+    <row r="592" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="47"/>
+      <c r="E592" s="46"/>
+    </row>
+    <row r="593" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="47"/>
+      <c r="E593" s="46"/>
+    </row>
+    <row r="594" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="47"/>
+      <c r="E594" s="46"/>
+    </row>
+    <row r="595" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="47"/>
+      <c r="E595" s="46"/>
+    </row>
+    <row r="596" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="47"/>
+      <c r="E596" s="46"/>
+    </row>
+    <row r="597" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="47"/>
+      <c r="E597" s="46"/>
+    </row>
+    <row r="598" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="47"/>
+      <c r="E598" s="46"/>
+    </row>
+    <row r="599" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="47"/>
+      <c r="E599" s="46"/>
+    </row>
+    <row r="600" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="47"/>
+      <c r="E600" s="46"/>
+    </row>
+    <row r="601" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="47"/>
+      <c r="E601" s="46"/>
+    </row>
+    <row r="602" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="47"/>
+      <c r="E602" s="46"/>
+    </row>
+    <row r="603" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="47"/>
+      <c r="E603" s="46"/>
+    </row>
+    <row r="604" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="47"/>
+      <c r="E604" s="46"/>
+    </row>
+    <row r="605" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="47"/>
+      <c r="E605" s="46"/>
+    </row>
+    <row r="606" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="47"/>
+      <c r="E606" s="46"/>
+    </row>
+    <row r="607" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="47"/>
+      <c r="E607" s="46"/>
+    </row>
+    <row r="608" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="47"/>
+      <c r="E608" s="46"/>
+    </row>
+    <row r="609" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="47"/>
+      <c r="E609" s="46"/>
+    </row>
+    <row r="610" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="47"/>
+      <c r="E610" s="46"/>
+    </row>
+    <row r="611" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="47"/>
+      <c r="E611" s="46"/>
+    </row>
+    <row r="612" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="47"/>
+      <c r="E612" s="46"/>
+    </row>
+    <row r="613" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="47"/>
+      <c r="E613" s="46"/>
+    </row>
+    <row r="614" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="47"/>
+      <c r="E614" s="46"/>
+    </row>
+    <row r="615" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="47"/>
+      <c r="E615" s="46"/>
+    </row>
+    <row r="616" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="47"/>
+      <c r="E616" s="46"/>
+    </row>
+    <row r="617" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="47"/>
+      <c r="E617" s="46"/>
+    </row>
+    <row r="618" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="47"/>
+      <c r="E618" s="46"/>
+    </row>
+    <row r="619" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="47"/>
+      <c r="E619" s="46"/>
+    </row>
+    <row r="620" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="47"/>
+      <c r="E620" s="46"/>
+    </row>
+    <row r="621" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="47"/>
+      <c r="E621" s="46"/>
+    </row>
+    <row r="622" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="47"/>
+      <c r="E622" s="46"/>
+    </row>
+    <row r="623" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="47"/>
+      <c r="E623" s="46"/>
+    </row>
+    <row r="624" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="47"/>
+      <c r="E624" s="46"/>
+    </row>
+    <row r="625" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="47"/>
+      <c r="E625" s="46"/>
+    </row>
+    <row r="626" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="47"/>
+      <c r="E626" s="46"/>
+    </row>
+    <row r="627" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="47"/>
+      <c r="E627" s="46"/>
+    </row>
+    <row r="628" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="47"/>
+      <c r="E628" s="46"/>
+    </row>
+    <row r="629" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="47"/>
+      <c r="E629" s="46"/>
+    </row>
+    <row r="630" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="47"/>
+      <c r="E630" s="46"/>
+    </row>
+    <row r="631" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="47"/>
+      <c r="E631" s="46"/>
+    </row>
+    <row r="632" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="47"/>
+      <c r="E632" s="46"/>
+    </row>
+    <row r="633" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="47"/>
+      <c r="E633" s="46"/>
+    </row>
+    <row r="634" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="47"/>
+      <c r="E634" s="46"/>
+    </row>
+    <row r="635" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="47"/>
+      <c r="E635" s="46"/>
+    </row>
+    <row r="636" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="47"/>
+      <c r="E636" s="46"/>
+    </row>
+    <row r="637" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="47"/>
+      <c r="E637" s="46"/>
+    </row>
+    <row r="638" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="47"/>
+      <c r="E638" s="46"/>
+    </row>
+    <row r="639" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="47"/>
+      <c r="E639" s="46"/>
+    </row>
+    <row r="640" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="47"/>
+      <c r="E640" s="46"/>
+    </row>
+    <row r="641" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="47"/>
+      <c r="E641" s="46"/>
+    </row>
+    <row r="642" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="47"/>
+      <c r="E642" s="46"/>
+    </row>
+    <row r="643" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="47"/>
+      <c r="E643" s="46"/>
+    </row>
+    <row r="644" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="47"/>
+      <c r="E644" s="46"/>
+    </row>
+    <row r="645" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="47"/>
+      <c r="E645" s="46"/>
+    </row>
+    <row r="646" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="47"/>
+      <c r="E646" s="46"/>
+    </row>
+    <row r="647" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="47"/>
+      <c r="E647" s="46"/>
+    </row>
+    <row r="648" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="47"/>
+      <c r="E648" s="46"/>
+    </row>
+    <row r="649" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="47"/>
+      <c r="E649" s="46"/>
+    </row>
+    <row r="650" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="47"/>
+      <c r="E650" s="46"/>
+    </row>
+    <row r="651" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="47"/>
+      <c r="E651" s="46"/>
+    </row>
+    <row r="652" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="47"/>
+      <c r="E652" s="46"/>
+    </row>
+    <row r="653" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="47"/>
+      <c r="E653" s="46"/>
+    </row>
+    <row r="654" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="47"/>
+      <c r="E654" s="46"/>
+    </row>
+    <row r="655" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="47"/>
+      <c r="E655" s="46"/>
+    </row>
+    <row r="656" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="47"/>
+      <c r="E656" s="46"/>
+    </row>
+    <row r="657" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="47"/>
+      <c r="E657" s="46"/>
+    </row>
+    <row r="658" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="47"/>
+      <c r="E658" s="46"/>
+    </row>
+    <row r="659" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="47"/>
+      <c r="E659" s="46"/>
+    </row>
+    <row r="660" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="47"/>
+      <c r="E660" s="46"/>
+    </row>
+    <row r="661" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="47"/>
+      <c r="E661" s="46"/>
+    </row>
+    <row r="662" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="47"/>
+      <c r="E662" s="46"/>
+    </row>
+    <row r="663" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="47"/>
+      <c r="E663" s="46"/>
+    </row>
+    <row r="664" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="47"/>
+      <c r="E664" s="46"/>
+    </row>
+    <row r="665" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="47"/>
+      <c r="E665" s="46"/>
+    </row>
+    <row r="666" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="47"/>
+      <c r="E666" s="46"/>
+    </row>
+    <row r="667" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="47"/>
+      <c r="E667" s="46"/>
+    </row>
+    <row r="668" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="47"/>
+      <c r="E668" s="46"/>
+    </row>
+    <row r="669" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="47"/>
+      <c r="E669" s="46"/>
+    </row>
+    <row r="670" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="47"/>
+      <c r="E670" s="46"/>
+    </row>
+    <row r="671" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="47"/>
+      <c r="E671" s="46"/>
+    </row>
+    <row r="672" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="47"/>
+      <c r="E672" s="46"/>
+    </row>
+    <row r="673" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="47"/>
+      <c r="E673" s="46"/>
+    </row>
+    <row r="674" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="47"/>
+      <c r="E674" s="46"/>
+    </row>
+    <row r="675" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="47"/>
+      <c r="E675" s="46"/>
+    </row>
+    <row r="676" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="47"/>
+      <c r="E676" s="46"/>
+    </row>
+    <row r="677" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="47"/>
+      <c r="E677" s="46"/>
+    </row>
+    <row r="678" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="47"/>
+      <c r="E678" s="46"/>
+    </row>
+    <row r="679" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="47"/>
+      <c r="E679" s="46"/>
+    </row>
+    <row r="680" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="47"/>
+      <c r="E680" s="46"/>
+    </row>
+    <row r="681" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="47"/>
+      <c r="E681" s="46"/>
+    </row>
+    <row r="682" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="47"/>
+      <c r="E682" s="46"/>
+    </row>
+    <row r="683" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="47"/>
+      <c r="E683" s="46"/>
+    </row>
+    <row r="684" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="47"/>
+      <c r="E684" s="46"/>
+    </row>
+    <row r="685" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="47"/>
+      <c r="E685" s="46"/>
+    </row>
+    <row r="686" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="47"/>
+      <c r="E686" s="46"/>
+    </row>
+    <row r="687" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="47"/>
+      <c r="E687" s="46"/>
+    </row>
+    <row r="688" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="47"/>
+      <c r="E688" s="46"/>
+    </row>
+    <row r="689" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="47"/>
+      <c r="E689" s="46"/>
+    </row>
+    <row r="690" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="47"/>
+      <c r="E690" s="46"/>
+    </row>
+    <row r="691" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="47"/>
+      <c r="E691" s="46"/>
+    </row>
+    <row r="692" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="47"/>
+      <c r="E692" s="46"/>
+    </row>
+    <row r="693" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="47"/>
+      <c r="E693" s="46"/>
+    </row>
+    <row r="694" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="47"/>
+      <c r="E694" s="46"/>
+    </row>
+    <row r="695" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="47"/>
+      <c r="E695" s="46"/>
+    </row>
+    <row r="696" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="47"/>
+      <c r="E696" s="46"/>
+    </row>
+    <row r="697" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="47"/>
+      <c r="E697" s="46"/>
+    </row>
+    <row r="698" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="47"/>
+      <c r="E698" s="46"/>
+    </row>
+    <row r="699" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="47"/>
+      <c r="E699" s="46"/>
+    </row>
+    <row r="700" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="47"/>
+      <c r="E700" s="46"/>
+    </row>
+    <row r="701" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="47"/>
+      <c r="E701" s="46"/>
+    </row>
+    <row r="702" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="47"/>
+      <c r="E702" s="46"/>
+    </row>
+    <row r="703" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="47"/>
+      <c r="E703" s="46"/>
+    </row>
+    <row r="704" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="47"/>
+      <c r="E704" s="46"/>
+    </row>
+    <row r="705" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="47"/>
+      <c r="E705" s="46"/>
+    </row>
+    <row r="706" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="47"/>
+      <c r="E706" s="46"/>
+    </row>
+    <row r="707" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="47"/>
+      <c r="E707" s="46"/>
+    </row>
+    <row r="708" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="47"/>
+      <c r="E708" s="46"/>
+    </row>
+    <row r="709" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="47"/>
+      <c r="E709" s="46"/>
+    </row>
+    <row r="710" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="47"/>
+      <c r="E710" s="46"/>
+    </row>
+    <row r="711" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="47"/>
+      <c r="E711" s="46"/>
+    </row>
+    <row r="712" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="47"/>
+      <c r="E712" s="46"/>
+    </row>
+    <row r="713" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="47"/>
+      <c r="E713" s="46"/>
+    </row>
+    <row r="714" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="47"/>
+      <c r="E714" s="46"/>
+    </row>
+    <row r="715" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="47"/>
+      <c r="E715" s="46"/>
+    </row>
+    <row r="716" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="47"/>
+      <c r="E716" s="46"/>
+    </row>
+    <row r="717" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="47"/>
+      <c r="E717" s="46"/>
+    </row>
+    <row r="718" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="47"/>
+      <c r="E718" s="46"/>
+    </row>
+    <row r="719" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="47"/>
+      <c r="E719" s="46"/>
+    </row>
+    <row r="720" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="47"/>
+      <c r="E720" s="46"/>
+    </row>
+    <row r="721" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="47"/>
+      <c r="E721" s="46"/>
+    </row>
+    <row r="722" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="47"/>
+      <c r="E722" s="46"/>
+    </row>
+    <row r="723" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="47"/>
+      <c r="E723" s="46"/>
+    </row>
+    <row r="724" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="47"/>
+      <c r="E724" s="46"/>
+    </row>
+    <row r="725" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="47"/>
+      <c r="E725" s="46"/>
+    </row>
+    <row r="726" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="47"/>
+      <c r="E726" s="46"/>
+    </row>
+    <row r="727" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="47"/>
+      <c r="E727" s="46"/>
+    </row>
+    <row r="728" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="47"/>
+      <c r="E728" s="46"/>
+    </row>
+    <row r="729" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="47"/>
+      <c r="E729" s="46"/>
+    </row>
+    <row r="730" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="47"/>
+      <c r="E730" s="46"/>
+    </row>
+    <row r="731" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="47"/>
+      <c r="E731" s="46"/>
+    </row>
+    <row r="732" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="47"/>
+      <c r="E732" s="46"/>
+    </row>
+    <row r="733" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="47"/>
+      <c r="E733" s="46"/>
+    </row>
+    <row r="734" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="47"/>
+      <c r="E734" s="46"/>
+    </row>
+    <row r="735" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="47"/>
+      <c r="E735" s="46"/>
+    </row>
+    <row r="736" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="47"/>
+      <c r="E736" s="46"/>
+    </row>
+    <row r="737" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="47"/>
+      <c r="E737" s="46"/>
+    </row>
+    <row r="738" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="47"/>
+      <c r="E738" s="46"/>
+    </row>
+    <row r="739" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="47"/>
+      <c r="E739" s="46"/>
+    </row>
+    <row r="740" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="47"/>
+      <c r="E740" s="46"/>
+    </row>
+    <row r="741" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="47"/>
+      <c r="E741" s="46"/>
+    </row>
+    <row r="742" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="47"/>
+      <c r="E742" s="46"/>
+    </row>
+    <row r="743" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="47"/>
+      <c r="E743" s="46"/>
+    </row>
+    <row r="744" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="47"/>
+      <c r="E744" s="46"/>
+    </row>
+    <row r="745" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="47"/>
+      <c r="E745" s="46"/>
+    </row>
+    <row r="746" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="47"/>
+      <c r="E746" s="46"/>
+    </row>
+    <row r="747" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="47"/>
+      <c r="E747" s="46"/>
+    </row>
+    <row r="748" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="47"/>
+      <c r="E748" s="46"/>
+    </row>
+    <row r="749" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="47"/>
+      <c r="E749" s="46"/>
+    </row>
+    <row r="750" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="47"/>
+      <c r="E750" s="46"/>
+    </row>
+    <row r="751" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="47"/>
+      <c r="E751" s="46"/>
+    </row>
+    <row r="752" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="47"/>
+      <c r="E752" s="46"/>
+    </row>
+    <row r="753" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="47"/>
+      <c r="E753" s="46"/>
+    </row>
+    <row r="754" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="47"/>
+      <c r="E754" s="46"/>
+    </row>
+    <row r="755" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="47"/>
+      <c r="E755" s="46"/>
+    </row>
+    <row r="756" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="47"/>
+      <c r="E756" s="46"/>
+    </row>
+    <row r="757" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="47"/>
+      <c r="E757" s="46"/>
+    </row>
+    <row r="758" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="47"/>
+      <c r="E758" s="46"/>
+    </row>
+    <row r="759" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="47"/>
+      <c r="E759" s="46"/>
+    </row>
+    <row r="760" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="47"/>
+      <c r="E760" s="46"/>
+    </row>
+    <row r="761" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="47"/>
+      <c r="E761" s="46"/>
+    </row>
+    <row r="762" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="47"/>
+      <c r="E762" s="46"/>
+    </row>
+    <row r="763" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="47"/>
+      <c r="E763" s="46"/>
+    </row>
+    <row r="764" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="47"/>
+      <c r="E764" s="46"/>
+    </row>
+    <row r="765" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="47"/>
+      <c r="E765" s="46"/>
+    </row>
+    <row r="766" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="47"/>
+      <c r="E766" s="46"/>
+    </row>
+    <row r="767" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="47"/>
+      <c r="E767" s="46"/>
+    </row>
+    <row r="768" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="47"/>
+      <c r="E768" s="46"/>
+    </row>
+    <row r="769" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="47"/>
+      <c r="E769" s="46"/>
+    </row>
+    <row r="770" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="47"/>
+      <c r="E770" s="46"/>
+    </row>
+    <row r="771" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="47"/>
+      <c r="E771" s="46"/>
+    </row>
+    <row r="772" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="47"/>
+      <c r="E772" s="46"/>
+    </row>
+    <row r="773" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="47"/>
+      <c r="E773" s="46"/>
+    </row>
+    <row r="774" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="47"/>
+      <c r="E774" s="46"/>
+    </row>
+    <row r="775" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="47"/>
+      <c r="E775" s="46"/>
+    </row>
+    <row r="776" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="47"/>
+      <c r="E776" s="46"/>
+    </row>
+    <row r="777" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="47"/>
+      <c r="E777" s="46"/>
+    </row>
+    <row r="778" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="47"/>
+      <c r="E778" s="46"/>
+    </row>
+    <row r="779" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="47"/>
+      <c r="E779" s="46"/>
+    </row>
+    <row r="780" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="47"/>
+      <c r="E780" s="46"/>
+    </row>
+    <row r="781" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="47"/>
+      <c r="E781" s="46"/>
+    </row>
+    <row r="782" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="47"/>
+      <c r="E782" s="46"/>
+    </row>
+    <row r="783" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="47"/>
+      <c r="E783" s="46"/>
+    </row>
+    <row r="784" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="47"/>
+      <c r="E784" s="46"/>
+    </row>
+    <row r="785" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="47"/>
+      <c r="E785" s="46"/>
+    </row>
+    <row r="786" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="47"/>
+      <c r="E786" s="46"/>
+    </row>
+    <row r="787" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="47"/>
+      <c r="E787" s="46"/>
+    </row>
+    <row r="788" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="47"/>
+      <c r="E788" s="46"/>
+    </row>
+    <row r="789" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="47"/>
+      <c r="E789" s="46"/>
+    </row>
+    <row r="790" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="47"/>
+      <c r="E790" s="46"/>
+    </row>
+    <row r="791" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="47"/>
+      <c r="E791" s="46"/>
+    </row>
+    <row r="792" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="47"/>
+      <c r="E792" s="46"/>
+    </row>
+    <row r="793" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="47"/>
+      <c r="E793" s="46"/>
+    </row>
+    <row r="794" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="47"/>
+      <c r="E794" s="46"/>
+    </row>
+    <row r="795" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="47"/>
+      <c r="E795" s="46"/>
+    </row>
+    <row r="796" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="47"/>
+      <c r="E796" s="46"/>
+    </row>
+    <row r="797" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="47"/>
+      <c r="E797" s="46"/>
+    </row>
+    <row r="798" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="47"/>
+      <c r="E798" s="46"/>
+    </row>
+    <row r="799" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="47"/>
+      <c r="E799" s="46"/>
+    </row>
+    <row r="800" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="47"/>
+      <c r="E800" s="46"/>
+    </row>
+    <row r="801" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="47"/>
+      <c r="E801" s="46"/>
+    </row>
+    <row r="802" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="47"/>
+      <c r="E802" s="46"/>
+    </row>
+    <row r="803" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="47"/>
+      <c r="E803" s="46"/>
+    </row>
+    <row r="804" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="47"/>
+      <c r="E804" s="46"/>
+    </row>
+    <row r="805" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="47"/>
+      <c r="E805" s="46"/>
+    </row>
+    <row r="806" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="47"/>
+      <c r="E806" s="46"/>
+    </row>
+    <row r="807" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="47"/>
+      <c r="E807" s="46"/>
+    </row>
+    <row r="808" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="47"/>
+      <c r="E808" s="46"/>
+    </row>
+    <row r="809" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="47"/>
+      <c r="E809" s="46"/>
+    </row>
+    <row r="810" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="47"/>
+      <c r="E810" s="46"/>
+    </row>
+    <row r="811" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="47"/>
+      <c r="E811" s="46"/>
+    </row>
+    <row r="812" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="47"/>
+      <c r="E812" s="46"/>
+    </row>
+    <row r="813" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="47"/>
+      <c r="E813" s="46"/>
+    </row>
+    <row r="814" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="47"/>
+      <c r="E814" s="46"/>
+    </row>
+    <row r="815" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="47"/>
+      <c r="E815" s="46"/>
+    </row>
+    <row r="816" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="47"/>
+      <c r="E816" s="46"/>
+    </row>
+    <row r="817" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="47"/>
+      <c r="E817" s="46"/>
+    </row>
+    <row r="818" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="47"/>
+      <c r="E818" s="46"/>
+    </row>
+    <row r="819" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="47"/>
+      <c r="E819" s="46"/>
+    </row>
+    <row r="820" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="47"/>
+      <c r="E820" s="46"/>
+    </row>
+    <row r="821" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="47"/>
+      <c r="E821" s="46"/>
+    </row>
+    <row r="822" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="47"/>
+      <c r="E822" s="46"/>
+    </row>
+    <row r="823" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="47"/>
+      <c r="E823" s="46"/>
+    </row>
+    <row r="824" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="47"/>
+      <c r="E824" s="46"/>
+    </row>
+    <row r="825" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="47"/>
+      <c r="E825" s="46"/>
+    </row>
+    <row r="826" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="47"/>
+      <c r="E826" s="46"/>
+    </row>
+    <row r="827" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="47"/>
+      <c r="E827" s="46"/>
+    </row>
+    <row r="828" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="47"/>
+      <c r="E828" s="46"/>
+    </row>
+    <row r="829" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="47"/>
+      <c r="E829" s="46"/>
+    </row>
+    <row r="830" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="47"/>
+      <c r="E830" s="46"/>
+    </row>
+    <row r="831" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="47"/>
+      <c r="E831" s="46"/>
+    </row>
+    <row r="832" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="47"/>
+      <c r="E832" s="46"/>
+    </row>
+    <row r="833" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="47"/>
+      <c r="E833" s="46"/>
+    </row>
+    <row r="834" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="47"/>
+      <c r="E834" s="46"/>
+    </row>
+    <row r="835" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="47"/>
+      <c r="E835" s="46"/>
+    </row>
+    <row r="836" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="47"/>
+      <c r="E836" s="46"/>
+    </row>
+    <row r="837" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="47"/>
+      <c r="E837" s="46"/>
+    </row>
+    <row r="838" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="47"/>
+      <c r="E838" s="46"/>
+    </row>
+    <row r="839" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="47"/>
+      <c r="E839" s="46"/>
+    </row>
+    <row r="840" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="47"/>
+      <c r="E840" s="46"/>
+    </row>
+    <row r="841" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="47"/>
+      <c r="E841" s="46"/>
+    </row>
+    <row r="842" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="47"/>
+      <c r="E842" s="46"/>
+    </row>
+    <row r="843" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="47"/>
+      <c r="E843" s="46"/>
+    </row>
+    <row r="844" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="47"/>
+      <c r="E844" s="46"/>
+    </row>
+    <row r="845" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="47"/>
+      <c r="E845" s="46"/>
+    </row>
+    <row r="846" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="47"/>
+      <c r="E846" s="46"/>
+    </row>
+    <row r="847" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="47"/>
+      <c r="E847" s="46"/>
+    </row>
+    <row r="848" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="47"/>
+      <c r="E848" s="46"/>
+    </row>
+    <row r="849" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="47"/>
+      <c r="E849" s="46"/>
+    </row>
+    <row r="850" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="47"/>
+      <c r="E850" s="46"/>
+    </row>
+    <row r="851" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="47"/>
+      <c r="E851" s="46"/>
+    </row>
+    <row r="852" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="47"/>
+      <c r="E852" s="46"/>
+    </row>
+    <row r="853" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="47"/>
+      <c r="E853" s="46"/>
+    </row>
+    <row r="854" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="47"/>
+      <c r="E854" s="46"/>
+    </row>
+    <row r="855" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="47"/>
+      <c r="E855" s="46"/>
+    </row>
+    <row r="856" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="47"/>
+      <c r="E856" s="46"/>
+    </row>
+    <row r="857" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="47"/>
+      <c r="E857" s="46"/>
+    </row>
+    <row r="858" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="47"/>
+      <c r="E858" s="46"/>
+    </row>
+    <row r="859" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="47"/>
+      <c r="E859" s="46"/>
+    </row>
+    <row r="860" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="47"/>
+      <c r="E860" s="46"/>
+    </row>
+    <row r="861" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="47"/>
+      <c r="E861" s="46"/>
+    </row>
+    <row r="862" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="47"/>
+      <c r="E862" s="46"/>
+    </row>
+    <row r="863" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="47"/>
+      <c r="E863" s="46"/>
+    </row>
+    <row r="864" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="47"/>
+      <c r="E864" s="46"/>
+    </row>
+    <row r="865" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="47"/>
+      <c r="E865" s="46"/>
+    </row>
+    <row r="866" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="47"/>
+      <c r="E866" s="46"/>
+    </row>
+    <row r="867" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="47"/>
+      <c r="E867" s="46"/>
+    </row>
+    <row r="868" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="47"/>
+      <c r="E868" s="46"/>
+    </row>
+    <row r="869" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="47"/>
+      <c r="E869" s="46"/>
+    </row>
+    <row r="870" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="47"/>
+      <c r="E870" s="46"/>
+    </row>
+    <row r="871" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="47"/>
+      <c r="E871" s="46"/>
+    </row>
+    <row r="872" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="47"/>
+      <c r="E872" s="46"/>
+    </row>
+    <row r="873" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="47"/>
+      <c r="E873" s="46"/>
+    </row>
+    <row r="874" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="47"/>
+      <c r="E874" s="46"/>
+    </row>
+    <row r="875" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="47"/>
+      <c r="E875" s="46"/>
+    </row>
+    <row r="876" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="47"/>
+      <c r="E876" s="46"/>
+    </row>
+    <row r="877" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="47"/>
+      <c r="E877" s="46"/>
+    </row>
+    <row r="878" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="47"/>
+      <c r="E878" s="46"/>
+    </row>
+    <row r="879" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="47"/>
+      <c r="E879" s="46"/>
+    </row>
+    <row r="880" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="47"/>
+      <c r="E880" s="46"/>
+    </row>
+    <row r="881" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="47"/>
+      <c r="E881" s="46"/>
+    </row>
+    <row r="882" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="47"/>
+      <c r="E882" s="46"/>
+    </row>
+    <row r="883" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="47"/>
+      <c r="E883" s="46"/>
+    </row>
+    <row r="884" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="47"/>
+      <c r="E884" s="46"/>
+    </row>
+    <row r="885" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="47"/>
+      <c r="E885" s="46"/>
+    </row>
+    <row r="886" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="47"/>
+      <c r="E886" s="46"/>
+    </row>
+    <row r="887" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="47"/>
+      <c r="E887" s="46"/>
+    </row>
+    <row r="888" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="47"/>
+      <c r="E888" s="46"/>
+    </row>
+    <row r="889" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="47"/>
+      <c r="E889" s="46"/>
+    </row>
+    <row r="890" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="47"/>
+      <c r="E890" s="46"/>
+    </row>
+    <row r="891" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="47"/>
+      <c r="E891" s="46"/>
+    </row>
+    <row r="892" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="47"/>
+      <c r="E892" s="46"/>
+    </row>
+    <row r="893" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="47"/>
+      <c r="E893" s="46"/>
+    </row>
+    <row r="894" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="47"/>
+      <c r="E894" s="46"/>
+    </row>
+    <row r="895" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="47"/>
+      <c r="E895" s="46"/>
+    </row>
+    <row r="896" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="47"/>
+      <c r="E896" s="46"/>
+    </row>
+    <row r="897" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="47"/>
+      <c r="E897" s="46"/>
+    </row>
+    <row r="898" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="47"/>
+      <c r="E898" s="46"/>
+    </row>
+    <row r="899" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="47"/>
+      <c r="E899" s="46"/>
+    </row>
+    <row r="900" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="47"/>
+      <c r="E900" s="46"/>
+    </row>
+    <row r="901" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="47"/>
+      <c r="E901" s="46"/>
+    </row>
+    <row r="902" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="47"/>
+      <c r="E902" s="46"/>
+    </row>
+    <row r="903" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="47"/>
+      <c r="E903" s="46"/>
+    </row>
+    <row r="904" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="47"/>
+      <c r="E904" s="46"/>
+    </row>
+    <row r="905" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="47"/>
+      <c r="E905" s="46"/>
+    </row>
+    <row r="906" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="47"/>
+      <c r="E906" s="46"/>
+    </row>
+    <row r="907" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="47"/>
+      <c r="E907" s="46"/>
+    </row>
+    <row r="908" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="47"/>
+      <c r="E908" s="46"/>
+    </row>
+    <row r="909" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="47"/>
+      <c r="E909" s="46"/>
+    </row>
+    <row r="910" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="47"/>
+      <c r="E910" s="46"/>
+    </row>
+    <row r="911" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="47"/>
+      <c r="E911" s="46"/>
+    </row>
+    <row r="912" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="47"/>
+      <c r="E912" s="46"/>
+    </row>
+    <row r="913" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="47"/>
+      <c r="E913" s="46"/>
+    </row>
+    <row r="914" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="47"/>
+      <c r="E914" s="46"/>
+    </row>
+    <row r="915" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="47"/>
+      <c r="E915" s="46"/>
+    </row>
+    <row r="916" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="47"/>
+      <c r="E916" s="46"/>
+    </row>
+    <row r="917" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="47"/>
+      <c r="E917" s="46"/>
+    </row>
+    <row r="918" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="47"/>
+      <c r="E918" s="46"/>
+    </row>
+    <row r="919" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="47"/>
+      <c r="E919" s="46"/>
+    </row>
+    <row r="920" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="47"/>
+      <c r="E920" s="46"/>
+    </row>
+    <row r="921" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="47"/>
+      <c r="E921" s="46"/>
+    </row>
+    <row r="922" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="47"/>
+      <c r="E922" s="46"/>
+    </row>
+    <row r="923" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="47"/>
+      <c r="E923" s="46"/>
+    </row>
+    <row r="924" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="47"/>
+      <c r="E924" s="46"/>
+    </row>
+    <row r="925" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="47"/>
+      <c r="E925" s="46"/>
+    </row>
+    <row r="926" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="47"/>
+      <c r="E926" s="46"/>
+    </row>
+    <row r="927" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="47"/>
+      <c r="E927" s="46"/>
+    </row>
+    <row r="928" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="47"/>
+      <c r="E928" s="46"/>
+    </row>
+    <row r="929" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="47"/>
+      <c r="E929" s="46"/>
+    </row>
+    <row r="930" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="47"/>
+      <c r="E930" s="46"/>
+    </row>
+    <row r="931" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="47"/>
+      <c r="E931" s="46"/>
+    </row>
+    <row r="932" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="47"/>
+      <c r="E932" s="46"/>
+    </row>
+    <row r="933" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="47"/>
+      <c r="E933" s="46"/>
+    </row>
+    <row r="934" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="47"/>
+      <c r="E934" s="46"/>
+    </row>
+    <row r="935" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="47"/>
+      <c r="E935" s="46"/>
+    </row>
+    <row r="936" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="47"/>
+      <c r="E936" s="46"/>
+    </row>
+    <row r="937" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="47"/>
+      <c r="E937" s="46"/>
+    </row>
+    <row r="938" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="47"/>
+      <c r="E938" s="46"/>
+    </row>
+    <row r="939" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="47"/>
+      <c r="E939" s="46"/>
+    </row>
+    <row r="940" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="47"/>
+      <c r="E940" s="46"/>
+    </row>
+    <row r="941" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="47"/>
+      <c r="E941" s="46"/>
+    </row>
+    <row r="942" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="47"/>
+      <c r="E942" s="46"/>
+    </row>
+    <row r="943" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="47"/>
+      <c r="E943" s="46"/>
+    </row>
+    <row r="944" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="47"/>
+      <c r="E944" s="46"/>
+    </row>
+    <row r="945" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="47"/>
+      <c r="E945" s="46"/>
+    </row>
+    <row r="946" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="47"/>
+      <c r="E946" s="46"/>
+    </row>
+    <row r="947" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="47"/>
+      <c r="E947" s="46"/>
+    </row>
+    <row r="948" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="47"/>
+      <c r="E948" s="46"/>
+    </row>
+    <row r="949" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="47"/>
+      <c r="E949" s="46"/>
+    </row>
+    <row r="950" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="47"/>
+      <c r="E950" s="46"/>
+    </row>
+    <row r="951" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="47"/>
+      <c r="E951" s="46"/>
+    </row>
+    <row r="952" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="47"/>
+      <c r="E952" s="46"/>
+    </row>
+    <row r="953" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="47"/>
+      <c r="E953" s="46"/>
+    </row>
+    <row r="954" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="47"/>
+      <c r="E954" s="46"/>
+    </row>
+    <row r="955" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="47"/>
+      <c r="E955" s="46"/>
+    </row>
+    <row r="956" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="47"/>
+      <c r="E956" s="46"/>
+    </row>
+    <row r="957" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="47"/>
+      <c r="E957" s="46"/>
+    </row>
+    <row r="958" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="47"/>
+      <c r="E958" s="46"/>
+    </row>
+    <row r="959" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="47"/>
+      <c r="E959" s="46"/>
+    </row>
+    <row r="960" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="47"/>
+      <c r="E960" s="46"/>
+    </row>
+    <row r="961" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="47"/>
+      <c r="E961" s="46"/>
+    </row>
+    <row r="962" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="47"/>
+      <c r="E962" s="46"/>
+    </row>
+    <row r="963" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="47"/>
+      <c r="E963" s="46"/>
+    </row>
+    <row r="964" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="47"/>
+      <c r="E964" s="46"/>
+    </row>
+    <row r="965" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="47"/>
+      <c r="E965" s="46"/>
+    </row>
+    <row r="966" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="47"/>
+      <c r="E966" s="46"/>
+    </row>
+    <row r="967" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="47"/>
+      <c r="E967" s="46"/>
+    </row>
+    <row r="968" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="47"/>
+      <c r="E968" s="46"/>
+    </row>
+    <row r="969" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="47"/>
+      <c r="E969" s="46"/>
+    </row>
+    <row r="970" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="47"/>
+      <c r="E970" s="46"/>
+    </row>
+    <row r="971" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="47"/>
+      <c r="E971" s="46"/>
+    </row>
+    <row r="972" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="47"/>
+      <c r="E972" s="46"/>
+    </row>
+    <row r="973" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="47"/>
+      <c r="E973" s="46"/>
+    </row>
+    <row r="974" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="47"/>
+      <c r="E974" s="46"/>
+    </row>
+    <row r="975" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="47"/>
+      <c r="E975" s="46"/>
+    </row>
+    <row r="976" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="47"/>
+      <c r="E976" s="46"/>
+    </row>
+    <row r="977" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="47"/>
+      <c r="E977" s="46"/>
+    </row>
+    <row r="978" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="47"/>
+      <c r="E978" s="46"/>
+    </row>
+    <row r="979" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="47"/>
+      <c r="E979" s="46"/>
+    </row>
+    <row r="980" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="47"/>
+      <c r="E980" s="46"/>
+    </row>
+    <row r="981" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="47"/>
+      <c r="E981" s="46"/>
+    </row>
+    <row r="982" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="47"/>
+      <c r="E982" s="46"/>
+    </row>
+    <row r="983" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="47"/>
+      <c r="E983" s="46"/>
+    </row>
+    <row r="984" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="47"/>
+      <c r="E984" s="46"/>
+    </row>
+    <row r="985" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="47"/>
+      <c r="E985" s="46"/>
+    </row>
+    <row r="986" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="47"/>
+      <c r="E986" s="46"/>
+    </row>
+    <row r="987" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="47"/>
+      <c r="E987" s="46"/>
+    </row>
+    <row r="988" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="47"/>
+      <c r="E988" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-085 Custome Ranking.xlsx
+++ b/CH-085 Custome Ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314460D-DF8A-4B62-B9CB-A02465C8F9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D35BE-211F-4D1D-9B16-D078CCDEB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
   </bookViews>
@@ -963,16 +963,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>1270</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>248920</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>85090</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>529590</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>62230</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>67310</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -987,7 +987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6148"/>
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6149"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1001,8 +1001,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16200120" y="5285740"/>
-              <a:ext cx="2677160" cy="4241800"/>
+              <a:off x="17882870" y="4961890"/>
+              <a:ext cx="2680970" cy="4248150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22185,8 +22185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D1AE9-9669-449D-9482-07FFFB82CC8C}">
   <dimension ref="A1:Y988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22437,7 +22437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>60</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42">
         <v>63</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>64</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="40">
         <v>67</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="39">
         <v>68</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38">
         <v>69</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37">
         <v>74</v>
       </c>
@@ -22521,19 +22521,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="32"/>
       <c r="E24" s="46"/>
     </row>
-    <row r="25" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="32"/>
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="47"/>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47"/>
       <c r="C27" s="53" cm="1">
         <f t="array" ref="C27:D38">_xlfn.LET(
@@ -22555,11 +22555,11 @@
         <v>1</v>
       </c>
       <c r="I27" s="27">
-        <f>IF(F27&lt;G27,C27,D27)</f>
+        <f>IF(F27&lt;IFERROR(G27,100),C27,D27)</f>
         <v>51</v>
       </c>
       <c r="J27" s="27">
-        <f>IF(F27&lt;G27,D27,C27)</f>
+        <f>IF(F27&lt;IFERROR(G27,100),D27,C27)</f>
         <v>47</v>
       </c>
       <c r="L27" s="27" cm="1">
@@ -22576,8 +22576,15 @@
       <c r="P27" s="27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="27" t="b" cm="1">
+        <f t="array" ref="R27:S47">_xlfn.ANCHORARRAY(O27)=E3:F23</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
       <c r="C28" s="53">
         <v>45</v>
@@ -22593,11 +22600,11 @@
         <v>2</v>
       </c>
       <c r="I28" s="27">
-        <f t="shared" ref="I28:I35" si="0">IF(F28&lt;G28,C28,D28)</f>
+        <f t="shared" ref="I28:I38" si="0">IF(F28&lt;IFERROR(G28,100),C28,D28)</f>
         <v>52</v>
       </c>
       <c r="J28" s="27">
-        <f t="shared" ref="J28:J35" si="1">IF(F28&lt;G28,D28,C28)</f>
+        <f t="shared" ref="J28:J38" si="1">IF(F28&lt;IFERROR(G28,100),D28,C28)</f>
         <v>45</v>
       </c>
       <c r="L28" s="27">
@@ -22612,8 +22619,14 @@
       <c r="P28" s="27">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
       <c r="C29" s="53">
         <v>44</v>
@@ -22648,8 +22661,14 @@
       <c r="P29" s="27">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
       <c r="C30" s="53">
         <v>43</v>
@@ -22684,8 +22703,14 @@
       <c r="P30" s="27">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="47"/>
       <c r="C31" s="53">
         <v>42</v>
@@ -22720,8 +22745,14 @@
       <c r="P31" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47"/>
       <c r="C32" s="53">
         <v>40</v>
@@ -22756,8 +22787,14 @@
       <c r="P32" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="47"/>
       <c r="C33" s="53">
         <v>34</v>
@@ -22792,8 +22829,14 @@
       <c r="P33" s="27">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47"/>
       <c r="C34" s="53">
         <v>30</v>
@@ -22828,8 +22871,14 @@
       <c r="P34" s="27">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47"/>
       <c r="C35" s="53">
         <v>28</v>
@@ -22864,8 +22913,14 @@
       <c r="P35" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="53">
         <v>27</v>
@@ -22880,11 +22935,12 @@
       <c r="G36" s="27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="27">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J36" s="27" t="e">
-        <f t="shared" ref="J28:J38" si="2">IF(F36&lt;G36,D36,C36)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="L36" s="27">
@@ -22899,8 +22955,14 @@
       <c r="P36" s="27">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47"/>
       <c r="C37" s="53">
         <v>25</v>
@@ -22915,11 +22977,12 @@
       <c r="G37" s="27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J37" s="27" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="L37" s="27">
@@ -22934,8 +22997,14 @@
       <c r="P37" s="27">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="47"/>
       <c r="C38" s="53">
         <v>22</v>
@@ -22950,11 +23019,12 @@
       <c r="G38" s="27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="27">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J38" s="27" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="L38" s="27">
@@ -22969,8 +23039,14 @@
       <c r="P38" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="47"/>
       <c r="E39" s="46"/>
       <c r="L39" s="27">
@@ -22985,8 +23061,14 @@
       <c r="P39" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="47"/>
       <c r="C40" s="27" cm="1">
         <f t="array" ref="C40:C60">_xlfn.LET(
@@ -23016,8 +23098,14 @@
       <c r="P40" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47"/>
       <c r="C41" s="27">
         <v>51</v>
@@ -23038,8 +23126,14 @@
       <c r="P41" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="47"/>
       <c r="C42" s="27">
         <v>45</v>
@@ -23060,8 +23154,14 @@
       <c r="P42" s="27">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="47"/>
       <c r="C43" s="27">
         <v>52</v>
@@ -23082,8 +23182,14 @@
       <c r="P43" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="27">
         <v>44</v>
@@ -23104,8 +23210,14 @@
       <c r="P44" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="47"/>
       <c r="C45" s="27">
         <v>60</v>
@@ -23126,8 +23238,14 @@
       <c r="P45" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47"/>
       <c r="C46" s="27">
         <v>43</v>
@@ -23148,8 +23266,14 @@
       <c r="P46" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="47"/>
       <c r="C47" s="27">
         <v>63</v>
@@ -23170,8 +23294,14 @@
       <c r="P47" s="27">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
       <c r="C48" s="27">
         <v>42</v>

--- a/CH-085 Custome Ranking.xlsx
+++ b/CH-085 Custome Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D35BE-211F-4D1D-9B16-D078CCDEB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF764B3B-CD9E-462E-BDAB-B0434301359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
     <sheet name="Alt2" sheetId="6" r:id="rId4"/>
     <sheet name="EDA2" sheetId="7" r:id="rId5"/>
+    <sheet name="EDA3)" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="fx">_xlfn.LAMBDA(_xlpm.l,_xlpm.r,          _xlfn.LET(              _xlpm.z, _xlfn._xlws.FILTER(_xlpm.l,_xlfn.CHOOSECOLS(_xlpm.l,2)=-1),              _xlpm.a, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&lt;50),1,-1),1,1),              _xlpm.b, INDEX(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.z,1)&gt;50),1),1,1),              _xlpm.adist, ABS(50-_xlpm.a), _xlpm.bdist, ABS(50-_xlpm.b),              _xlpm.ar, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+1,_xlpm.r+2), _xlpm.br, IF(_xlpm.adist&lt;_xlpm.bdist,_xlpm.r+2,_xlpm.r+1),              _xlpm.zz,_xlfn.VSTACK(_xlfn.HSTACK(_xlpm.a,_xlpm.ar),_xlfn.HSTACK(_xlpm.b,_xlpm.br)),_xlpm.zz  ))</definedName>
@@ -36,7 +37,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rH5NRDiOPGMiTOjwnd49YOp0PYPEcMxhUKicEAA7n1M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="rH5NRDiOPGMiTOjwnd49YOp0PYPEcMxhUKicEAA7n1M="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -468,6 +469,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,7 +478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -518,7 +519,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1278255" y="97790"/>
+          <a:off x="1282065" y="95250"/>
           <a:ext cx="4067175" cy="4819650"/>
           <a:chOff x="3312413" y="1370175"/>
           <a:chExt cx="4067175" cy="4819650"/>
@@ -970,9 +971,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>62230</xdr:colOff>
+          <xdr:colOff>58420</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>67310</xdr:rowOff>
+          <xdr:rowOff>8890</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -987,7 +988,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6149"/>
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6150"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1001,8 +1002,79 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="17882870" y="4961890"/>
-              <a:ext cx="2680970" cy="4248150"/>
+              <a:off x="17866360" y="5007610"/>
+              <a:ext cx="2674620" cy="4244340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>248920</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>85090</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>58420</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>8890</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0B5701-6B51-4D41-AE8B-9CE99743DE19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s7169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="17866360" y="5007610"/>
+              <a:ext cx="2674620" cy="4244340"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1242,6 +1314,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1277,10 +1352,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6735,10 +6810,10 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="52"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
@@ -11124,10 +11199,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -16635,10 +16710,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -22185,8 +22260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D1AE9-9669-449D-9482-07FFFB82CC8C}">
   <dimension ref="A1:Y988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22207,10 +22282,10 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
@@ -22535,7 +22610,7 @@
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47"/>
-      <c r="C27" s="53" cm="1">
+      <c r="C27" s="49" cm="1">
         <f t="array" ref="C27:D38">_xlfn.LET(
 _xlpm.a, B3:B23,
 _xlpm.fl, _xlfn.LAMBDA(_xlpm.x, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.a, IF(_xlpm.x = -1, _xlpm.a &lt; 50, IF(_xlpm.x = 1, _xlpm.a &gt; 50))), 1, _xlpm.x)),
@@ -22543,7 +22618,7 @@
 )</f>
         <v>47</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="49">
         <v>51</v>
       </c>
       <c r="E27" s="46"/>
@@ -22586,10 +22661,10 @@
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
-      <c r="C28" s="53">
+      <c r="C28" s="49">
         <v>45</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="49">
         <v>52</v>
       </c>
       <c r="E28" s="46"/>
@@ -22628,10 +22703,10 @@
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
-      <c r="C29" s="53">
+      <c r="C29" s="49">
         <v>44</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="49">
         <v>60</v>
       </c>
       <c r="E29" s="46"/>
@@ -22670,10 +22745,10 @@
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
-      <c r="C30" s="53">
+      <c r="C30" s="49">
         <v>43</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="49">
         <v>63</v>
       </c>
       <c r="E30" s="46"/>
@@ -22712,10 +22787,10 @@
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="47"/>
-      <c r="C31" s="53">
+      <c r="C31" s="49">
         <v>42</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="49">
         <v>64</v>
       </c>
       <c r="E31" s="46"/>
@@ -22754,10 +22829,10 @@
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47"/>
-      <c r="C32" s="53">
+      <c r="C32" s="49">
         <v>40</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="49">
         <v>67</v>
       </c>
       <c r="E32" s="46"/>
@@ -22796,10 +22871,10 @@
     </row>
     <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="47"/>
-      <c r="C33" s="53">
+      <c r="C33" s="49">
         <v>34</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="49">
         <v>68</v>
       </c>
       <c r="E33" s="46"/>
@@ -22838,10 +22913,10 @@
     </row>
     <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47"/>
-      <c r="C34" s="53">
+      <c r="C34" s="49">
         <v>30</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="49">
         <v>69</v>
       </c>
       <c r="E34" s="46"/>
@@ -22880,10 +22955,10 @@
     </row>
     <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47"/>
-      <c r="C35" s="53">
+      <c r="C35" s="49">
         <v>28</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="49">
         <v>74</v>
       </c>
       <c r="E35" s="46"/>
@@ -22922,10 +22997,10 @@
     </row>
     <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
-      <c r="C36" s="53">
+      <c r="C36" s="49">
         <v>27</v>
       </c>
-      <c r="D36" s="53" t="e">
+      <c r="D36" s="49" t="e">
         <v>#N/A</v>
       </c>
       <c r="E36" s="46"/>
@@ -22964,10 +23039,10 @@
     </row>
     <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47"/>
-      <c r="C37" s="53">
+      <c r="C37" s="49">
         <v>25</v>
       </c>
-      <c r="D37" s="53" t="e">
+      <c r="D37" s="49" t="e">
         <v>#N/A</v>
       </c>
       <c r="E37" s="46"/>
@@ -23006,10 +23081,10 @@
     </row>
     <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="47"/>
-      <c r="C38" s="53">
+      <c r="C38" s="49">
         <v>22</v>
       </c>
-      <c r="D38" s="53" t="e">
+      <c r="D38" s="49" t="e">
         <v>#N/A</v>
       </c>
       <c r="E38" s="46"/>
@@ -27279,4 +27354,5084 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CFB637-46D5-4A2C-9F34-88617D1E5A47}">
+  <dimension ref="A1:Y988"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="10.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="27" customWidth="1"/>
+    <col min="7" max="25" width="8.54296875" style="27" customWidth="1"/>
+    <col min="26" max="16384" width="12.54296875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="E2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="E3" s="33">
+        <v>22</v>
+      </c>
+      <c r="F3" s="34">
+        <v>21</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31">
+        <v>25</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="E4" s="33">
+        <v>25</v>
+      </c>
+      <c r="F4" s="34">
+        <v>20</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>27</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="E5" s="33">
+        <v>27</v>
+      </c>
+      <c r="F5" s="34">
+        <v>19</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="E6" s="33">
+        <v>28</v>
+      </c>
+      <c r="F6" s="34">
+        <v>17</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38">
+        <v>30</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="E7" s="33">
+        <v>30</v>
+      </c>
+      <c r="F7" s="34">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39">
+        <v>34</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="E8" s="33">
+        <v>34</v>
+      </c>
+      <c r="F8" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="40">
+        <v>40</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="E9" s="33">
+        <v>40</v>
+      </c>
+      <c r="F9" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
+        <v>42</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="E10" s="33">
+        <v>42</v>
+      </c>
+      <c r="F10" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42">
+        <v>43</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="E11" s="33">
+        <v>43</v>
+      </c>
+      <c r="F11" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43">
+        <v>44</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="F12" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44">
+        <v>45</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="E13" s="33">
+        <v>45</v>
+      </c>
+      <c r="F13" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45">
+        <v>47</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="E14" s="33">
+        <v>47</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45">
+        <v>51</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="E15" s="33">
+        <v>51</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44">
+        <v>52</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="E16" s="33">
+        <v>52</v>
+      </c>
+      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="43">
+        <v>60</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="E17" s="33">
+        <v>60</v>
+      </c>
+      <c r="F17" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="42">
+        <v>63</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="E18" s="33">
+        <v>63</v>
+      </c>
+      <c r="F18" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
+        <v>64</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="E19" s="33">
+        <v>64</v>
+      </c>
+      <c r="F19" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
+        <v>67</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="E20" s="33">
+        <v>67</v>
+      </c>
+      <c r="F20" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="39">
+        <v>68</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="E21" s="33">
+        <v>68</v>
+      </c>
+      <c r="F21" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38">
+        <v>69</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="E22" s="33">
+        <v>69</v>
+      </c>
+      <c r="F22" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="37">
+        <v>74</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="E23" s="33">
+        <v>74</v>
+      </c>
+      <c r="F23" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="32"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47"/>
+      <c r="C27" s="49" cm="1">
+        <f t="array" ref="C27:D38">_xlfn.LET(
+_xlpm.a, B3:B23,
+_xlpm.fl, _xlfn.LAMBDA(_xlpm.x, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.a, IF(_xlpm.x = -1, _xlpm.a &lt; 50, IF(_xlpm.x = 1, _xlpm.a &gt; 50))), 1, _xlpm.x)),
+_xlfn.HSTACK(_xlpm.fl(-1),_xlpm.fl(1))
+)</f>
+        <v>47</v>
+      </c>
+      <c r="D27" s="49">
+        <v>51</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="27" cm="1">
+        <f t="array" ref="F27:G38">ABS(_xlfn.ANCHORARRAY(C27)-50)</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27" cm="1">
+        <f t="array" ref="I27:I38">IF(F27:F38&lt;IFERROR(G27:G38,100),C27:C38,D27:D38)</f>
+        <v>51</v>
+      </c>
+      <c r="J27" s="27" cm="1">
+        <f t="array" ref="J27:J38">IF(F27:F38&lt;IFERROR(G27:G38,100),D27:D38,C27:C38)</f>
+        <v>47</v>
+      </c>
+      <c r="L27" s="27" cm="1">
+        <f t="array" ref="L27:L47">_xlfn.TOCOL(I27:J38,3)</f>
+        <v>51</v>
+      </c>
+      <c r="M27" s="27" cm="1">
+        <f t="array" ref="M27:M47">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(L27)))</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="27" cm="1">
+        <f t="array" ref="O27:O47">_xlfn.LET(_xlpm.z,_xlfn.ANCHORARRAY(L27),_xlfn.SORTBY(_xlpm.z,_xlfn.XMATCH(_xlpm.z,B3:B23)))</f>
+        <v>22</v>
+      </c>
+      <c r="P27" s="27" cm="1">
+        <f t="array" ref="P27:P47">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(O27),_xlfn.ANCHORARRAY(L27),_xlfn.ANCHORARRAY(M27))</f>
+        <v>21</v>
+      </c>
+      <c r="R27" s="27" t="b" cm="1">
+        <f t="array" ref="R27:S47">_xlfn.HSTACK(_xlfn.ANCHORARRAY(O27),_xlfn.ANCHORARRAY(P27))=E3:F23</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="47"/>
+      <c r="C28" s="49">
+        <v>45</v>
+      </c>
+      <c r="D28" s="49">
+        <v>52</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="27">
+        <v>5</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2</v>
+      </c>
+      <c r="I28" s="27">
+        <v>52</v>
+      </c>
+      <c r="J28" s="27">
+        <v>45</v>
+      </c>
+      <c r="L28" s="27">
+        <v>47</v>
+      </c>
+      <c r="M28" s="27">
+        <v>2</v>
+      </c>
+      <c r="O28" s="27">
+        <v>25</v>
+      </c>
+      <c r="P28" s="27">
+        <v>20</v>
+      </c>
+      <c r="R28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="47"/>
+      <c r="C29" s="49">
+        <v>44</v>
+      </c>
+      <c r="D29" s="49">
+        <v>60</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="27">
+        <v>6</v>
+      </c>
+      <c r="G29" s="27">
+        <v>10</v>
+      </c>
+      <c r="I29" s="27">
+        <v>44</v>
+      </c>
+      <c r="J29" s="27">
+        <v>60</v>
+      </c>
+      <c r="L29" s="27">
+        <v>52</v>
+      </c>
+      <c r="M29" s="27">
+        <v>3</v>
+      </c>
+      <c r="O29" s="27">
+        <v>27</v>
+      </c>
+      <c r="P29" s="27">
+        <v>19</v>
+      </c>
+      <c r="R29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="47"/>
+      <c r="C30" s="49">
+        <v>43</v>
+      </c>
+      <c r="D30" s="49">
+        <v>63</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="27">
+        <v>7</v>
+      </c>
+      <c r="G30" s="27">
+        <v>13</v>
+      </c>
+      <c r="I30" s="27">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27">
+        <v>63</v>
+      </c>
+      <c r="L30" s="27">
+        <v>45</v>
+      </c>
+      <c r="M30" s="27">
+        <v>4</v>
+      </c>
+      <c r="O30" s="27">
+        <v>28</v>
+      </c>
+      <c r="P30" s="27">
+        <v>17</v>
+      </c>
+      <c r="R30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="47"/>
+      <c r="C31" s="49">
+        <v>42</v>
+      </c>
+      <c r="D31" s="49">
+        <v>64</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="27">
+        <v>8</v>
+      </c>
+      <c r="G31" s="27">
+        <v>14</v>
+      </c>
+      <c r="I31" s="27">
+        <v>42</v>
+      </c>
+      <c r="J31" s="27">
+        <v>64</v>
+      </c>
+      <c r="L31" s="27">
+        <v>44</v>
+      </c>
+      <c r="M31" s="27">
+        <v>5</v>
+      </c>
+      <c r="O31" s="27">
+        <v>30</v>
+      </c>
+      <c r="P31" s="27">
+        <v>16</v>
+      </c>
+      <c r="R31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="47"/>
+      <c r="C32" s="49">
+        <v>40</v>
+      </c>
+      <c r="D32" s="49">
+        <v>67</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="27">
+        <v>10</v>
+      </c>
+      <c r="G32" s="27">
+        <v>17</v>
+      </c>
+      <c r="I32" s="27">
+        <v>40</v>
+      </c>
+      <c r="J32" s="27">
+        <v>67</v>
+      </c>
+      <c r="L32" s="27">
+        <v>60</v>
+      </c>
+      <c r="M32" s="27">
+        <v>6</v>
+      </c>
+      <c r="O32" s="27">
+        <v>34</v>
+      </c>
+      <c r="P32" s="27">
+        <v>13</v>
+      </c>
+      <c r="R32" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="47"/>
+      <c r="C33" s="49">
+        <v>34</v>
+      </c>
+      <c r="D33" s="49">
+        <v>68</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="27">
+        <v>16</v>
+      </c>
+      <c r="G33" s="27">
+        <v>18</v>
+      </c>
+      <c r="I33" s="27">
+        <v>34</v>
+      </c>
+      <c r="J33" s="27">
+        <v>68</v>
+      </c>
+      <c r="L33" s="27">
+        <v>43</v>
+      </c>
+      <c r="M33" s="27">
+        <v>7</v>
+      </c>
+      <c r="O33" s="27">
+        <v>40</v>
+      </c>
+      <c r="P33" s="27">
+        <v>11</v>
+      </c>
+      <c r="R33" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="47"/>
+      <c r="C34" s="49">
+        <v>30</v>
+      </c>
+      <c r="D34" s="49">
+        <v>69</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="27">
+        <v>20</v>
+      </c>
+      <c r="G34" s="27">
+        <v>19</v>
+      </c>
+      <c r="I34" s="27">
+        <v>69</v>
+      </c>
+      <c r="J34" s="27">
+        <v>30</v>
+      </c>
+      <c r="L34" s="27">
+        <v>63</v>
+      </c>
+      <c r="M34" s="27">
+        <v>8</v>
+      </c>
+      <c r="O34" s="27">
+        <v>42</v>
+      </c>
+      <c r="P34" s="27">
+        <v>9</v>
+      </c>
+      <c r="R34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="47"/>
+      <c r="C35" s="49">
+        <v>28</v>
+      </c>
+      <c r="D35" s="49">
+        <v>74</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="27">
+        <v>22</v>
+      </c>
+      <c r="G35" s="27">
+        <v>24</v>
+      </c>
+      <c r="I35" s="27">
+        <v>28</v>
+      </c>
+      <c r="J35" s="27">
+        <v>74</v>
+      </c>
+      <c r="L35" s="27">
+        <v>42</v>
+      </c>
+      <c r="M35" s="27">
+        <v>9</v>
+      </c>
+      <c r="O35" s="27">
+        <v>43</v>
+      </c>
+      <c r="P35" s="27">
+        <v>7</v>
+      </c>
+      <c r="R35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="47"/>
+      <c r="C36" s="49">
+        <v>27</v>
+      </c>
+      <c r="D36" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="27">
+        <v>23</v>
+      </c>
+      <c r="G36" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="27">
+        <v>27</v>
+      </c>
+      <c r="J36" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="27">
+        <v>64</v>
+      </c>
+      <c r="M36" s="27">
+        <v>10</v>
+      </c>
+      <c r="O36" s="27">
+        <v>44</v>
+      </c>
+      <c r="P36" s="27">
+        <v>5</v>
+      </c>
+      <c r="R36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="47"/>
+      <c r="C37" s="49">
+        <v>25</v>
+      </c>
+      <c r="D37" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="27">
+        <v>25</v>
+      </c>
+      <c r="G37" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="27">
+        <v>25</v>
+      </c>
+      <c r="J37" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="27">
+        <v>40</v>
+      </c>
+      <c r="M37" s="27">
+        <v>11</v>
+      </c>
+      <c r="O37" s="27">
+        <v>45</v>
+      </c>
+      <c r="P37" s="27">
+        <v>4</v>
+      </c>
+      <c r="R37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="47"/>
+      <c r="C38" s="49">
+        <v>22</v>
+      </c>
+      <c r="D38" s="49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="27">
+        <v>28</v>
+      </c>
+      <c r="G38" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="27">
+        <v>22</v>
+      </c>
+      <c r="J38" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="27">
+        <v>67</v>
+      </c>
+      <c r="M38" s="27">
+        <v>12</v>
+      </c>
+      <c r="O38" s="27">
+        <v>47</v>
+      </c>
+      <c r="P38" s="27">
+        <v>2</v>
+      </c>
+      <c r="R38" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="47"/>
+      <c r="E39" s="46"/>
+      <c r="L39" s="27">
+        <v>34</v>
+      </c>
+      <c r="M39" s="27">
+        <v>13</v>
+      </c>
+      <c r="O39" s="27">
+        <v>51</v>
+      </c>
+      <c r="P39" s="27">
+        <v>1</v>
+      </c>
+      <c r="R39" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="47"/>
+      <c r="C40" s="27" cm="1">
+        <f t="array" ref="C40:C60">_xlfn.LET(
+_xlpm.z,_xlfn.TOCOL(_xlfn.ANCHORARRAY(C27),3),
+_xlpm.zz,_xlfn.HSTACK(_xlpm.z,
+          _xlfn.SORTBY(_xlfn.SEQUENCE(ROWS(_xlpm.z)),
+                 _xlfn.XMATCH(_xlpm.z,B3:B23)
+          )),
+_xlpm.z
+)</f>
+        <v>47</v>
+      </c>
+      <c r="D40" s="27" cm="1">
+        <f t="array" ref="D40:D60">_xlfn.SEQUENCE(21)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="L40" s="27">
+        <v>68</v>
+      </c>
+      <c r="M40" s="27">
+        <v>14</v>
+      </c>
+      <c r="O40" s="27">
+        <v>52</v>
+      </c>
+      <c r="P40" s="27">
+        <v>3</v>
+      </c>
+      <c r="R40" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="47"/>
+      <c r="C41" s="27">
+        <v>51</v>
+      </c>
+      <c r="D41" s="27">
+        <v>2</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="L41" s="27">
+        <v>69</v>
+      </c>
+      <c r="M41" s="27">
+        <v>15</v>
+      </c>
+      <c r="O41" s="27">
+        <v>60</v>
+      </c>
+      <c r="P41" s="27">
+        <v>6</v>
+      </c>
+      <c r="R41" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="47"/>
+      <c r="C42" s="27">
+        <v>45</v>
+      </c>
+      <c r="D42" s="27">
+        <v>3</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="L42" s="27">
+        <v>30</v>
+      </c>
+      <c r="M42" s="27">
+        <v>16</v>
+      </c>
+      <c r="O42" s="27">
+        <v>63</v>
+      </c>
+      <c r="P42" s="27">
+        <v>8</v>
+      </c>
+      <c r="R42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="47"/>
+      <c r="C43" s="27">
+        <v>52</v>
+      </c>
+      <c r="D43" s="27">
+        <v>4</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="L43" s="27">
+        <v>28</v>
+      </c>
+      <c r="M43" s="27">
+        <v>17</v>
+      </c>
+      <c r="O43" s="27">
+        <v>64</v>
+      </c>
+      <c r="P43" s="27">
+        <v>10</v>
+      </c>
+      <c r="R43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="47"/>
+      <c r="C44" s="27">
+        <v>44</v>
+      </c>
+      <c r="D44" s="27">
+        <v>5</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="L44" s="27">
+        <v>74</v>
+      </c>
+      <c r="M44" s="27">
+        <v>18</v>
+      </c>
+      <c r="O44" s="27">
+        <v>67</v>
+      </c>
+      <c r="P44" s="27">
+        <v>12</v>
+      </c>
+      <c r="R44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="47"/>
+      <c r="C45" s="27">
+        <v>60</v>
+      </c>
+      <c r="D45" s="27">
+        <v>6</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="L45" s="27">
+        <v>27</v>
+      </c>
+      <c r="M45" s="27">
+        <v>19</v>
+      </c>
+      <c r="O45" s="27">
+        <v>68</v>
+      </c>
+      <c r="P45" s="27">
+        <v>14</v>
+      </c>
+      <c r="R45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="47"/>
+      <c r="C46" s="27">
+        <v>43</v>
+      </c>
+      <c r="D46" s="27">
+        <v>7</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="L46" s="27">
+        <v>25</v>
+      </c>
+      <c r="M46" s="27">
+        <v>20</v>
+      </c>
+      <c r="O46" s="27">
+        <v>69</v>
+      </c>
+      <c r="P46" s="27">
+        <v>15</v>
+      </c>
+      <c r="R46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="47"/>
+      <c r="C47" s="27">
+        <v>63</v>
+      </c>
+      <c r="D47" s="27">
+        <v>8</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="L47" s="27">
+        <v>22</v>
+      </c>
+      <c r="M47" s="27">
+        <v>21</v>
+      </c>
+      <c r="O47" s="27">
+        <v>74</v>
+      </c>
+      <c r="P47" s="27">
+        <v>18</v>
+      </c>
+      <c r="R47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="47"/>
+      <c r="C48" s="27">
+        <v>42</v>
+      </c>
+      <c r="D48" s="27">
+        <v>9</v>
+      </c>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="47"/>
+      <c r="C49" s="27">
+        <v>64</v>
+      </c>
+      <c r="D49" s="27">
+        <v>10</v>
+      </c>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="47"/>
+      <c r="C50" s="27">
+        <v>40</v>
+      </c>
+      <c r="D50" s="27">
+        <v>11</v>
+      </c>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="47"/>
+      <c r="C51" s="27">
+        <v>67</v>
+      </c>
+      <c r="D51" s="27">
+        <v>12</v>
+      </c>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="47"/>
+      <c r="C52" s="27">
+        <v>34</v>
+      </c>
+      <c r="D52" s="27">
+        <v>13</v>
+      </c>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="47"/>
+      <c r="C53" s="27">
+        <v>68</v>
+      </c>
+      <c r="D53" s="27">
+        <v>14</v>
+      </c>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="C54" s="27">
+        <v>30</v>
+      </c>
+      <c r="D54" s="27">
+        <v>15</v>
+      </c>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="47"/>
+      <c r="C55" s="27">
+        <v>69</v>
+      </c>
+      <c r="D55" s="27">
+        <v>16</v>
+      </c>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="C56" s="27">
+        <v>28</v>
+      </c>
+      <c r="D56" s="27">
+        <v>17</v>
+      </c>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="47"/>
+      <c r="C57" s="27">
+        <v>74</v>
+      </c>
+      <c r="D57" s="27">
+        <v>18</v>
+      </c>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="47"/>
+      <c r="C58" s="27">
+        <v>27</v>
+      </c>
+      <c r="D58" s="27">
+        <v>19</v>
+      </c>
+      <c r="E58" s="46"/>
+    </row>
+    <row r="59" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="C59" s="27">
+        <v>25</v>
+      </c>
+      <c r="D59" s="27">
+        <v>20</v>
+      </c>
+      <c r="E59" s="46"/>
+    </row>
+    <row r="60" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="47"/>
+      <c r="C60" s="27">
+        <v>22</v>
+      </c>
+      <c r="D60" s="27">
+        <v>21</v>
+      </c>
+      <c r="E60" s="46"/>
+    </row>
+    <row r="61" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="47"/>
+      <c r="E61" s="46"/>
+    </row>
+    <row r="62" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="47"/>
+      <c r="E62" s="46"/>
+    </row>
+    <row r="63" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="47"/>
+      <c r="C63" s="27" cm="1">
+        <f t="array" ref="C63:D83">_xlfn.LET(_xlpm.z,C40:D60,_xlfn.SORTBY(_xlpm.z,_xlfn.XMATCH(_xlfn.CHOOSECOLS(_xlpm.z,1),B3:B23)))</f>
+        <v>22</v>
+      </c>
+      <c r="D63" s="27">
+        <v>21</v>
+      </c>
+      <c r="E63" s="46"/>
+    </row>
+    <row r="64" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="47"/>
+      <c r="C64" s="27">
+        <v>25</v>
+      </c>
+      <c r="D64" s="27">
+        <v>20</v>
+      </c>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="47"/>
+      <c r="C65" s="27">
+        <v>27</v>
+      </c>
+      <c r="D65" s="27">
+        <v>19</v>
+      </c>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="47"/>
+      <c r="C66" s="27">
+        <v>28</v>
+      </c>
+      <c r="D66" s="27">
+        <v>17</v>
+      </c>
+      <c r="E66" s="46"/>
+    </row>
+    <row r="67" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="47"/>
+      <c r="C67" s="27">
+        <v>30</v>
+      </c>
+      <c r="D67" s="27">
+        <v>15</v>
+      </c>
+      <c r="E67" s="46"/>
+    </row>
+    <row r="68" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="47"/>
+      <c r="C68" s="27">
+        <v>34</v>
+      </c>
+      <c r="D68" s="27">
+        <v>13</v>
+      </c>
+      <c r="E68" s="46"/>
+    </row>
+    <row r="69" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="47"/>
+      <c r="C69" s="27">
+        <v>40</v>
+      </c>
+      <c r="D69" s="27">
+        <v>11</v>
+      </c>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="47"/>
+      <c r="C70" s="27">
+        <v>42</v>
+      </c>
+      <c r="D70" s="27">
+        <v>9</v>
+      </c>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="47"/>
+      <c r="C71" s="27">
+        <v>43</v>
+      </c>
+      <c r="D71" s="27">
+        <v>7</v>
+      </c>
+      <c r="E71" s="46"/>
+    </row>
+    <row r="72" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="47"/>
+      <c r="C72" s="27">
+        <v>44</v>
+      </c>
+      <c r="D72" s="27">
+        <v>5</v>
+      </c>
+      <c r="E72" s="46"/>
+    </row>
+    <row r="73" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="47"/>
+      <c r="C73" s="27">
+        <v>45</v>
+      </c>
+      <c r="D73" s="27">
+        <v>3</v>
+      </c>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="47"/>
+      <c r="C74" s="27">
+        <v>47</v>
+      </c>
+      <c r="D74" s="27">
+        <v>1</v>
+      </c>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="47"/>
+      <c r="C75" s="27">
+        <v>51</v>
+      </c>
+      <c r="D75" s="27">
+        <v>2</v>
+      </c>
+      <c r="E75" s="46"/>
+    </row>
+    <row r="76" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="47"/>
+      <c r="C76" s="27">
+        <v>52</v>
+      </c>
+      <c r="D76" s="27">
+        <v>4</v>
+      </c>
+      <c r="E76" s="46"/>
+    </row>
+    <row r="77" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="47"/>
+      <c r="C77" s="27">
+        <v>60</v>
+      </c>
+      <c r="D77" s="27">
+        <v>6</v>
+      </c>
+      <c r="E77" s="46"/>
+    </row>
+    <row r="78" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="47"/>
+      <c r="C78" s="27">
+        <v>63</v>
+      </c>
+      <c r="D78" s="27">
+        <v>8</v>
+      </c>
+      <c r="E78" s="46"/>
+    </row>
+    <row r="79" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="47"/>
+      <c r="C79" s="27">
+        <v>64</v>
+      </c>
+      <c r="D79" s="27">
+        <v>10</v>
+      </c>
+      <c r="E79" s="46"/>
+    </row>
+    <row r="80" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="47"/>
+      <c r="C80" s="27">
+        <v>67</v>
+      </c>
+      <c r="D80" s="27">
+        <v>12</v>
+      </c>
+      <c r="E80" s="46"/>
+    </row>
+    <row r="81" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="47"/>
+      <c r="C81" s="27">
+        <v>68</v>
+      </c>
+      <c r="D81" s="27">
+        <v>14</v>
+      </c>
+      <c r="E81" s="46"/>
+    </row>
+    <row r="82" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="47"/>
+      <c r="C82" s="27">
+        <v>69</v>
+      </c>
+      <c r="D82" s="27">
+        <v>16</v>
+      </c>
+      <c r="E82" s="46"/>
+    </row>
+    <row r="83" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="47"/>
+      <c r="C83" s="27">
+        <v>74</v>
+      </c>
+      <c r="D83" s="27">
+        <v>18</v>
+      </c>
+      <c r="E83" s="46"/>
+    </row>
+    <row r="84" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="47"/>
+      <c r="E84" s="46"/>
+    </row>
+    <row r="85" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="47"/>
+      <c r="E85" s="46"/>
+    </row>
+    <row r="86" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="47"/>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="47"/>
+      <c r="E87" s="46"/>
+    </row>
+    <row r="88" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="47"/>
+      <c r="E88" s="46"/>
+    </row>
+    <row r="89" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="47"/>
+      <c r="E89" s="46"/>
+    </row>
+    <row r="90" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="47"/>
+      <c r="E90" s="46"/>
+    </row>
+    <row r="91" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="47"/>
+      <c r="E91" s="46"/>
+    </row>
+    <row r="92" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="47"/>
+      <c r="E92" s="46"/>
+    </row>
+    <row r="93" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="47"/>
+      <c r="E93" s="46"/>
+    </row>
+    <row r="94" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="47"/>
+      <c r="E94" s="46"/>
+    </row>
+    <row r="95" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="47"/>
+      <c r="E95" s="46"/>
+    </row>
+    <row r="96" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="47"/>
+      <c r="E96" s="46"/>
+    </row>
+    <row r="97" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="47"/>
+      <c r="E97" s="46"/>
+    </row>
+    <row r="98" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="47"/>
+      <c r="E98" s="46"/>
+    </row>
+    <row r="99" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="47"/>
+      <c r="E99" s="46"/>
+    </row>
+    <row r="100" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="47"/>
+      <c r="E100" s="46"/>
+    </row>
+    <row r="101" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="47"/>
+      <c r="E101" s="46"/>
+    </row>
+    <row r="102" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="47"/>
+      <c r="E102" s="46"/>
+    </row>
+    <row r="103" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="47"/>
+      <c r="E103" s="46"/>
+    </row>
+    <row r="104" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="47"/>
+      <c r="E104" s="46"/>
+    </row>
+    <row r="105" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="47"/>
+      <c r="E105" s="46"/>
+    </row>
+    <row r="106" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="47"/>
+      <c r="E106" s="46"/>
+    </row>
+    <row r="107" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="47"/>
+      <c r="E107" s="46"/>
+    </row>
+    <row r="108" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="47"/>
+      <c r="E108" s="46"/>
+    </row>
+    <row r="109" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="47"/>
+      <c r="E109" s="46"/>
+    </row>
+    <row r="110" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="47"/>
+      <c r="E110" s="46"/>
+    </row>
+    <row r="111" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="47"/>
+      <c r="E111" s="46"/>
+    </row>
+    <row r="112" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="47"/>
+      <c r="E112" s="46"/>
+    </row>
+    <row r="113" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="47"/>
+      <c r="E113" s="46"/>
+    </row>
+    <row r="114" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="47"/>
+      <c r="E114" s="46"/>
+    </row>
+    <row r="115" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="47"/>
+      <c r="E115" s="46"/>
+    </row>
+    <row r="116" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="47"/>
+      <c r="E116" s="46"/>
+    </row>
+    <row r="117" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="47"/>
+      <c r="E117" s="46"/>
+    </row>
+    <row r="118" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="47"/>
+      <c r="E118" s="46"/>
+    </row>
+    <row r="119" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="47"/>
+      <c r="E119" s="46"/>
+    </row>
+    <row r="120" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="47"/>
+      <c r="E120" s="46"/>
+    </row>
+    <row r="121" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="47"/>
+      <c r="E121" s="46"/>
+    </row>
+    <row r="122" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="47"/>
+      <c r="E122" s="46"/>
+    </row>
+    <row r="123" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="47"/>
+      <c r="E123" s="46"/>
+    </row>
+    <row r="124" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="47"/>
+      <c r="E124" s="46"/>
+    </row>
+    <row r="125" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="47"/>
+      <c r="E125" s="46"/>
+    </row>
+    <row r="126" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="47"/>
+      <c r="E126" s="46"/>
+    </row>
+    <row r="127" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="47"/>
+      <c r="E127" s="46"/>
+    </row>
+    <row r="128" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="47"/>
+      <c r="E128" s="46"/>
+    </row>
+    <row r="129" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="47"/>
+      <c r="E129" s="46"/>
+    </row>
+    <row r="130" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="47"/>
+      <c r="E130" s="46"/>
+    </row>
+    <row r="131" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="47"/>
+      <c r="E131" s="46"/>
+    </row>
+    <row r="132" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="47"/>
+      <c r="E132" s="46"/>
+    </row>
+    <row r="133" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="47"/>
+      <c r="E133" s="46"/>
+    </row>
+    <row r="134" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="47"/>
+      <c r="E134" s="46"/>
+    </row>
+    <row r="135" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="47"/>
+      <c r="E135" s="46"/>
+    </row>
+    <row r="136" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="47"/>
+      <c r="E136" s="46"/>
+    </row>
+    <row r="137" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="47"/>
+      <c r="E137" s="46"/>
+    </row>
+    <row r="138" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="47"/>
+      <c r="E138" s="46"/>
+    </row>
+    <row r="139" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="47"/>
+      <c r="E139" s="46"/>
+    </row>
+    <row r="140" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="47"/>
+      <c r="E140" s="46"/>
+    </row>
+    <row r="141" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="47"/>
+      <c r="E141" s="46"/>
+    </row>
+    <row r="142" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="47"/>
+      <c r="E142" s="46"/>
+    </row>
+    <row r="143" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="47"/>
+      <c r="E143" s="46"/>
+    </row>
+    <row r="144" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="47"/>
+      <c r="E144" s="46"/>
+    </row>
+    <row r="145" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="47"/>
+      <c r="E145" s="46"/>
+    </row>
+    <row r="146" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="47"/>
+      <c r="E146" s="46"/>
+    </row>
+    <row r="147" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="47"/>
+      <c r="E147" s="46"/>
+    </row>
+    <row r="148" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="47"/>
+      <c r="E148" s="46"/>
+    </row>
+    <row r="149" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="47"/>
+      <c r="E149" s="46"/>
+    </row>
+    <row r="150" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="47"/>
+      <c r="E150" s="46"/>
+    </row>
+    <row r="151" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="47"/>
+      <c r="E151" s="46"/>
+    </row>
+    <row r="152" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="47"/>
+      <c r="E152" s="46"/>
+    </row>
+    <row r="153" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="47"/>
+      <c r="E153" s="46"/>
+    </row>
+    <row r="154" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="47"/>
+      <c r="E154" s="46"/>
+    </row>
+    <row r="155" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="47"/>
+      <c r="E155" s="46"/>
+    </row>
+    <row r="156" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="47"/>
+      <c r="E156" s="46"/>
+    </row>
+    <row r="157" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="47"/>
+      <c r="E157" s="46"/>
+    </row>
+    <row r="158" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="47"/>
+      <c r="E158" s="46"/>
+    </row>
+    <row r="159" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="47"/>
+      <c r="E159" s="46"/>
+    </row>
+    <row r="160" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="47"/>
+      <c r="E160" s="46"/>
+    </row>
+    <row r="161" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="47"/>
+      <c r="E161" s="46"/>
+    </row>
+    <row r="162" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="47"/>
+      <c r="E162" s="46"/>
+    </row>
+    <row r="163" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="47"/>
+      <c r="E163" s="46"/>
+    </row>
+    <row r="164" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="47"/>
+      <c r="E164" s="46"/>
+    </row>
+    <row r="165" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="47"/>
+      <c r="E165" s="46"/>
+    </row>
+    <row r="166" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="47"/>
+      <c r="E166" s="46"/>
+    </row>
+    <row r="167" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="47"/>
+      <c r="E167" s="46"/>
+    </row>
+    <row r="168" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="47"/>
+      <c r="E168" s="46"/>
+    </row>
+    <row r="169" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="47"/>
+      <c r="E169" s="46"/>
+    </row>
+    <row r="170" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="47"/>
+      <c r="E170" s="46"/>
+    </row>
+    <row r="171" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="47"/>
+      <c r="E171" s="46"/>
+    </row>
+    <row r="172" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="47"/>
+      <c r="E172" s="46"/>
+    </row>
+    <row r="173" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="47"/>
+      <c r="E173" s="46"/>
+    </row>
+    <row r="174" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="47"/>
+      <c r="E174" s="46"/>
+    </row>
+    <row r="175" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="47"/>
+      <c r="E175" s="46"/>
+    </row>
+    <row r="176" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="47"/>
+      <c r="E176" s="46"/>
+    </row>
+    <row r="177" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="47"/>
+      <c r="E177" s="46"/>
+    </row>
+    <row r="178" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="47"/>
+      <c r="E178" s="46"/>
+    </row>
+    <row r="179" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="47"/>
+      <c r="E179" s="46"/>
+    </row>
+    <row r="180" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="47"/>
+      <c r="E180" s="46"/>
+    </row>
+    <row r="181" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="47"/>
+      <c r="E181" s="46"/>
+    </row>
+    <row r="182" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="47"/>
+      <c r="E182" s="46"/>
+    </row>
+    <row r="183" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="47"/>
+      <c r="E183" s="46"/>
+    </row>
+    <row r="184" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="47"/>
+      <c r="E184" s="46"/>
+    </row>
+    <row r="185" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="47"/>
+      <c r="E185" s="46"/>
+    </row>
+    <row r="186" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="47"/>
+      <c r="E186" s="46"/>
+    </row>
+    <row r="187" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="47"/>
+      <c r="E187" s="46"/>
+    </row>
+    <row r="188" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="47"/>
+      <c r="E188" s="46"/>
+    </row>
+    <row r="189" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="47"/>
+      <c r="E189" s="46"/>
+    </row>
+    <row r="190" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="47"/>
+      <c r="E190" s="46"/>
+    </row>
+    <row r="191" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="47"/>
+      <c r="E191" s="46"/>
+    </row>
+    <row r="192" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="47"/>
+      <c r="E192" s="46"/>
+    </row>
+    <row r="193" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="47"/>
+      <c r="E193" s="46"/>
+    </row>
+    <row r="194" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="47"/>
+      <c r="E194" s="46"/>
+    </row>
+    <row r="195" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="47"/>
+      <c r="E195" s="46"/>
+    </row>
+    <row r="196" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="47"/>
+      <c r="E196" s="46"/>
+    </row>
+    <row r="197" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="47"/>
+      <c r="E197" s="46"/>
+    </row>
+    <row r="198" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="47"/>
+      <c r="E198" s="46"/>
+    </row>
+    <row r="199" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="47"/>
+      <c r="E199" s="46"/>
+    </row>
+    <row r="200" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="47"/>
+      <c r="E200" s="46"/>
+    </row>
+    <row r="201" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="47"/>
+      <c r="E201" s="46"/>
+    </row>
+    <row r="202" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="47"/>
+      <c r="E202" s="46"/>
+    </row>
+    <row r="203" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="47"/>
+      <c r="E203" s="46"/>
+    </row>
+    <row r="204" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="47"/>
+      <c r="E204" s="46"/>
+    </row>
+    <row r="205" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="47"/>
+      <c r="E205" s="46"/>
+    </row>
+    <row r="206" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="47"/>
+      <c r="E206" s="46"/>
+    </row>
+    <row r="207" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="47"/>
+      <c r="E207" s="46"/>
+    </row>
+    <row r="208" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="47"/>
+      <c r="E208" s="46"/>
+    </row>
+    <row r="209" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="47"/>
+      <c r="E209" s="46"/>
+    </row>
+    <row r="210" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="47"/>
+      <c r="E210" s="46"/>
+    </row>
+    <row r="211" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="47"/>
+      <c r="E211" s="46"/>
+    </row>
+    <row r="212" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="47"/>
+      <c r="E212" s="46"/>
+    </row>
+    <row r="213" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="47"/>
+      <c r="E213" s="46"/>
+    </row>
+    <row r="214" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="47"/>
+      <c r="E214" s="46"/>
+    </row>
+    <row r="215" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="47"/>
+      <c r="E215" s="46"/>
+    </row>
+    <row r="216" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="47"/>
+      <c r="E216" s="46"/>
+    </row>
+    <row r="217" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="47"/>
+      <c r="E217" s="46"/>
+    </row>
+    <row r="218" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="47"/>
+      <c r="E218" s="46"/>
+    </row>
+    <row r="219" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="47"/>
+      <c r="E219" s="46"/>
+    </row>
+    <row r="220" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="47"/>
+      <c r="E220" s="46"/>
+    </row>
+    <row r="221" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="47"/>
+      <c r="E221" s="46"/>
+    </row>
+    <row r="222" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="47"/>
+      <c r="E222" s="46"/>
+    </row>
+    <row r="223" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="47"/>
+      <c r="E223" s="46"/>
+    </row>
+    <row r="224" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="47"/>
+      <c r="E224" s="46"/>
+    </row>
+    <row r="225" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="47"/>
+      <c r="E225" s="46"/>
+    </row>
+    <row r="226" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="47"/>
+      <c r="E226" s="46"/>
+    </row>
+    <row r="227" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="47"/>
+      <c r="E227" s="46"/>
+    </row>
+    <row r="228" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="47"/>
+      <c r="E228" s="46"/>
+    </row>
+    <row r="229" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="47"/>
+      <c r="E229" s="46"/>
+    </row>
+    <row r="230" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="47"/>
+      <c r="E230" s="46"/>
+    </row>
+    <row r="231" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="47"/>
+      <c r="E231" s="46"/>
+    </row>
+    <row r="232" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="47"/>
+      <c r="E232" s="46"/>
+    </row>
+    <row r="233" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="47"/>
+      <c r="E233" s="46"/>
+    </row>
+    <row r="234" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="47"/>
+      <c r="E234" s="46"/>
+    </row>
+    <row r="235" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="47"/>
+      <c r="E235" s="46"/>
+    </row>
+    <row r="236" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="47"/>
+      <c r="E236" s="46"/>
+    </row>
+    <row r="237" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="47"/>
+      <c r="E237" s="46"/>
+    </row>
+    <row r="238" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="47"/>
+      <c r="E238" s="46"/>
+    </row>
+    <row r="239" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="47"/>
+      <c r="E239" s="46"/>
+    </row>
+    <row r="240" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="47"/>
+      <c r="E240" s="46"/>
+    </row>
+    <row r="241" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="47"/>
+      <c r="E241" s="46"/>
+    </row>
+    <row r="242" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="47"/>
+      <c r="E242" s="46"/>
+    </row>
+    <row r="243" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="47"/>
+      <c r="E243" s="46"/>
+    </row>
+    <row r="244" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="47"/>
+      <c r="E244" s="46"/>
+    </row>
+    <row r="245" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="47"/>
+      <c r="E245" s="46"/>
+    </row>
+    <row r="246" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="47"/>
+      <c r="E246" s="46"/>
+    </row>
+    <row r="247" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="47"/>
+      <c r="E247" s="46"/>
+    </row>
+    <row r="248" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="47"/>
+      <c r="E248" s="46"/>
+    </row>
+    <row r="249" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="47"/>
+      <c r="E249" s="46"/>
+    </row>
+    <row r="250" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="47"/>
+      <c r="E250" s="46"/>
+    </row>
+    <row r="251" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="47"/>
+      <c r="E251" s="46"/>
+    </row>
+    <row r="252" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="47"/>
+      <c r="E252" s="46"/>
+    </row>
+    <row r="253" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="47"/>
+      <c r="E253" s="46"/>
+    </row>
+    <row r="254" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="47"/>
+      <c r="E254" s="46"/>
+    </row>
+    <row r="255" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="47"/>
+      <c r="E255" s="46"/>
+    </row>
+    <row r="256" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="47"/>
+      <c r="E256" s="46"/>
+    </row>
+    <row r="257" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="47"/>
+      <c r="E257" s="46"/>
+    </row>
+    <row r="258" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="47"/>
+      <c r="E258" s="46"/>
+    </row>
+    <row r="259" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="47"/>
+      <c r="E259" s="46"/>
+    </row>
+    <row r="260" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="47"/>
+      <c r="E260" s="46"/>
+    </row>
+    <row r="261" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="47"/>
+      <c r="E261" s="46"/>
+    </row>
+    <row r="262" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="47"/>
+      <c r="E262" s="46"/>
+    </row>
+    <row r="263" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="47"/>
+      <c r="E263" s="46"/>
+    </row>
+    <row r="264" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="47"/>
+      <c r="E264" s="46"/>
+    </row>
+    <row r="265" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="47"/>
+      <c r="E265" s="46"/>
+    </row>
+    <row r="266" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="47"/>
+      <c r="E266" s="46"/>
+    </row>
+    <row r="267" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="47"/>
+      <c r="E267" s="46"/>
+    </row>
+    <row r="268" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="47"/>
+      <c r="E268" s="46"/>
+    </row>
+    <row r="269" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="47"/>
+      <c r="E269" s="46"/>
+    </row>
+    <row r="270" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="47"/>
+      <c r="E270" s="46"/>
+    </row>
+    <row r="271" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="47"/>
+      <c r="E271" s="46"/>
+    </row>
+    <row r="272" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="47"/>
+      <c r="E272" s="46"/>
+    </row>
+    <row r="273" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="47"/>
+      <c r="E273" s="46"/>
+    </row>
+    <row r="274" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="47"/>
+      <c r="E274" s="46"/>
+    </row>
+    <row r="275" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="47"/>
+      <c r="E275" s="46"/>
+    </row>
+    <row r="276" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="47"/>
+      <c r="E276" s="46"/>
+    </row>
+    <row r="277" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="47"/>
+      <c r="E277" s="46"/>
+    </row>
+    <row r="278" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="47"/>
+      <c r="E278" s="46"/>
+    </row>
+    <row r="279" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="47"/>
+      <c r="E279" s="46"/>
+    </row>
+    <row r="280" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="47"/>
+      <c r="E280" s="46"/>
+    </row>
+    <row r="281" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="47"/>
+      <c r="E281" s="46"/>
+    </row>
+    <row r="282" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="47"/>
+      <c r="E282" s="46"/>
+    </row>
+    <row r="283" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="47"/>
+      <c r="E283" s="46"/>
+    </row>
+    <row r="284" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="47"/>
+      <c r="E284" s="46"/>
+    </row>
+    <row r="285" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="47"/>
+      <c r="E285" s="46"/>
+    </row>
+    <row r="286" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="47"/>
+      <c r="E286" s="46"/>
+    </row>
+    <row r="287" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="47"/>
+      <c r="E287" s="46"/>
+    </row>
+    <row r="288" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="47"/>
+      <c r="E288" s="46"/>
+    </row>
+    <row r="289" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="47"/>
+      <c r="E289" s="46"/>
+    </row>
+    <row r="290" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="47"/>
+      <c r="E290" s="46"/>
+    </row>
+    <row r="291" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="47"/>
+      <c r="E291" s="46"/>
+    </row>
+    <row r="292" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="47"/>
+      <c r="E292" s="46"/>
+    </row>
+    <row r="293" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="47"/>
+      <c r="E293" s="46"/>
+    </row>
+    <row r="294" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="47"/>
+      <c r="E294" s="46"/>
+    </row>
+    <row r="295" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="47"/>
+      <c r="E295" s="46"/>
+    </row>
+    <row r="296" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="47"/>
+      <c r="E296" s="46"/>
+    </row>
+    <row r="297" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="47"/>
+      <c r="E297" s="46"/>
+    </row>
+    <row r="298" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="47"/>
+      <c r="E298" s="46"/>
+    </row>
+    <row r="299" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="47"/>
+      <c r="E299" s="46"/>
+    </row>
+    <row r="300" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="47"/>
+      <c r="E300" s="46"/>
+    </row>
+    <row r="301" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="47"/>
+      <c r="E301" s="46"/>
+    </row>
+    <row r="302" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="47"/>
+      <c r="E302" s="46"/>
+    </row>
+    <row r="303" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="47"/>
+      <c r="E303" s="46"/>
+    </row>
+    <row r="304" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="47"/>
+      <c r="E304" s="46"/>
+    </row>
+    <row r="305" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="47"/>
+      <c r="E305" s="46"/>
+    </row>
+    <row r="306" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="47"/>
+      <c r="E306" s="46"/>
+    </row>
+    <row r="307" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="47"/>
+      <c r="E307" s="46"/>
+    </row>
+    <row r="308" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="47"/>
+      <c r="E308" s="46"/>
+    </row>
+    <row r="309" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="47"/>
+      <c r="E309" s="46"/>
+    </row>
+    <row r="310" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="47"/>
+      <c r="E310" s="46"/>
+    </row>
+    <row r="311" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="47"/>
+      <c r="E311" s="46"/>
+    </row>
+    <row r="312" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="47"/>
+      <c r="E312" s="46"/>
+    </row>
+    <row r="313" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="47"/>
+      <c r="E313" s="46"/>
+    </row>
+    <row r="314" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="47"/>
+      <c r="E314" s="46"/>
+    </row>
+    <row r="315" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="47"/>
+      <c r="E315" s="46"/>
+    </row>
+    <row r="316" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="47"/>
+      <c r="E316" s="46"/>
+    </row>
+    <row r="317" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="47"/>
+      <c r="E317" s="46"/>
+    </row>
+    <row r="318" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="47"/>
+      <c r="E318" s="46"/>
+    </row>
+    <row r="319" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="47"/>
+      <c r="E319" s="46"/>
+    </row>
+    <row r="320" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="47"/>
+      <c r="E320" s="46"/>
+    </row>
+    <row r="321" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="47"/>
+      <c r="E321" s="46"/>
+    </row>
+    <row r="322" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="47"/>
+      <c r="E322" s="46"/>
+    </row>
+    <row r="323" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="47"/>
+      <c r="E323" s="46"/>
+    </row>
+    <row r="324" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="47"/>
+      <c r="E324" s="46"/>
+    </row>
+    <row r="325" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="47"/>
+      <c r="E325" s="46"/>
+    </row>
+    <row r="326" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="47"/>
+      <c r="E326" s="46"/>
+    </row>
+    <row r="327" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="47"/>
+      <c r="E327" s="46"/>
+    </row>
+    <row r="328" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="47"/>
+      <c r="E328" s="46"/>
+    </row>
+    <row r="329" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="47"/>
+      <c r="E329" s="46"/>
+    </row>
+    <row r="330" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="47"/>
+      <c r="E330" s="46"/>
+    </row>
+    <row r="331" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="47"/>
+      <c r="E331" s="46"/>
+    </row>
+    <row r="332" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="47"/>
+      <c r="E332" s="46"/>
+    </row>
+    <row r="333" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="47"/>
+      <c r="E333" s="46"/>
+    </row>
+    <row r="334" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="47"/>
+      <c r="E334" s="46"/>
+    </row>
+    <row r="335" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="47"/>
+      <c r="E335" s="46"/>
+    </row>
+    <row r="336" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="47"/>
+      <c r="E336" s="46"/>
+    </row>
+    <row r="337" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="47"/>
+      <c r="E337" s="46"/>
+    </row>
+    <row r="338" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="47"/>
+      <c r="E338" s="46"/>
+    </row>
+    <row r="339" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="47"/>
+      <c r="E339" s="46"/>
+    </row>
+    <row r="340" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="47"/>
+      <c r="E340" s="46"/>
+    </row>
+    <row r="341" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="47"/>
+      <c r="E341" s="46"/>
+    </row>
+    <row r="342" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="47"/>
+      <c r="E342" s="46"/>
+    </row>
+    <row r="343" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="47"/>
+      <c r="E343" s="46"/>
+    </row>
+    <row r="344" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="47"/>
+      <c r="E344" s="46"/>
+    </row>
+    <row r="345" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="47"/>
+      <c r="E345" s="46"/>
+    </row>
+    <row r="346" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="47"/>
+      <c r="E346" s="46"/>
+    </row>
+    <row r="347" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="47"/>
+      <c r="E347" s="46"/>
+    </row>
+    <row r="348" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="47"/>
+      <c r="E348" s="46"/>
+    </row>
+    <row r="349" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="47"/>
+      <c r="E349" s="46"/>
+    </row>
+    <row r="350" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="47"/>
+      <c r="E350" s="46"/>
+    </row>
+    <row r="351" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="47"/>
+      <c r="E351" s="46"/>
+    </row>
+    <row r="352" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="47"/>
+      <c r="E352" s="46"/>
+    </row>
+    <row r="353" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="47"/>
+      <c r="E353" s="46"/>
+    </row>
+    <row r="354" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="47"/>
+      <c r="E354" s="46"/>
+    </row>
+    <row r="355" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="47"/>
+      <c r="E355" s="46"/>
+    </row>
+    <row r="356" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="47"/>
+      <c r="E356" s="46"/>
+    </row>
+    <row r="357" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="47"/>
+      <c r="E357" s="46"/>
+    </row>
+    <row r="358" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="47"/>
+      <c r="E358" s="46"/>
+    </row>
+    <row r="359" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="47"/>
+      <c r="E359" s="46"/>
+    </row>
+    <row r="360" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="47"/>
+      <c r="E360" s="46"/>
+    </row>
+    <row r="361" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="47"/>
+      <c r="E361" s="46"/>
+    </row>
+    <row r="362" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="47"/>
+      <c r="E362" s="46"/>
+    </row>
+    <row r="363" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="47"/>
+      <c r="E363" s="46"/>
+    </row>
+    <row r="364" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="47"/>
+      <c r="E364" s="46"/>
+    </row>
+    <row r="365" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="47"/>
+      <c r="E365" s="46"/>
+    </row>
+    <row r="366" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="47"/>
+      <c r="E366" s="46"/>
+    </row>
+    <row r="367" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="47"/>
+      <c r="E367" s="46"/>
+    </row>
+    <row r="368" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="47"/>
+      <c r="E368" s="46"/>
+    </row>
+    <row r="369" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="47"/>
+      <c r="E369" s="46"/>
+    </row>
+    <row r="370" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="47"/>
+      <c r="E370" s="46"/>
+    </row>
+    <row r="371" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="47"/>
+      <c r="E371" s="46"/>
+    </row>
+    <row r="372" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="47"/>
+      <c r="E372" s="46"/>
+    </row>
+    <row r="373" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="47"/>
+      <c r="E373" s="46"/>
+    </row>
+    <row r="374" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="47"/>
+      <c r="E374" s="46"/>
+    </row>
+    <row r="375" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="47"/>
+      <c r="E375" s="46"/>
+    </row>
+    <row r="376" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="47"/>
+      <c r="E376" s="46"/>
+    </row>
+    <row r="377" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="47"/>
+      <c r="E377" s="46"/>
+    </row>
+    <row r="378" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="47"/>
+      <c r="E378" s="46"/>
+    </row>
+    <row r="379" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="47"/>
+      <c r="E379" s="46"/>
+    </row>
+    <row r="380" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="47"/>
+      <c r="E380" s="46"/>
+    </row>
+    <row r="381" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="47"/>
+      <c r="E381" s="46"/>
+    </row>
+    <row r="382" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="47"/>
+      <c r="E382" s="46"/>
+    </row>
+    <row r="383" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="47"/>
+      <c r="E383" s="46"/>
+    </row>
+    <row r="384" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="47"/>
+      <c r="E384" s="46"/>
+    </row>
+    <row r="385" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="47"/>
+      <c r="E385" s="46"/>
+    </row>
+    <row r="386" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="47"/>
+      <c r="E386" s="46"/>
+    </row>
+    <row r="387" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="47"/>
+      <c r="E387" s="46"/>
+    </row>
+    <row r="388" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="47"/>
+      <c r="E388" s="46"/>
+    </row>
+    <row r="389" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="47"/>
+      <c r="E389" s="46"/>
+    </row>
+    <row r="390" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="47"/>
+      <c r="E390" s="46"/>
+    </row>
+    <row r="391" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="47"/>
+      <c r="E391" s="46"/>
+    </row>
+    <row r="392" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="47"/>
+      <c r="E392" s="46"/>
+    </row>
+    <row r="393" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="47"/>
+      <c r="E393" s="46"/>
+    </row>
+    <row r="394" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="47"/>
+      <c r="E394" s="46"/>
+    </row>
+    <row r="395" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="47"/>
+      <c r="E395" s="46"/>
+    </row>
+    <row r="396" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="47"/>
+      <c r="E396" s="46"/>
+    </row>
+    <row r="397" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="47"/>
+      <c r="E397" s="46"/>
+    </row>
+    <row r="398" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="47"/>
+      <c r="E398" s="46"/>
+    </row>
+    <row r="399" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="47"/>
+      <c r="E399" s="46"/>
+    </row>
+    <row r="400" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="47"/>
+      <c r="E400" s="46"/>
+    </row>
+    <row r="401" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="47"/>
+      <c r="E401" s="46"/>
+    </row>
+    <row r="402" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="47"/>
+      <c r="E402" s="46"/>
+    </row>
+    <row r="403" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="47"/>
+      <c r="E403" s="46"/>
+    </row>
+    <row r="404" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="47"/>
+      <c r="E404" s="46"/>
+    </row>
+    <row r="405" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="47"/>
+      <c r="E405" s="46"/>
+    </row>
+    <row r="406" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="47"/>
+      <c r="E406" s="46"/>
+    </row>
+    <row r="407" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="47"/>
+      <c r="E407" s="46"/>
+    </row>
+    <row r="408" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="47"/>
+      <c r="E408" s="46"/>
+    </row>
+    <row r="409" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="47"/>
+      <c r="E409" s="46"/>
+    </row>
+    <row r="410" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="47"/>
+      <c r="E410" s="46"/>
+    </row>
+    <row r="411" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="47"/>
+      <c r="E411" s="46"/>
+    </row>
+    <row r="412" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="47"/>
+      <c r="E412" s="46"/>
+    </row>
+    <row r="413" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="47"/>
+      <c r="E413" s="46"/>
+    </row>
+    <row r="414" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="47"/>
+      <c r="E414" s="46"/>
+    </row>
+    <row r="415" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="47"/>
+      <c r="E415" s="46"/>
+    </row>
+    <row r="416" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="47"/>
+      <c r="E416" s="46"/>
+    </row>
+    <row r="417" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="47"/>
+      <c r="E417" s="46"/>
+    </row>
+    <row r="418" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="47"/>
+      <c r="E418" s="46"/>
+    </row>
+    <row r="419" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="47"/>
+      <c r="E419" s="46"/>
+    </row>
+    <row r="420" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="47"/>
+      <c r="E420" s="46"/>
+    </row>
+    <row r="421" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="47"/>
+      <c r="E421" s="46"/>
+    </row>
+    <row r="422" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="47"/>
+      <c r="E422" s="46"/>
+    </row>
+    <row r="423" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="47"/>
+      <c r="E423" s="46"/>
+    </row>
+    <row r="424" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="47"/>
+      <c r="E424" s="46"/>
+    </row>
+    <row r="425" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="47"/>
+      <c r="E425" s="46"/>
+    </row>
+    <row r="426" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="47"/>
+      <c r="E426" s="46"/>
+    </row>
+    <row r="427" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="47"/>
+      <c r="E427" s="46"/>
+    </row>
+    <row r="428" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="47"/>
+      <c r="E428" s="46"/>
+    </row>
+    <row r="429" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="47"/>
+      <c r="E429" s="46"/>
+    </row>
+    <row r="430" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="47"/>
+      <c r="E430" s="46"/>
+    </row>
+    <row r="431" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="47"/>
+      <c r="E431" s="46"/>
+    </row>
+    <row r="432" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="47"/>
+      <c r="E432" s="46"/>
+    </row>
+    <row r="433" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="47"/>
+      <c r="E433" s="46"/>
+    </row>
+    <row r="434" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="47"/>
+      <c r="E434" s="46"/>
+    </row>
+    <row r="435" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="47"/>
+      <c r="E435" s="46"/>
+    </row>
+    <row r="436" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="47"/>
+      <c r="E436" s="46"/>
+    </row>
+    <row r="437" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="47"/>
+      <c r="E437" s="46"/>
+    </row>
+    <row r="438" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="47"/>
+      <c r="E438" s="46"/>
+    </row>
+    <row r="439" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="47"/>
+      <c r="E439" s="46"/>
+    </row>
+    <row r="440" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="47"/>
+      <c r="E440" s="46"/>
+    </row>
+    <row r="441" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="47"/>
+      <c r="E441" s="46"/>
+    </row>
+    <row r="442" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="47"/>
+      <c r="E442" s="46"/>
+    </row>
+    <row r="443" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="47"/>
+      <c r="E443" s="46"/>
+    </row>
+    <row r="444" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="47"/>
+      <c r="E444" s="46"/>
+    </row>
+    <row r="445" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="47"/>
+      <c r="E445" s="46"/>
+    </row>
+    <row r="446" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="47"/>
+      <c r="E446" s="46"/>
+    </row>
+    <row r="447" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="47"/>
+      <c r="E447" s="46"/>
+    </row>
+    <row r="448" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="47"/>
+      <c r="E448" s="46"/>
+    </row>
+    <row r="449" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="47"/>
+      <c r="E449" s="46"/>
+    </row>
+    <row r="450" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="47"/>
+      <c r="E450" s="46"/>
+    </row>
+    <row r="451" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="47"/>
+      <c r="E451" s="46"/>
+    </row>
+    <row r="452" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="47"/>
+      <c r="E452" s="46"/>
+    </row>
+    <row r="453" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="47"/>
+      <c r="E453" s="46"/>
+    </row>
+    <row r="454" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="47"/>
+      <c r="E454" s="46"/>
+    </row>
+    <row r="455" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="47"/>
+      <c r="E455" s="46"/>
+    </row>
+    <row r="456" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="47"/>
+      <c r="E456" s="46"/>
+    </row>
+    <row r="457" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="47"/>
+      <c r="E457" s="46"/>
+    </row>
+    <row r="458" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="47"/>
+      <c r="E458" s="46"/>
+    </row>
+    <row r="459" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="47"/>
+      <c r="E459" s="46"/>
+    </row>
+    <row r="460" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="47"/>
+      <c r="E460" s="46"/>
+    </row>
+    <row r="461" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="47"/>
+      <c r="E461" s="46"/>
+    </row>
+    <row r="462" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="47"/>
+      <c r="E462" s="46"/>
+    </row>
+    <row r="463" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="47"/>
+      <c r="E463" s="46"/>
+    </row>
+    <row r="464" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="47"/>
+      <c r="E464" s="46"/>
+    </row>
+    <row r="465" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="47"/>
+      <c r="E465" s="46"/>
+    </row>
+    <row r="466" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="47"/>
+      <c r="E466" s="46"/>
+    </row>
+    <row r="467" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="47"/>
+      <c r="E467" s="46"/>
+    </row>
+    <row r="468" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="47"/>
+      <c r="E468" s="46"/>
+    </row>
+    <row r="469" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="47"/>
+      <c r="E469" s="46"/>
+    </row>
+    <row r="470" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="47"/>
+      <c r="E470" s="46"/>
+    </row>
+    <row r="471" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="47"/>
+      <c r="E471" s="46"/>
+    </row>
+    <row r="472" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="47"/>
+      <c r="E472" s="46"/>
+    </row>
+    <row r="473" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="47"/>
+      <c r="E473" s="46"/>
+    </row>
+    <row r="474" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="47"/>
+      <c r="E474" s="46"/>
+    </row>
+    <row r="475" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="47"/>
+      <c r="E475" s="46"/>
+    </row>
+    <row r="476" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="47"/>
+      <c r="E476" s="46"/>
+    </row>
+    <row r="477" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="47"/>
+      <c r="E477" s="46"/>
+    </row>
+    <row r="478" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="47"/>
+      <c r="E478" s="46"/>
+    </row>
+    <row r="479" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="47"/>
+      <c r="E479" s="46"/>
+    </row>
+    <row r="480" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="47"/>
+      <c r="E480" s="46"/>
+    </row>
+    <row r="481" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="47"/>
+      <c r="E481" s="46"/>
+    </row>
+    <row r="482" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="47"/>
+      <c r="E482" s="46"/>
+    </row>
+    <row r="483" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="47"/>
+      <c r="E483" s="46"/>
+    </row>
+    <row r="484" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="47"/>
+      <c r="E484" s="46"/>
+    </row>
+    <row r="485" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="47"/>
+      <c r="E485" s="46"/>
+    </row>
+    <row r="486" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="47"/>
+      <c r="E486" s="46"/>
+    </row>
+    <row r="487" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="47"/>
+      <c r="E487" s="46"/>
+    </row>
+    <row r="488" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="47"/>
+      <c r="E488" s="46"/>
+    </row>
+    <row r="489" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="47"/>
+      <c r="E489" s="46"/>
+    </row>
+    <row r="490" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="47"/>
+      <c r="E490" s="46"/>
+    </row>
+    <row r="491" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="47"/>
+      <c r="E491" s="46"/>
+    </row>
+    <row r="492" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="47"/>
+      <c r="E492" s="46"/>
+    </row>
+    <row r="493" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="47"/>
+      <c r="E493" s="46"/>
+    </row>
+    <row r="494" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="47"/>
+      <c r="E494" s="46"/>
+    </row>
+    <row r="495" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="47"/>
+      <c r="E495" s="46"/>
+    </row>
+    <row r="496" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="47"/>
+      <c r="E496" s="46"/>
+    </row>
+    <row r="497" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="47"/>
+      <c r="E497" s="46"/>
+    </row>
+    <row r="498" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="47"/>
+      <c r="E498" s="46"/>
+    </row>
+    <row r="499" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="47"/>
+      <c r="E499" s="46"/>
+    </row>
+    <row r="500" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="47"/>
+      <c r="E500" s="46"/>
+    </row>
+    <row r="501" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="47"/>
+      <c r="E501" s="46"/>
+    </row>
+    <row r="502" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="47"/>
+      <c r="E502" s="46"/>
+    </row>
+    <row r="503" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="47"/>
+      <c r="E503" s="46"/>
+    </row>
+    <row r="504" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="47"/>
+      <c r="E504" s="46"/>
+    </row>
+    <row r="505" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="47"/>
+      <c r="E505" s="46"/>
+    </row>
+    <row r="506" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="47"/>
+      <c r="E506" s="46"/>
+    </row>
+    <row r="507" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="47"/>
+      <c r="E507" s="46"/>
+    </row>
+    <row r="508" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="47"/>
+      <c r="E508" s="46"/>
+    </row>
+    <row r="509" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="47"/>
+      <c r="E509" s="46"/>
+    </row>
+    <row r="510" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="47"/>
+      <c r="E510" s="46"/>
+    </row>
+    <row r="511" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="47"/>
+      <c r="E511" s="46"/>
+    </row>
+    <row r="512" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="47"/>
+      <c r="E512" s="46"/>
+    </row>
+    <row r="513" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="47"/>
+      <c r="E513" s="46"/>
+    </row>
+    <row r="514" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="47"/>
+      <c r="E514" s="46"/>
+    </row>
+    <row r="515" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="47"/>
+      <c r="E515" s="46"/>
+    </row>
+    <row r="516" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="47"/>
+      <c r="E516" s="46"/>
+    </row>
+    <row r="517" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="47"/>
+      <c r="E517" s="46"/>
+    </row>
+    <row r="518" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="47"/>
+      <c r="E518" s="46"/>
+    </row>
+    <row r="519" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="47"/>
+      <c r="E519" s="46"/>
+    </row>
+    <row r="520" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="47"/>
+      <c r="E520" s="46"/>
+    </row>
+    <row r="521" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="47"/>
+      <c r="E521" s="46"/>
+    </row>
+    <row r="522" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="47"/>
+      <c r="E522" s="46"/>
+    </row>
+    <row r="523" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="47"/>
+      <c r="E523" s="46"/>
+    </row>
+    <row r="524" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="47"/>
+      <c r="E524" s="46"/>
+    </row>
+    <row r="525" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="47"/>
+      <c r="E525" s="46"/>
+    </row>
+    <row r="526" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="47"/>
+      <c r="E526" s="46"/>
+    </row>
+    <row r="527" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="47"/>
+      <c r="E527" s="46"/>
+    </row>
+    <row r="528" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="47"/>
+      <c r="E528" s="46"/>
+    </row>
+    <row r="529" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="47"/>
+      <c r="E529" s="46"/>
+    </row>
+    <row r="530" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="47"/>
+      <c r="E530" s="46"/>
+    </row>
+    <row r="531" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="47"/>
+      <c r="E531" s="46"/>
+    </row>
+    <row r="532" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="47"/>
+      <c r="E532" s="46"/>
+    </row>
+    <row r="533" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="47"/>
+      <c r="E533" s="46"/>
+    </row>
+    <row r="534" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="47"/>
+      <c r="E534" s="46"/>
+    </row>
+    <row r="535" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="47"/>
+      <c r="E535" s="46"/>
+    </row>
+    <row r="536" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="47"/>
+      <c r="E536" s="46"/>
+    </row>
+    <row r="537" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="47"/>
+      <c r="E537" s="46"/>
+    </row>
+    <row r="538" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="47"/>
+      <c r="E538" s="46"/>
+    </row>
+    <row r="539" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="47"/>
+      <c r="E539" s="46"/>
+    </row>
+    <row r="540" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="47"/>
+      <c r="E540" s="46"/>
+    </row>
+    <row r="541" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="47"/>
+      <c r="E541" s="46"/>
+    </row>
+    <row r="542" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="47"/>
+      <c r="E542" s="46"/>
+    </row>
+    <row r="543" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="47"/>
+      <c r="E543" s="46"/>
+    </row>
+    <row r="544" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="47"/>
+      <c r="E544" s="46"/>
+    </row>
+    <row r="545" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="47"/>
+      <c r="E545" s="46"/>
+    </row>
+    <row r="546" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="47"/>
+      <c r="E546" s="46"/>
+    </row>
+    <row r="547" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="47"/>
+      <c r="E547" s="46"/>
+    </row>
+    <row r="548" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="47"/>
+      <c r="E548" s="46"/>
+    </row>
+    <row r="549" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="47"/>
+      <c r="E549" s="46"/>
+    </row>
+    <row r="550" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="47"/>
+      <c r="E550" s="46"/>
+    </row>
+    <row r="551" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="47"/>
+      <c r="E551" s="46"/>
+    </row>
+    <row r="552" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="47"/>
+      <c r="E552" s="46"/>
+    </row>
+    <row r="553" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="47"/>
+      <c r="E553" s="46"/>
+    </row>
+    <row r="554" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="47"/>
+      <c r="E554" s="46"/>
+    </row>
+    <row r="555" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="47"/>
+      <c r="E555" s="46"/>
+    </row>
+    <row r="556" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="47"/>
+      <c r="E556" s="46"/>
+    </row>
+    <row r="557" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="47"/>
+      <c r="E557" s="46"/>
+    </row>
+    <row r="558" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="47"/>
+      <c r="E558" s="46"/>
+    </row>
+    <row r="559" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="47"/>
+      <c r="E559" s="46"/>
+    </row>
+    <row r="560" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="47"/>
+      <c r="E560" s="46"/>
+    </row>
+    <row r="561" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="47"/>
+      <c r="E561" s="46"/>
+    </row>
+    <row r="562" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="47"/>
+      <c r="E562" s="46"/>
+    </row>
+    <row r="563" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="47"/>
+      <c r="E563" s="46"/>
+    </row>
+    <row r="564" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="47"/>
+      <c r="E564" s="46"/>
+    </row>
+    <row r="565" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="47"/>
+      <c r="E565" s="46"/>
+    </row>
+    <row r="566" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="47"/>
+      <c r="E566" s="46"/>
+    </row>
+    <row r="567" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="47"/>
+      <c r="E567" s="46"/>
+    </row>
+    <row r="568" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="47"/>
+      <c r="E568" s="46"/>
+    </row>
+    <row r="569" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="47"/>
+      <c r="E569" s="46"/>
+    </row>
+    <row r="570" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="47"/>
+      <c r="E570" s="46"/>
+    </row>
+    <row r="571" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="47"/>
+      <c r="E571" s="46"/>
+    </row>
+    <row r="572" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="47"/>
+      <c r="E572" s="46"/>
+    </row>
+    <row r="573" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="47"/>
+      <c r="E573" s="46"/>
+    </row>
+    <row r="574" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="47"/>
+      <c r="E574" s="46"/>
+    </row>
+    <row r="575" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="47"/>
+      <c r="E575" s="46"/>
+    </row>
+    <row r="576" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="47"/>
+      <c r="E576" s="46"/>
+    </row>
+    <row r="577" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="47"/>
+      <c r="E577" s="46"/>
+    </row>
+    <row r="578" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="47"/>
+      <c r="E578" s="46"/>
+    </row>
+    <row r="579" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="47"/>
+      <c r="E579" s="46"/>
+    </row>
+    <row r="580" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="47"/>
+      <c r="E580" s="46"/>
+    </row>
+    <row r="581" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="47"/>
+      <c r="E581" s="46"/>
+    </row>
+    <row r="582" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="47"/>
+      <c r="E582" s="46"/>
+    </row>
+    <row r="583" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="47"/>
+      <c r="E583" s="46"/>
+    </row>
+    <row r="584" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="47"/>
+      <c r="E584" s="46"/>
+    </row>
+    <row r="585" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="47"/>
+      <c r="E585" s="46"/>
+    </row>
+    <row r="586" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="47"/>
+      <c r="E586" s="46"/>
+    </row>
+    <row r="587" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="47"/>
+      <c r="E587" s="46"/>
+    </row>
+    <row r="588" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="47"/>
+      <c r="E588" s="46"/>
+    </row>
+    <row r="589" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="47"/>
+      <c r="E589" s="46"/>
+    </row>
+    <row r="590" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="47"/>
+      <c r="E590" s="46"/>
+    </row>
+    <row r="591" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="47"/>
+      <c r="E591" s="46"/>
+    </row>
+    <row r="592" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="47"/>
+      <c r="E592" s="46"/>
+    </row>
+    <row r="593" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="47"/>
+      <c r="E593" s="46"/>
+    </row>
+    <row r="594" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="47"/>
+      <c r="E594" s="46"/>
+    </row>
+    <row r="595" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="47"/>
+      <c r="E595" s="46"/>
+    </row>
+    <row r="596" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="47"/>
+      <c r="E596" s="46"/>
+    </row>
+    <row r="597" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="47"/>
+      <c r="E597" s="46"/>
+    </row>
+    <row r="598" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="47"/>
+      <c r="E598" s="46"/>
+    </row>
+    <row r="599" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="47"/>
+      <c r="E599" s="46"/>
+    </row>
+    <row r="600" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="47"/>
+      <c r="E600" s="46"/>
+    </row>
+    <row r="601" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="47"/>
+      <c r="E601" s="46"/>
+    </row>
+    <row r="602" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="47"/>
+      <c r="E602" s="46"/>
+    </row>
+    <row r="603" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="47"/>
+      <c r="E603" s="46"/>
+    </row>
+    <row r="604" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="47"/>
+      <c r="E604" s="46"/>
+    </row>
+    <row r="605" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="47"/>
+      <c r="E605" s="46"/>
+    </row>
+    <row r="606" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="47"/>
+      <c r="E606" s="46"/>
+    </row>
+    <row r="607" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="47"/>
+      <c r="E607" s="46"/>
+    </row>
+    <row r="608" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="47"/>
+      <c r="E608" s="46"/>
+    </row>
+    <row r="609" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="47"/>
+      <c r="E609" s="46"/>
+    </row>
+    <row r="610" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="47"/>
+      <c r="E610" s="46"/>
+    </row>
+    <row r="611" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="47"/>
+      <c r="E611" s="46"/>
+    </row>
+    <row r="612" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="47"/>
+      <c r="E612" s="46"/>
+    </row>
+    <row r="613" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="47"/>
+      <c r="E613" s="46"/>
+    </row>
+    <row r="614" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="47"/>
+      <c r="E614" s="46"/>
+    </row>
+    <row r="615" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="47"/>
+      <c r="E615" s="46"/>
+    </row>
+    <row r="616" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="47"/>
+      <c r="E616" s="46"/>
+    </row>
+    <row r="617" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="47"/>
+      <c r="E617" s="46"/>
+    </row>
+    <row r="618" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="47"/>
+      <c r="E618" s="46"/>
+    </row>
+    <row r="619" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="47"/>
+      <c r="E619" s="46"/>
+    </row>
+    <row r="620" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="47"/>
+      <c r="E620" s="46"/>
+    </row>
+    <row r="621" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="47"/>
+      <c r="E621" s="46"/>
+    </row>
+    <row r="622" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="47"/>
+      <c r="E622" s="46"/>
+    </row>
+    <row r="623" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="47"/>
+      <c r="E623" s="46"/>
+    </row>
+    <row r="624" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="47"/>
+      <c r="E624" s="46"/>
+    </row>
+    <row r="625" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="47"/>
+      <c r="E625" s="46"/>
+    </row>
+    <row r="626" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="47"/>
+      <c r="E626" s="46"/>
+    </row>
+    <row r="627" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="47"/>
+      <c r="E627" s="46"/>
+    </row>
+    <row r="628" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="47"/>
+      <c r="E628" s="46"/>
+    </row>
+    <row r="629" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="47"/>
+      <c r="E629" s="46"/>
+    </row>
+    <row r="630" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="47"/>
+      <c r="E630" s="46"/>
+    </row>
+    <row r="631" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="47"/>
+      <c r="E631" s="46"/>
+    </row>
+    <row r="632" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="47"/>
+      <c r="E632" s="46"/>
+    </row>
+    <row r="633" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="47"/>
+      <c r="E633" s="46"/>
+    </row>
+    <row r="634" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="47"/>
+      <c r="E634" s="46"/>
+    </row>
+    <row r="635" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="47"/>
+      <c r="E635" s="46"/>
+    </row>
+    <row r="636" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="47"/>
+      <c r="E636" s="46"/>
+    </row>
+    <row r="637" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="47"/>
+      <c r="E637" s="46"/>
+    </row>
+    <row r="638" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="47"/>
+      <c r="E638" s="46"/>
+    </row>
+    <row r="639" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="47"/>
+      <c r="E639" s="46"/>
+    </row>
+    <row r="640" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="47"/>
+      <c r="E640" s="46"/>
+    </row>
+    <row r="641" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="47"/>
+      <c r="E641" s="46"/>
+    </row>
+    <row r="642" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="47"/>
+      <c r="E642" s="46"/>
+    </row>
+    <row r="643" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="47"/>
+      <c r="E643" s="46"/>
+    </row>
+    <row r="644" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="47"/>
+      <c r="E644" s="46"/>
+    </row>
+    <row r="645" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="47"/>
+      <c r="E645" s="46"/>
+    </row>
+    <row r="646" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="47"/>
+      <c r="E646" s="46"/>
+    </row>
+    <row r="647" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="47"/>
+      <c r="E647" s="46"/>
+    </row>
+    <row r="648" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="47"/>
+      <c r="E648" s="46"/>
+    </row>
+    <row r="649" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="47"/>
+      <c r="E649" s="46"/>
+    </row>
+    <row r="650" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="47"/>
+      <c r="E650" s="46"/>
+    </row>
+    <row r="651" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="47"/>
+      <c r="E651" s="46"/>
+    </row>
+    <row r="652" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="47"/>
+      <c r="E652" s="46"/>
+    </row>
+    <row r="653" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="47"/>
+      <c r="E653" s="46"/>
+    </row>
+    <row r="654" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="47"/>
+      <c r="E654" s="46"/>
+    </row>
+    <row r="655" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="47"/>
+      <c r="E655" s="46"/>
+    </row>
+    <row r="656" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="47"/>
+      <c r="E656" s="46"/>
+    </row>
+    <row r="657" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="47"/>
+      <c r="E657" s="46"/>
+    </row>
+    <row r="658" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="47"/>
+      <c r="E658" s="46"/>
+    </row>
+    <row r="659" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="47"/>
+      <c r="E659" s="46"/>
+    </row>
+    <row r="660" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="47"/>
+      <c r="E660" s="46"/>
+    </row>
+    <row r="661" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="47"/>
+      <c r="E661" s="46"/>
+    </row>
+    <row r="662" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="47"/>
+      <c r="E662" s="46"/>
+    </row>
+    <row r="663" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="47"/>
+      <c r="E663" s="46"/>
+    </row>
+    <row r="664" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="47"/>
+      <c r="E664" s="46"/>
+    </row>
+    <row r="665" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="47"/>
+      <c r="E665" s="46"/>
+    </row>
+    <row r="666" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="47"/>
+      <c r="E666" s="46"/>
+    </row>
+    <row r="667" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="47"/>
+      <c r="E667" s="46"/>
+    </row>
+    <row r="668" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="47"/>
+      <c r="E668" s="46"/>
+    </row>
+    <row r="669" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="47"/>
+      <c r="E669" s="46"/>
+    </row>
+    <row r="670" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="47"/>
+      <c r="E670" s="46"/>
+    </row>
+    <row r="671" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="47"/>
+      <c r="E671" s="46"/>
+    </row>
+    <row r="672" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="47"/>
+      <c r="E672" s="46"/>
+    </row>
+    <row r="673" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="47"/>
+      <c r="E673" s="46"/>
+    </row>
+    <row r="674" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="47"/>
+      <c r="E674" s="46"/>
+    </row>
+    <row r="675" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="47"/>
+      <c r="E675" s="46"/>
+    </row>
+    <row r="676" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="47"/>
+      <c r="E676" s="46"/>
+    </row>
+    <row r="677" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="47"/>
+      <c r="E677" s="46"/>
+    </row>
+    <row r="678" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="47"/>
+      <c r="E678" s="46"/>
+    </row>
+    <row r="679" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="47"/>
+      <c r="E679" s="46"/>
+    </row>
+    <row r="680" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="47"/>
+      <c r="E680" s="46"/>
+    </row>
+    <row r="681" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="47"/>
+      <c r="E681" s="46"/>
+    </row>
+    <row r="682" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="47"/>
+      <c r="E682" s="46"/>
+    </row>
+    <row r="683" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="47"/>
+      <c r="E683" s="46"/>
+    </row>
+    <row r="684" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="47"/>
+      <c r="E684" s="46"/>
+    </row>
+    <row r="685" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="47"/>
+      <c r="E685" s="46"/>
+    </row>
+    <row r="686" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="47"/>
+      <c r="E686" s="46"/>
+    </row>
+    <row r="687" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="47"/>
+      <c r="E687" s="46"/>
+    </row>
+    <row r="688" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="47"/>
+      <c r="E688" s="46"/>
+    </row>
+    <row r="689" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="47"/>
+      <c r="E689" s="46"/>
+    </row>
+    <row r="690" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="47"/>
+      <c r="E690" s="46"/>
+    </row>
+    <row r="691" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="47"/>
+      <c r="E691" s="46"/>
+    </row>
+    <row r="692" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="47"/>
+      <c r="E692" s="46"/>
+    </row>
+    <row r="693" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="47"/>
+      <c r="E693" s="46"/>
+    </row>
+    <row r="694" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="47"/>
+      <c r="E694" s="46"/>
+    </row>
+    <row r="695" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="47"/>
+      <c r="E695" s="46"/>
+    </row>
+    <row r="696" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="47"/>
+      <c r="E696" s="46"/>
+    </row>
+    <row r="697" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="47"/>
+      <c r="E697" s="46"/>
+    </row>
+    <row r="698" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="47"/>
+      <c r="E698" s="46"/>
+    </row>
+    <row r="699" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="47"/>
+      <c r="E699" s="46"/>
+    </row>
+    <row r="700" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="47"/>
+      <c r="E700" s="46"/>
+    </row>
+    <row r="701" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="47"/>
+      <c r="E701" s="46"/>
+    </row>
+    <row r="702" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="47"/>
+      <c r="E702" s="46"/>
+    </row>
+    <row r="703" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="47"/>
+      <c r="E703" s="46"/>
+    </row>
+    <row r="704" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="47"/>
+      <c r="E704" s="46"/>
+    </row>
+    <row r="705" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="47"/>
+      <c r="E705" s="46"/>
+    </row>
+    <row r="706" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="47"/>
+      <c r="E706" s="46"/>
+    </row>
+    <row r="707" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="47"/>
+      <c r="E707" s="46"/>
+    </row>
+    <row r="708" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="47"/>
+      <c r="E708" s="46"/>
+    </row>
+    <row r="709" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="47"/>
+      <c r="E709" s="46"/>
+    </row>
+    <row r="710" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="47"/>
+      <c r="E710" s="46"/>
+    </row>
+    <row r="711" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="47"/>
+      <c r="E711" s="46"/>
+    </row>
+    <row r="712" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="47"/>
+      <c r="E712" s="46"/>
+    </row>
+    <row r="713" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="47"/>
+      <c r="E713" s="46"/>
+    </row>
+    <row r="714" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="47"/>
+      <c r="E714" s="46"/>
+    </row>
+    <row r="715" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="47"/>
+      <c r="E715" s="46"/>
+    </row>
+    <row r="716" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="47"/>
+      <c r="E716" s="46"/>
+    </row>
+    <row r="717" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="47"/>
+      <c r="E717" s="46"/>
+    </row>
+    <row r="718" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="47"/>
+      <c r="E718" s="46"/>
+    </row>
+    <row r="719" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="47"/>
+      <c r="E719" s="46"/>
+    </row>
+    <row r="720" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="47"/>
+      <c r="E720" s="46"/>
+    </row>
+    <row r="721" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="47"/>
+      <c r="E721" s="46"/>
+    </row>
+    <row r="722" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="47"/>
+      <c r="E722" s="46"/>
+    </row>
+    <row r="723" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="47"/>
+      <c r="E723" s="46"/>
+    </row>
+    <row r="724" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="47"/>
+      <c r="E724" s="46"/>
+    </row>
+    <row r="725" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="47"/>
+      <c r="E725" s="46"/>
+    </row>
+    <row r="726" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="47"/>
+      <c r="E726" s="46"/>
+    </row>
+    <row r="727" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="47"/>
+      <c r="E727" s="46"/>
+    </row>
+    <row r="728" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="47"/>
+      <c r="E728" s="46"/>
+    </row>
+    <row r="729" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="47"/>
+      <c r="E729" s="46"/>
+    </row>
+    <row r="730" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="47"/>
+      <c r="E730" s="46"/>
+    </row>
+    <row r="731" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="47"/>
+      <c r="E731" s="46"/>
+    </row>
+    <row r="732" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="47"/>
+      <c r="E732" s="46"/>
+    </row>
+    <row r="733" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="47"/>
+      <c r="E733" s="46"/>
+    </row>
+    <row r="734" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="47"/>
+      <c r="E734" s="46"/>
+    </row>
+    <row r="735" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="47"/>
+      <c r="E735" s="46"/>
+    </row>
+    <row r="736" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="47"/>
+      <c r="E736" s="46"/>
+    </row>
+    <row r="737" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="47"/>
+      <c r="E737" s="46"/>
+    </row>
+    <row r="738" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="47"/>
+      <c r="E738" s="46"/>
+    </row>
+    <row r="739" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="47"/>
+      <c r="E739" s="46"/>
+    </row>
+    <row r="740" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="47"/>
+      <c r="E740" s="46"/>
+    </row>
+    <row r="741" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="47"/>
+      <c r="E741" s="46"/>
+    </row>
+    <row r="742" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="47"/>
+      <c r="E742" s="46"/>
+    </row>
+    <row r="743" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="47"/>
+      <c r="E743" s="46"/>
+    </row>
+    <row r="744" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="47"/>
+      <c r="E744" s="46"/>
+    </row>
+    <row r="745" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="47"/>
+      <c r="E745" s="46"/>
+    </row>
+    <row r="746" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="47"/>
+      <c r="E746" s="46"/>
+    </row>
+    <row r="747" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="47"/>
+      <c r="E747" s="46"/>
+    </row>
+    <row r="748" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="47"/>
+      <c r="E748" s="46"/>
+    </row>
+    <row r="749" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="47"/>
+      <c r="E749" s="46"/>
+    </row>
+    <row r="750" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="47"/>
+      <c r="E750" s="46"/>
+    </row>
+    <row r="751" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="47"/>
+      <c r="E751" s="46"/>
+    </row>
+    <row r="752" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="47"/>
+      <c r="E752" s="46"/>
+    </row>
+    <row r="753" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="47"/>
+      <c r="E753" s="46"/>
+    </row>
+    <row r="754" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="47"/>
+      <c r="E754" s="46"/>
+    </row>
+    <row r="755" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="47"/>
+      <c r="E755" s="46"/>
+    </row>
+    <row r="756" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="47"/>
+      <c r="E756" s="46"/>
+    </row>
+    <row r="757" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="47"/>
+      <c r="E757" s="46"/>
+    </row>
+    <row r="758" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="47"/>
+      <c r="E758" s="46"/>
+    </row>
+    <row r="759" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="47"/>
+      <c r="E759" s="46"/>
+    </row>
+    <row r="760" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="47"/>
+      <c r="E760" s="46"/>
+    </row>
+    <row r="761" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="47"/>
+      <c r="E761" s="46"/>
+    </row>
+    <row r="762" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="47"/>
+      <c r="E762" s="46"/>
+    </row>
+    <row r="763" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="47"/>
+      <c r="E763" s="46"/>
+    </row>
+    <row r="764" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="47"/>
+      <c r="E764" s="46"/>
+    </row>
+    <row r="765" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="47"/>
+      <c r="E765" s="46"/>
+    </row>
+    <row r="766" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="47"/>
+      <c r="E766" s="46"/>
+    </row>
+    <row r="767" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="47"/>
+      <c r="E767" s="46"/>
+    </row>
+    <row r="768" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="47"/>
+      <c r="E768" s="46"/>
+    </row>
+    <row r="769" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="47"/>
+      <c r="E769" s="46"/>
+    </row>
+    <row r="770" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="47"/>
+      <c r="E770" s="46"/>
+    </row>
+    <row r="771" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="47"/>
+      <c r="E771" s="46"/>
+    </row>
+    <row r="772" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="47"/>
+      <c r="E772" s="46"/>
+    </row>
+    <row r="773" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="47"/>
+      <c r="E773" s="46"/>
+    </row>
+    <row r="774" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="47"/>
+      <c r="E774" s="46"/>
+    </row>
+    <row r="775" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="47"/>
+      <c r="E775" s="46"/>
+    </row>
+    <row r="776" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="47"/>
+      <c r="E776" s="46"/>
+    </row>
+    <row r="777" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="47"/>
+      <c r="E777" s="46"/>
+    </row>
+    <row r="778" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="47"/>
+      <c r="E778" s="46"/>
+    </row>
+    <row r="779" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="47"/>
+      <c r="E779" s="46"/>
+    </row>
+    <row r="780" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="47"/>
+      <c r="E780" s="46"/>
+    </row>
+    <row r="781" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="47"/>
+      <c r="E781" s="46"/>
+    </row>
+    <row r="782" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="47"/>
+      <c r="E782" s="46"/>
+    </row>
+    <row r="783" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="47"/>
+      <c r="E783" s="46"/>
+    </row>
+    <row r="784" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="47"/>
+      <c r="E784" s="46"/>
+    </row>
+    <row r="785" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="47"/>
+      <c r="E785" s="46"/>
+    </row>
+    <row r="786" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="47"/>
+      <c r="E786" s="46"/>
+    </row>
+    <row r="787" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="47"/>
+      <c r="E787" s="46"/>
+    </row>
+    <row r="788" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="47"/>
+      <c r="E788" s="46"/>
+    </row>
+    <row r="789" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="47"/>
+      <c r="E789" s="46"/>
+    </row>
+    <row r="790" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="47"/>
+      <c r="E790" s="46"/>
+    </row>
+    <row r="791" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="47"/>
+      <c r="E791" s="46"/>
+    </row>
+    <row r="792" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="47"/>
+      <c r="E792" s="46"/>
+    </row>
+    <row r="793" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="47"/>
+      <c r="E793" s="46"/>
+    </row>
+    <row r="794" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="47"/>
+      <c r="E794" s="46"/>
+    </row>
+    <row r="795" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="47"/>
+      <c r="E795" s="46"/>
+    </row>
+    <row r="796" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="47"/>
+      <c r="E796" s="46"/>
+    </row>
+    <row r="797" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="47"/>
+      <c r="E797" s="46"/>
+    </row>
+    <row r="798" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="47"/>
+      <c r="E798" s="46"/>
+    </row>
+    <row r="799" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="47"/>
+      <c r="E799" s="46"/>
+    </row>
+    <row r="800" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="47"/>
+      <c r="E800" s="46"/>
+    </row>
+    <row r="801" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="47"/>
+      <c r="E801" s="46"/>
+    </row>
+    <row r="802" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="47"/>
+      <c r="E802" s="46"/>
+    </row>
+    <row r="803" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="47"/>
+      <c r="E803" s="46"/>
+    </row>
+    <row r="804" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="47"/>
+      <c r="E804" s="46"/>
+    </row>
+    <row r="805" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="47"/>
+      <c r="E805" s="46"/>
+    </row>
+    <row r="806" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="47"/>
+      <c r="E806" s="46"/>
+    </row>
+    <row r="807" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="47"/>
+      <c r="E807" s="46"/>
+    </row>
+    <row r="808" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="47"/>
+      <c r="E808" s="46"/>
+    </row>
+    <row r="809" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="47"/>
+      <c r="E809" s="46"/>
+    </row>
+    <row r="810" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="47"/>
+      <c r="E810" s="46"/>
+    </row>
+    <row r="811" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="47"/>
+      <c r="E811" s="46"/>
+    </row>
+    <row r="812" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="47"/>
+      <c r="E812" s="46"/>
+    </row>
+    <row r="813" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="47"/>
+      <c r="E813" s="46"/>
+    </row>
+    <row r="814" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="47"/>
+      <c r="E814" s="46"/>
+    </row>
+    <row r="815" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="47"/>
+      <c r="E815" s="46"/>
+    </row>
+    <row r="816" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="47"/>
+      <c r="E816" s="46"/>
+    </row>
+    <row r="817" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="47"/>
+      <c r="E817" s="46"/>
+    </row>
+    <row r="818" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="47"/>
+      <c r="E818" s="46"/>
+    </row>
+    <row r="819" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="47"/>
+      <c r="E819" s="46"/>
+    </row>
+    <row r="820" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="47"/>
+      <c r="E820" s="46"/>
+    </row>
+    <row r="821" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="47"/>
+      <c r="E821" s="46"/>
+    </row>
+    <row r="822" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="47"/>
+      <c r="E822" s="46"/>
+    </row>
+    <row r="823" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="47"/>
+      <c r="E823" s="46"/>
+    </row>
+    <row r="824" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="47"/>
+      <c r="E824" s="46"/>
+    </row>
+    <row r="825" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="47"/>
+      <c r="E825" s="46"/>
+    </row>
+    <row r="826" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="47"/>
+      <c r="E826" s="46"/>
+    </row>
+    <row r="827" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="47"/>
+      <c r="E827" s="46"/>
+    </row>
+    <row r="828" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="47"/>
+      <c r="E828" s="46"/>
+    </row>
+    <row r="829" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="47"/>
+      <c r="E829" s="46"/>
+    </row>
+    <row r="830" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="47"/>
+      <c r="E830" s="46"/>
+    </row>
+    <row r="831" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="47"/>
+      <c r="E831" s="46"/>
+    </row>
+    <row r="832" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="47"/>
+      <c r="E832" s="46"/>
+    </row>
+    <row r="833" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="47"/>
+      <c r="E833" s="46"/>
+    </row>
+    <row r="834" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="47"/>
+      <c r="E834" s="46"/>
+    </row>
+    <row r="835" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="47"/>
+      <c r="E835" s="46"/>
+    </row>
+    <row r="836" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="47"/>
+      <c r="E836" s="46"/>
+    </row>
+    <row r="837" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="47"/>
+      <c r="E837" s="46"/>
+    </row>
+    <row r="838" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="47"/>
+      <c r="E838" s="46"/>
+    </row>
+    <row r="839" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="47"/>
+      <c r="E839" s="46"/>
+    </row>
+    <row r="840" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="47"/>
+      <c r="E840" s="46"/>
+    </row>
+    <row r="841" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="47"/>
+      <c r="E841" s="46"/>
+    </row>
+    <row r="842" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="47"/>
+      <c r="E842" s="46"/>
+    </row>
+    <row r="843" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="47"/>
+      <c r="E843" s="46"/>
+    </row>
+    <row r="844" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="47"/>
+      <c r="E844" s="46"/>
+    </row>
+    <row r="845" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="47"/>
+      <c r="E845" s="46"/>
+    </row>
+    <row r="846" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="47"/>
+      <c r="E846" s="46"/>
+    </row>
+    <row r="847" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="47"/>
+      <c r="E847" s="46"/>
+    </row>
+    <row r="848" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="47"/>
+      <c r="E848" s="46"/>
+    </row>
+    <row r="849" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="47"/>
+      <c r="E849" s="46"/>
+    </row>
+    <row r="850" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="47"/>
+      <c r="E850" s="46"/>
+    </row>
+    <row r="851" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="47"/>
+      <c r="E851" s="46"/>
+    </row>
+    <row r="852" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="47"/>
+      <c r="E852" s="46"/>
+    </row>
+    <row r="853" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="47"/>
+      <c r="E853" s="46"/>
+    </row>
+    <row r="854" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="47"/>
+      <c r="E854" s="46"/>
+    </row>
+    <row r="855" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="47"/>
+      <c r="E855" s="46"/>
+    </row>
+    <row r="856" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="47"/>
+      <c r="E856" s="46"/>
+    </row>
+    <row r="857" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="47"/>
+      <c r="E857" s="46"/>
+    </row>
+    <row r="858" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="47"/>
+      <c r="E858" s="46"/>
+    </row>
+    <row r="859" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="47"/>
+      <c r="E859" s="46"/>
+    </row>
+    <row r="860" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="47"/>
+      <c r="E860" s="46"/>
+    </row>
+    <row r="861" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="47"/>
+      <c r="E861" s="46"/>
+    </row>
+    <row r="862" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="47"/>
+      <c r="E862" s="46"/>
+    </row>
+    <row r="863" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="47"/>
+      <c r="E863" s="46"/>
+    </row>
+    <row r="864" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="47"/>
+      <c r="E864" s="46"/>
+    </row>
+    <row r="865" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="47"/>
+      <c r="E865" s="46"/>
+    </row>
+    <row r="866" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="47"/>
+      <c r="E866" s="46"/>
+    </row>
+    <row r="867" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="47"/>
+      <c r="E867" s="46"/>
+    </row>
+    <row r="868" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="47"/>
+      <c r="E868" s="46"/>
+    </row>
+    <row r="869" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="47"/>
+      <c r="E869" s="46"/>
+    </row>
+    <row r="870" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="47"/>
+      <c r="E870" s="46"/>
+    </row>
+    <row r="871" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="47"/>
+      <c r="E871" s="46"/>
+    </row>
+    <row r="872" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="47"/>
+      <c r="E872" s="46"/>
+    </row>
+    <row r="873" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="47"/>
+      <c r="E873" s="46"/>
+    </row>
+    <row r="874" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="47"/>
+      <c r="E874" s="46"/>
+    </row>
+    <row r="875" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="47"/>
+      <c r="E875" s="46"/>
+    </row>
+    <row r="876" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="47"/>
+      <c r="E876" s="46"/>
+    </row>
+    <row r="877" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="47"/>
+      <c r="E877" s="46"/>
+    </row>
+    <row r="878" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="47"/>
+      <c r="E878" s="46"/>
+    </row>
+    <row r="879" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="47"/>
+      <c r="E879" s="46"/>
+    </row>
+    <row r="880" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="47"/>
+      <c r="E880" s="46"/>
+    </row>
+    <row r="881" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="47"/>
+      <c r="E881" s="46"/>
+    </row>
+    <row r="882" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="47"/>
+      <c r="E882" s="46"/>
+    </row>
+    <row r="883" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="47"/>
+      <c r="E883" s="46"/>
+    </row>
+    <row r="884" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="47"/>
+      <c r="E884" s="46"/>
+    </row>
+    <row r="885" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="47"/>
+      <c r="E885" s="46"/>
+    </row>
+    <row r="886" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="47"/>
+      <c r="E886" s="46"/>
+    </row>
+    <row r="887" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="47"/>
+      <c r="E887" s="46"/>
+    </row>
+    <row r="888" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="47"/>
+      <c r="E888" s="46"/>
+    </row>
+    <row r="889" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="47"/>
+      <c r="E889" s="46"/>
+    </row>
+    <row r="890" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="47"/>
+      <c r="E890" s="46"/>
+    </row>
+    <row r="891" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="47"/>
+      <c r="E891" s="46"/>
+    </row>
+    <row r="892" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="47"/>
+      <c r="E892" s="46"/>
+    </row>
+    <row r="893" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="47"/>
+      <c r="E893" s="46"/>
+    </row>
+    <row r="894" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="47"/>
+      <c r="E894" s="46"/>
+    </row>
+    <row r="895" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="47"/>
+      <c r="E895" s="46"/>
+    </row>
+    <row r="896" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="47"/>
+      <c r="E896" s="46"/>
+    </row>
+    <row r="897" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="47"/>
+      <c r="E897" s="46"/>
+    </row>
+    <row r="898" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="47"/>
+      <c r="E898" s="46"/>
+    </row>
+    <row r="899" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="47"/>
+      <c r="E899" s="46"/>
+    </row>
+    <row r="900" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="47"/>
+      <c r="E900" s="46"/>
+    </row>
+    <row r="901" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="47"/>
+      <c r="E901" s="46"/>
+    </row>
+    <row r="902" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="47"/>
+      <c r="E902" s="46"/>
+    </row>
+    <row r="903" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="47"/>
+      <c r="E903" s="46"/>
+    </row>
+    <row r="904" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="47"/>
+      <c r="E904" s="46"/>
+    </row>
+    <row r="905" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="47"/>
+      <c r="E905" s="46"/>
+    </row>
+    <row r="906" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="47"/>
+      <c r="E906" s="46"/>
+    </row>
+    <row r="907" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="47"/>
+      <c r="E907" s="46"/>
+    </row>
+    <row r="908" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="47"/>
+      <c r="E908" s="46"/>
+    </row>
+    <row r="909" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="47"/>
+      <c r="E909" s="46"/>
+    </row>
+    <row r="910" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="47"/>
+      <c r="E910" s="46"/>
+    </row>
+    <row r="911" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="47"/>
+      <c r="E911" s="46"/>
+    </row>
+    <row r="912" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="47"/>
+      <c r="E912" s="46"/>
+    </row>
+    <row r="913" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="47"/>
+      <c r="E913" s="46"/>
+    </row>
+    <row r="914" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="47"/>
+      <c r="E914" s="46"/>
+    </row>
+    <row r="915" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="47"/>
+      <c r="E915" s="46"/>
+    </row>
+    <row r="916" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="47"/>
+      <c r="E916" s="46"/>
+    </row>
+    <row r="917" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="47"/>
+      <c r="E917" s="46"/>
+    </row>
+    <row r="918" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="47"/>
+      <c r="E918" s="46"/>
+    </row>
+    <row r="919" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="47"/>
+      <c r="E919" s="46"/>
+    </row>
+    <row r="920" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="47"/>
+      <c r="E920" s="46"/>
+    </row>
+    <row r="921" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="47"/>
+      <c r="E921" s="46"/>
+    </row>
+    <row r="922" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="47"/>
+      <c r="E922" s="46"/>
+    </row>
+    <row r="923" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="47"/>
+      <c r="E923" s="46"/>
+    </row>
+    <row r="924" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="47"/>
+      <c r="E924" s="46"/>
+    </row>
+    <row r="925" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="47"/>
+      <c r="E925" s="46"/>
+    </row>
+    <row r="926" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="47"/>
+      <c r="E926" s="46"/>
+    </row>
+    <row r="927" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="47"/>
+      <c r="E927" s="46"/>
+    </row>
+    <row r="928" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="47"/>
+      <c r="E928" s="46"/>
+    </row>
+    <row r="929" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="47"/>
+      <c r="E929" s="46"/>
+    </row>
+    <row r="930" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="47"/>
+      <c r="E930" s="46"/>
+    </row>
+    <row r="931" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="47"/>
+      <c r="E931" s="46"/>
+    </row>
+    <row r="932" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="47"/>
+      <c r="E932" s="46"/>
+    </row>
+    <row r="933" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="47"/>
+      <c r="E933" s="46"/>
+    </row>
+    <row r="934" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="47"/>
+      <c r="E934" s="46"/>
+    </row>
+    <row r="935" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="47"/>
+      <c r="E935" s="46"/>
+    </row>
+    <row r="936" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="47"/>
+      <c r="E936" s="46"/>
+    </row>
+    <row r="937" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="47"/>
+      <c r="E937" s="46"/>
+    </row>
+    <row r="938" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="47"/>
+      <c r="E938" s="46"/>
+    </row>
+    <row r="939" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="47"/>
+      <c r="E939" s="46"/>
+    </row>
+    <row r="940" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="47"/>
+      <c r="E940" s="46"/>
+    </row>
+    <row r="941" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="47"/>
+      <c r="E941" s="46"/>
+    </row>
+    <row r="942" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="47"/>
+      <c r="E942" s="46"/>
+    </row>
+    <row r="943" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="47"/>
+      <c r="E943" s="46"/>
+    </row>
+    <row r="944" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="47"/>
+      <c r="E944" s="46"/>
+    </row>
+    <row r="945" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="47"/>
+      <c r="E945" s="46"/>
+    </row>
+    <row r="946" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="47"/>
+      <c r="E946" s="46"/>
+    </row>
+    <row r="947" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="47"/>
+      <c r="E947" s="46"/>
+    </row>
+    <row r="948" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="47"/>
+      <c r="E948" s="46"/>
+    </row>
+    <row r="949" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="47"/>
+      <c r="E949" s="46"/>
+    </row>
+    <row r="950" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="47"/>
+      <c r="E950" s="46"/>
+    </row>
+    <row r="951" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="47"/>
+      <c r="E951" s="46"/>
+    </row>
+    <row r="952" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="47"/>
+      <c r="E952" s="46"/>
+    </row>
+    <row r="953" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="47"/>
+      <c r="E953" s="46"/>
+    </row>
+    <row r="954" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="47"/>
+      <c r="E954" s="46"/>
+    </row>
+    <row r="955" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="47"/>
+      <c r="E955" s="46"/>
+    </row>
+    <row r="956" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="47"/>
+      <c r="E956" s="46"/>
+    </row>
+    <row r="957" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="47"/>
+      <c r="E957" s="46"/>
+    </row>
+    <row r="958" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="47"/>
+      <c r="E958" s="46"/>
+    </row>
+    <row r="959" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="47"/>
+      <c r="E959" s="46"/>
+    </row>
+    <row r="960" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="47"/>
+      <c r="E960" s="46"/>
+    </row>
+    <row r="961" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="47"/>
+      <c r="E961" s="46"/>
+    </row>
+    <row r="962" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="47"/>
+      <c r="E962" s="46"/>
+    </row>
+    <row r="963" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="47"/>
+      <c r="E963" s="46"/>
+    </row>
+    <row r="964" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="47"/>
+      <c r="E964" s="46"/>
+    </row>
+    <row r="965" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="47"/>
+      <c r="E965" s="46"/>
+    </row>
+    <row r="966" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="47"/>
+      <c r="E966" s="46"/>
+    </row>
+    <row r="967" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="47"/>
+      <c r="E967" s="46"/>
+    </row>
+    <row r="968" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="47"/>
+      <c r="E968" s="46"/>
+    </row>
+    <row r="969" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="47"/>
+      <c r="E969" s="46"/>
+    </row>
+    <row r="970" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="47"/>
+      <c r="E970" s="46"/>
+    </row>
+    <row r="971" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="47"/>
+      <c r="E971" s="46"/>
+    </row>
+    <row r="972" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="47"/>
+      <c r="E972" s="46"/>
+    </row>
+    <row r="973" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="47"/>
+      <c r="E973" s="46"/>
+    </row>
+    <row r="974" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="47"/>
+      <c r="E974" s="46"/>
+    </row>
+    <row r="975" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="47"/>
+      <c r="E975" s="46"/>
+    </row>
+    <row r="976" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="47"/>
+      <c r="E976" s="46"/>
+    </row>
+    <row r="977" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="47"/>
+      <c r="E977" s="46"/>
+    </row>
+    <row r="978" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B978" s="47"/>
+      <c r="E978" s="46"/>
+    </row>
+    <row r="979" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B979" s="47"/>
+      <c r="E979" s="46"/>
+    </row>
+    <row r="980" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="47"/>
+      <c r="E980" s="46"/>
+    </row>
+    <row r="981" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B981" s="47"/>
+      <c r="E981" s="46"/>
+    </row>
+    <row r="982" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B982" s="47"/>
+      <c r="E982" s="46"/>
+    </row>
+    <row r="983" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B983" s="47"/>
+      <c r="E983" s="46"/>
+    </row>
+    <row r="984" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B984" s="47"/>
+      <c r="E984" s="46"/>
+    </row>
+    <row r="985" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B985" s="47"/>
+      <c r="E985" s="46"/>
+    </row>
+    <row r="986" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B986" s="47"/>
+      <c r="E986" s="46"/>
+    </row>
+    <row r="987" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B987" s="47"/>
+      <c r="E987" s="46"/>
+    </row>
+    <row r="988" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B988" s="47"/>
+      <c r="E988" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-085 Custome Ranking.xlsx
+++ b/CH-085 Custome Ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF764B3B-CD9E-462E-BDAB-B0434301359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B207AB-45A4-47B2-8686-E1591F75F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F722F3FF-1085-48CD-AB15-9E26505C6112}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>disb</t>
+  </si>
+  <si>
+    <t>Single Function</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6150"/>
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s6151"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1059,7 +1062,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s7169"/>
+                  <a14:cameraTool cellRange="$E$3:$F$23" spid="_x0000_s7170"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -27360,8 +27363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CFB637-46D5-4A2C-9F34-88617D1E5A47}">
   <dimension ref="A1:Y988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28203,6 +28206,8 @@
     </row>
     <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="47"/>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39" s="46"/>
       <c r="L39" s="27">
         <v>34</v>
@@ -28225,21 +28230,8 @@
     </row>
     <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="47"/>
-      <c r="C40" s="27" cm="1">
-        <f t="array" ref="C40:C60">_xlfn.LET(
-_xlpm.z,_xlfn.TOCOL(_xlfn.ANCHORARRAY(C27),3),
-_xlpm.zz,_xlfn.HSTACK(_xlpm.z,
-          _xlfn.SORTBY(_xlfn.SEQUENCE(ROWS(_xlpm.z)),
-                 _xlfn.XMATCH(_xlpm.z,B3:B23)
-          )),
-_xlpm.z
-)</f>
-        <v>47</v>
-      </c>
-      <c r="D40" s="27" cm="1">
-        <f t="array" ref="D40:D60">_xlfn.SEQUENCE(21)</f>
-        <v>1</v>
-      </c>
+      <c r="C40"/>
+      <c r="D40"/>
       <c r="E40" s="46"/>
       <c r="L40" s="27">
         <v>68</v>
@@ -28262,12 +28254,8 @@
     </row>
     <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47"/>
-      <c r="C41" s="27">
-        <v>51</v>
-      </c>
-      <c r="D41" s="27">
-        <v>2</v>
-      </c>
+      <c r="C41"/>
+      <c r="D41"/>
       <c r="E41" s="46"/>
       <c r="L41" s="27">
         <v>69</v>
@@ -28290,12 +28278,8 @@
     </row>
     <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="47"/>
-      <c r="C42" s="27">
-        <v>45</v>
-      </c>
-      <c r="D42" s="27">
-        <v>3</v>
-      </c>
+      <c r="C42"/>
+      <c r="D42"/>
       <c r="E42" s="46"/>
       <c r="L42" s="27">
         <v>30</v>
@@ -28318,11 +28302,8 @@
     </row>
     <row r="43" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="47"/>
-      <c r="C43" s="27">
-        <v>52</v>
-      </c>
-      <c r="D43" s="27">
-        <v>4</v>
+      <c r="C43" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="46"/>
       <c r="L43" s="27">
@@ -28346,11 +28327,23 @@
     </row>
     <row r="44" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
-      <c r="C44" s="27">
-        <v>44</v>
+      <c r="C44" s="27" cm="1">
+        <f t="array" ref="C44:D64">_xlfn.LET(
+_xlpm.a, B3:B23,
+_xlpm.fl, _xlfn.LAMBDA(_xlpm.x, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlpm.a, IF(_xlpm.x = -1, _xlpm.a &lt; 50, IF(_xlpm.x = 1, _xlpm.a &gt; 50))), 1, _xlpm.x)),
+_xlpm.z, _xlfn.HSTACK(_xlpm.fl(-1),_xlpm.fl(1)),
+_xlpm.zz, ABS(_xlpm.z-50),
+_xlpm.zzz1, IF(_xlfn.CHOOSECOLS(_xlpm.zz,1)&lt;IFERROR(_xlfn.CHOOSECOLS(_xlpm.zz,2),100),_xlfn.CHOOSECOLS(_xlpm.z,1),_xlfn.CHOOSECOLS(_xlpm.z,2)),
+_xlpm.zzz2, IF(_xlfn.CHOOSECOLS(_xlpm.zz,1)&lt;IFERROR(_xlfn.CHOOSECOLS(_xlpm.zz,2),100),_xlfn.CHOOSECOLS(_xlpm.z,2),_xlfn.CHOOSECOLS(_xlpm.z,1)),
+_xlpm.zzz, _xlfn.HSTACK(_xlpm.zzz1,_xlpm.zzz2),
+_xlpm.zzzz1, _xlfn.TOCOL(_xlpm.zzz,3),
+_xlpm.zzzz, _xlfn.HSTACK(_xlpm.zzzz1,_xlfn.SEQUENCE(ROWS(_xlpm.zzzz1))),
+_xlfn.SORTBY(_xlpm.zzzz,_xlfn.XMATCH(_xlfn.CHOOSECOLS(_xlpm.zzzz,1),B3:B23))
+)</f>
+        <v>22</v>
       </c>
       <c r="D44" s="27">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E44" s="46"/>
       <c r="L44" s="27">
@@ -28375,10 +28368,10 @@
     <row r="45" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="47"/>
       <c r="C45" s="27">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D45" s="27">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E45" s="46"/>
       <c r="L45" s="27">
@@ -28403,10 +28396,10 @@
     <row r="46" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47"/>
       <c r="C46" s="27">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D46" s="27">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E46" s="46"/>
       <c r="L46" s="27">
@@ -28431,10 +28424,10 @@
     <row r="47" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="47"/>
       <c r="C47" s="27">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D47" s="27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E47" s="46"/>
       <c r="L47" s="27">
@@ -28459,20 +28452,20 @@
     <row r="48" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
       <c r="C48" s="27">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D48" s="27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E48" s="46"/>
     </row>
     <row r="49" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="47"/>
       <c r="C49" s="27">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D49" s="27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="46"/>
     </row>
@@ -28489,320 +28482,217 @@
     <row r="51" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="47"/>
       <c r="C51" s="27">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D51" s="27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E51" s="46"/>
     </row>
     <row r="52" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="47"/>
       <c r="C52" s="27">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D52" s="27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E52" s="46"/>
     </row>
     <row r="53" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="47"/>
       <c r="C53" s="27">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D53" s="27">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E53" s="46"/>
     </row>
     <row r="54" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="47"/>
       <c r="C54" s="27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D54" s="27">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E54" s="46"/>
     </row>
     <row r="55" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="47"/>
       <c r="C55" s="27">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D55" s="27">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E55" s="46"/>
     </row>
     <row r="56" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="47"/>
       <c r="C56" s="27">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D56" s="27">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E56" s="46"/>
     </row>
     <row r="57" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="47"/>
       <c r="C57" s="27">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D57" s="27">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E57" s="46"/>
     </row>
     <row r="58" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="47"/>
       <c r="C58" s="27">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D58" s="27">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E58" s="46"/>
     </row>
     <row r="59" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="47"/>
       <c r="C59" s="27">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D59" s="27">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E59" s="46"/>
     </row>
     <row r="60" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="47"/>
       <c r="C60" s="27">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D60" s="27">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E60" s="46"/>
     </row>
     <row r="61" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="47"/>
+      <c r="C61" s="27">
+        <v>67</v>
+      </c>
+      <c r="D61" s="27">
+        <v>12</v>
+      </c>
       <c r="E61" s="46"/>
     </row>
     <row r="62" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="47"/>
+      <c r="C62" s="27">
+        <v>68</v>
+      </c>
+      <c r="D62" s="27">
+        <v>14</v>
+      </c>
       <c r="E62" s="46"/>
     </row>
     <row r="63" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="47"/>
-      <c r="C63" s="27" cm="1">
-        <f t="array" ref="C63:D83">_xlfn.LET(_xlpm.z,C40:D60,_xlfn.SORTBY(_xlpm.z,_xlfn.XMATCH(_xlfn.CHOOSECOLS(_xlpm.z,1),B3:B23)))</f>
-        <v>22</v>
+      <c r="C63" s="27">
+        <v>69</v>
       </c>
       <c r="D63" s="27">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E63" s="46"/>
     </row>
     <row r="64" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="47"/>
       <c r="C64" s="27">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D64" s="27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" s="46"/>
     </row>
     <row r="65" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="47"/>
-      <c r="C65" s="27">
-        <v>27</v>
-      </c>
-      <c r="D65" s="27">
-        <v>19</v>
-      </c>
       <c r="E65" s="46"/>
     </row>
     <row r="66" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="47"/>
-      <c r="C66" s="27">
-        <v>28</v>
-      </c>
-      <c r="D66" s="27">
-        <v>17</v>
-      </c>
       <c r="E66" s="46"/>
     </row>
     <row r="67" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="47"/>
-      <c r="C67" s="27">
-        <v>30</v>
-      </c>
-      <c r="D67" s="27">
-        <v>15</v>
-      </c>
       <c r="E67" s="46"/>
     </row>
     <row r="68" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="47"/>
-      <c r="C68" s="27">
-        <v>34</v>
-      </c>
-      <c r="D68" s="27">
-        <v>13</v>
-      </c>
       <c r="E68" s="46"/>
     </row>
     <row r="69" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="47"/>
-      <c r="C69" s="27">
-        <v>40</v>
-      </c>
-      <c r="D69" s="27">
-        <v>11</v>
-      </c>
       <c r="E69" s="46"/>
     </row>
     <row r="70" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="47"/>
-      <c r="C70" s="27">
-        <v>42</v>
-      </c>
-      <c r="D70" s="27">
-        <v>9</v>
-      </c>
       <c r="E70" s="46"/>
     </row>
     <row r="71" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="47"/>
-      <c r="C71" s="27">
-        <v>43</v>
-      </c>
-      <c r="D71" s="27">
-        <v>7</v>
-      </c>
       <c r="E71" s="46"/>
     </row>
     <row r="72" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="47"/>
-      <c r="C72" s="27">
-        <v>44</v>
-      </c>
-      <c r="D72" s="27">
-        <v>5</v>
-      </c>
       <c r="E72" s="46"/>
     </row>
     <row r="73" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="47"/>
-      <c r="C73" s="27">
-        <v>45</v>
-      </c>
-      <c r="D73" s="27">
-        <v>3</v>
-      </c>
       <c r="E73" s="46"/>
     </row>
     <row r="74" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="47"/>
-      <c r="C74" s="27">
-        <v>47</v>
-      </c>
-      <c r="D74" s="27">
-        <v>1</v>
-      </c>
       <c r="E74" s="46"/>
     </row>
     <row r="75" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="47"/>
-      <c r="C75" s="27">
-        <v>51</v>
-      </c>
-      <c r="D75" s="27">
-        <v>2</v>
-      </c>
       <c r="E75" s="46"/>
     </row>
     <row r="76" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="47"/>
-      <c r="C76" s="27">
-        <v>52</v>
-      </c>
-      <c r="D76" s="27">
-        <v>4</v>
-      </c>
       <c r="E76" s="46"/>
     </row>
     <row r="77" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="47"/>
-      <c r="C77" s="27">
-        <v>60</v>
-      </c>
-      <c r="D77" s="27">
-        <v>6</v>
-      </c>
       <c r="E77" s="46"/>
     </row>
     <row r="78" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="47"/>
-      <c r="C78" s="27">
-        <v>63</v>
-      </c>
-      <c r="D78" s="27">
-        <v>8</v>
-      </c>
       <c r="E78" s="46"/>
     </row>
     <row r="79" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="47"/>
-      <c r="C79" s="27">
-        <v>64</v>
-      </c>
-      <c r="D79" s="27">
-        <v>10</v>
-      </c>
       <c r="E79" s="46"/>
     </row>
     <row r="80" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="47"/>
-      <c r="C80" s="27">
-        <v>67</v>
-      </c>
-      <c r="D80" s="27">
-        <v>12</v>
-      </c>
       <c r="E80" s="46"/>
     </row>
     <row r="81" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="47"/>
-      <c r="C81" s="27">
-        <v>68</v>
-      </c>
-      <c r="D81" s="27">
-        <v>14</v>
-      </c>
       <c r="E81" s="46"/>
     </row>
     <row r="82" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="47"/>
-      <c r="C82" s="27">
-        <v>69</v>
-      </c>
-      <c r="D82" s="27">
-        <v>16</v>
-      </c>
       <c r="E82" s="46"/>
     </row>
     <row r="83" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="47"/>
-      <c r="C83" s="27">
-        <v>74</v>
-      </c>
-      <c r="D83" s="27">
-        <v>18</v>
-      </c>
       <c r="E83" s="46"/>
     </row>
     <row r="84" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
